--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BABEF4-9BAC-4B7F-A13F-7CF018E975F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EA996B-531D-4F6A-9D06-3C33D4F81E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -13512,15 +13512,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <font>
         <color theme="0"/>
@@ -13647,11 +13639,6 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -13660,36 +13647,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13772,72 +13732,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5FC8F15-94FA-43A1-8787-57DFB5BD6373}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="12793980" y="40149780"/>
-          <a:ext cx="160020" cy="121920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -13846,7 +13740,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14742,27 +14636,27 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3 E22:E23">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:G4">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23720,12 +23614,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:A9">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:I1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28320,8 +28214,8 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M149" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
@@ -35118,7 +35012,6 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -35127,7 +35020,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -35261,7 +35154,7 @@
         <v>1</v>
       </c>
       <c r="V2" s="9">
-        <f>COUNTIF(F:S,Q2)</f>
+        <f t="shared" ref="V2:V26" si="0">COUNTIF(F:S,Q2)</f>
         <v>1</v>
       </c>
     </row>
@@ -35309,7 +35202,7 @@
         <v>2</v>
       </c>
       <c r="V3" s="9">
-        <f>COUNTIF(F:S,Q3)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -35354,7 +35247,7 @@
         <v>3</v>
       </c>
       <c r="V4" s="9">
-        <f>COUNTIF(F:S,Q4)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35402,7 +35295,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="9">
-        <f>COUNTIF(F:S,Q5)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35447,7 +35340,7 @@
         <v>5</v>
       </c>
       <c r="V6" s="9">
-        <f>COUNTIF(F:S,Q6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35498,7 +35391,7 @@
         <v>6</v>
       </c>
       <c r="V7" s="9">
-        <f>COUNTIF(F:S,Q7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35546,7 +35439,7 @@
         <v>7</v>
       </c>
       <c r="V8" s="9">
-        <f>COUNTIF(F:S,Q8)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -35595,7 +35488,7 @@
         <v>8</v>
       </c>
       <c r="V9" s="9">
-        <f>COUNTIF(F:S,Q9)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35646,7 +35539,7 @@
         <v>9</v>
       </c>
       <c r="V10" s="9">
-        <f>COUNTIF(F:S,Q10)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35700,7 +35593,7 @@
         <v>10</v>
       </c>
       <c r="V11" s="9">
-        <f>COUNTIF(F:S,Q11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -35745,7 +35638,7 @@
         <v>11</v>
       </c>
       <c r="V12" s="9">
-        <f>COUNTIF(F:S,Q12)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35793,7 +35686,7 @@
         <v>12</v>
       </c>
       <c r="V13" s="9">
-        <f>COUNTIF(F:S,Q13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35844,7 +35737,7 @@
         <v>13</v>
       </c>
       <c r="V14" s="9">
-        <f>COUNTIF(F:S,Q14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35889,7 +35782,7 @@
         <v>14</v>
       </c>
       <c r="V15" s="9">
-        <f>COUNTIF(F:S,Q15)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -35937,7 +35830,7 @@
         <v>15</v>
       </c>
       <c r="V16" s="9">
-        <f>COUNTIF(F:S,Q16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -35982,7 +35875,7 @@
         <v>16</v>
       </c>
       <c r="V17" s="9">
-        <f>COUNTIF(F:S,Q17)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -36021,7 +35914,7 @@
         <v>17</v>
       </c>
       <c r="V18" s="9">
-        <f>COUNTIF(F:S,Q18)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -36072,7 +35965,7 @@
         <v>18</v>
       </c>
       <c r="V19" s="9">
-        <f>COUNTIF(F:S,Q19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36118,7 +36011,7 @@
         <v>19</v>
       </c>
       <c r="V20" s="9">
-        <f>COUNTIF(F:S,Q20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36163,7 +36056,7 @@
         <v>20</v>
       </c>
       <c r="V21" s="9">
-        <f>COUNTIF(F:S,Q21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36205,7 +36098,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="9">
-        <f>COUNTIF(F:S,Q22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36241,7 +36134,7 @@
         <v>22</v>
       </c>
       <c r="V23" s="9">
-        <f>COUNTIF(F:S,Q23)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -36274,7 +36167,7 @@
         <v>23</v>
       </c>
       <c r="V24" s="9">
-        <f>COUNTIF(F:S,Q24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36307,7 +36200,7 @@
         <v>24</v>
       </c>
       <c r="V25" s="9">
-        <f>COUNTIF(F:S,Q25)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36343,7 +36236,7 @@
         <v>25</v>
       </c>
       <c r="V26" s="9">
-        <f>COUNTIF(F:S,Q26)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -36444,7 +36337,7 @@
         <v>27</v>
       </c>
       <c r="V28" s="9">
-        <f>COUNTIF(F:S,Q28)</f>
+        <f t="shared" ref="V28:V59" si="1">COUNTIF(F:S,Q28)</f>
         <v>2</v>
       </c>
     </row>
@@ -36495,7 +36388,7 @@
         <v>28</v>
       </c>
       <c r="V29" s="9">
-        <f>COUNTIF(F:S,Q29)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -36534,7 +36427,7 @@
         <v>29</v>
       </c>
       <c r="V30" s="9">
-        <f>COUNTIF(F:S,Q30)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -36582,7 +36475,7 @@
         <v>30</v>
       </c>
       <c r="V31" s="9">
-        <f>COUNTIF(F:S,Q31)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -36639,7 +36532,7 @@
         <v>31</v>
       </c>
       <c r="V32" s="9">
-        <f>COUNTIF(F:S,Q32)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -36684,7 +36577,7 @@
         <v>32</v>
       </c>
       <c r="V33" s="9">
-        <f>COUNTIF(F:S,Q33)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -36726,7 +36619,7 @@
         <v>33</v>
       </c>
       <c r="V34" s="9">
-        <f>COUNTIF(F:S,Q34)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -36777,7 +36670,7 @@
         <v>34</v>
       </c>
       <c r="V35" s="9">
-        <f>COUNTIF(F:S,Q35)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -36819,7 +36712,7 @@
         <v>35</v>
       </c>
       <c r="V36" s="9">
-        <f>COUNTIF(F:S,Q36)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -36864,7 +36757,7 @@
         <v>36</v>
       </c>
       <c r="V37" s="9">
-        <f>COUNTIF(F:S,Q37)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36909,7 +36802,7 @@
         <v>37</v>
       </c>
       <c r="V38" s="9">
-        <f>COUNTIF(F:S,Q38)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -36954,7 +36847,7 @@
         <v>38</v>
       </c>
       <c r="V39" s="9">
-        <f>COUNTIF(F:S,Q39)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -36996,7 +36889,7 @@
         <v>39</v>
       </c>
       <c r="V40" s="9">
-        <f>COUNTIF(F:S,Q40)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37038,7 +36931,7 @@
         <v>40</v>
       </c>
       <c r="V41" s="9">
-        <f>COUNTIF(F:S,Q41)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -37074,7 +36967,7 @@
         <v>41</v>
       </c>
       <c r="V42" s="9">
-        <f>COUNTIF(F:S,Q42)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -37125,7 +37018,7 @@
         <v>42</v>
       </c>
       <c r="V43" s="9">
-        <f>COUNTIF(F:S,Q43)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37170,7 +37063,7 @@
         <v>43</v>
       </c>
       <c r="V44" s="9">
-        <f>COUNTIF(F:S,Q44)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37212,7 +37105,7 @@
         <v>44</v>
       </c>
       <c r="V45" s="9">
-        <f>COUNTIF(F:S,Q45)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37255,7 +37148,7 @@
         <v>45</v>
       </c>
       <c r="V46" s="9">
-        <f>COUNTIF(F:S,Q46)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37294,7 +37187,7 @@
         <v>46</v>
       </c>
       <c r="V47" s="9">
-        <f>COUNTIF(F:S,Q47)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37339,7 +37232,7 @@
         <v>47</v>
       </c>
       <c r="V48" s="9">
-        <f>COUNTIF(F:S,Q48)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37385,7 +37278,7 @@
         <v>48</v>
       </c>
       <c r="V49" s="9">
-        <f>COUNTIF(F:S,Q49)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37439,7 +37332,7 @@
         <v>49</v>
       </c>
       <c r="V50" s="9">
-        <f>COUNTIF(F:S,Q50)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -37487,7 +37380,7 @@
         <v>50</v>
       </c>
       <c r="V51" s="9">
-        <f>COUNTIF(F:S,Q51)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37535,7 +37428,7 @@
         <v>51</v>
       </c>
       <c r="V52" s="9">
-        <f>COUNTIF(F:S,Q52)</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -37580,7 +37473,7 @@
         <v>52</v>
       </c>
       <c r="V53" s="9">
-        <f>COUNTIF(F:S,Q53)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -37631,7 +37524,7 @@
         <v>53</v>
       </c>
       <c r="V54" s="9">
-        <f>COUNTIF(F:S,Q54)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -37673,7 +37566,7 @@
         <v>54</v>
       </c>
       <c r="V55" s="9">
-        <f>COUNTIF(F:S,Q55)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37724,7 +37617,7 @@
         <v>55</v>
       </c>
       <c r="V56" s="9">
-        <f>COUNTIF(F:S,Q56)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37766,7 +37659,7 @@
         <v>56</v>
       </c>
       <c r="V57" s="9">
-        <f>COUNTIF(F:S,Q57)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -37811,7 +37704,7 @@
         <v>57</v>
       </c>
       <c r="V58" s="9">
-        <f>COUNTIF(F:S,Q58)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -37853,7 +37746,7 @@
         <v>58</v>
       </c>
       <c r="V59" s="9">
-        <f>COUNTIF(F:S,Q59)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -37901,7 +37794,7 @@
         <v>59</v>
       </c>
       <c r="V60" s="9">
-        <f>COUNTIF(F:S,Q60)</f>
+        <f t="shared" ref="V60:V91" si="2">COUNTIF(F:S,Q60)</f>
         <v>1</v>
       </c>
     </row>
@@ -37946,7 +37839,7 @@
         <v>60</v>
       </c>
       <c r="V61" s="9">
-        <f>COUNTIF(F:S,Q61)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -37988,7 +37881,7 @@
         <v>61</v>
       </c>
       <c r="V62" s="9">
-        <f>COUNTIF(F:S,Q62)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -38030,7 +37923,7 @@
         <v>62</v>
       </c>
       <c r="V63" s="9">
-        <f>COUNTIF(F:S,Q63)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38073,7 +37966,7 @@
         <v>63</v>
       </c>
       <c r="V64" s="9">
-        <f>COUNTIF(F:S,Q64)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -38115,7 +38008,7 @@
         <v>64</v>
       </c>
       <c r="V65" s="9">
-        <f>COUNTIF(F:S,Q65)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38151,7 +38044,7 @@
         <v>65</v>
       </c>
       <c r="V66" s="9">
-        <f>COUNTIF(F:S,Q66)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38196,7 +38089,7 @@
         <v>66</v>
       </c>
       <c r="V67" s="9">
-        <f>COUNTIF(F:S,Q67)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38241,7 +38134,7 @@
         <v>67</v>
       </c>
       <c r="V68" s="9">
-        <f>COUNTIF(F:S,Q68)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38292,7 +38185,7 @@
         <v>68</v>
       </c>
       <c r="V69" s="9">
-        <f>COUNTIF(F:S,Q69)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -38340,7 +38233,7 @@
         <v>69</v>
       </c>
       <c r="V70" s="9">
-        <f>COUNTIF(F:S,Q70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38385,7 +38278,7 @@
         <v>70</v>
       </c>
       <c r="V71" s="9">
-        <f>COUNTIF(F:S,Q71)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
@@ -38430,7 +38323,7 @@
         <v>71</v>
       </c>
       <c r="V72" s="9">
-        <f>COUNTIF(F:S,Q72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38478,7 +38371,7 @@
         <v>72</v>
       </c>
       <c r="V73" s="9">
-        <f>COUNTIF(F:S,Q73)</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -38523,7 +38416,7 @@
         <v>73</v>
       </c>
       <c r="V74" s="9">
-        <f>COUNTIF(F:S,Q74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38565,7 +38458,7 @@
         <v>74</v>
       </c>
       <c r="V75" s="9">
-        <f>COUNTIF(F:S,Q75)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -38604,7 +38497,7 @@
         <v>75</v>
       </c>
       <c r="V76" s="9">
-        <f>COUNTIF(F:S,Q76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38646,7 +38539,7 @@
         <v>76</v>
       </c>
       <c r="V77" s="9">
-        <f>COUNTIF(F:S,Q77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38691,7 +38584,7 @@
         <v>77</v>
       </c>
       <c r="V78" s="9">
-        <f>COUNTIF(F:S,Q78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38736,7 +38629,7 @@
         <v>78</v>
       </c>
       <c r="V79" s="9">
-        <f>COUNTIF(F:S,Q79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38778,7 +38671,7 @@
         <v>79</v>
       </c>
       <c r="V80" s="9">
-        <f>COUNTIF(F:S,Q80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38823,7 +38716,7 @@
         <v>80</v>
       </c>
       <c r="V81" s="9">
-        <f>COUNTIF(F:S,Q81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38862,7 +38755,7 @@
         <v>81</v>
       </c>
       <c r="V82" s="9">
-        <f>COUNTIF(F:S,Q82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38898,7 +38791,7 @@
         <v>82</v>
       </c>
       <c r="V83" s="9">
-        <f>COUNTIF(F:S,Q83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38934,7 +38827,7 @@
         <v>83</v>
       </c>
       <c r="V84" s="9">
-        <f>COUNTIF(F:S,Q84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38976,7 +38869,7 @@
         <v>84</v>
       </c>
       <c r="V85" s="9">
-        <f>COUNTIF(F:S,Q85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39018,7 +38911,7 @@
         <v>85</v>
       </c>
       <c r="V86" s="9">
-        <f>COUNTIF(F:S,Q86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39054,7 +38947,7 @@
         <v>86</v>
       </c>
       <c r="V87" s="9">
-        <f>COUNTIF(F:S,Q87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39093,7 +38986,7 @@
         <v>87</v>
       </c>
       <c r="V88" s="9">
-        <f>COUNTIF(F:S,Q88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39132,7 +39025,7 @@
         <v>88</v>
       </c>
       <c r="V89" s="9">
-        <f>COUNTIF(F:S,Q89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39177,7 +39070,7 @@
         <v>89</v>
       </c>
       <c r="V90" s="9">
-        <f>COUNTIF(F:S,Q90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39219,7 +39112,7 @@
         <v>90</v>
       </c>
       <c r="V91" s="9">
-        <f>COUNTIF(F:S,Q91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -39255,7 +39148,7 @@
         <v>91</v>
       </c>
       <c r="V92" s="9">
-        <f>COUNTIF(F:S,Q92)</f>
+        <f t="shared" ref="V92:V123" si="3">COUNTIF(F:S,Q92)</f>
         <v>12</v>
       </c>
     </row>
@@ -39297,7 +39190,7 @@
         <v>92</v>
       </c>
       <c r="V93" s="9">
-        <f>COUNTIF(F:S,Q93)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -39339,7 +39232,7 @@
         <v>93</v>
       </c>
       <c r="V94" s="9">
-        <f>COUNTIF(F:S,Q94)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
@@ -39372,7 +39265,7 @@
         <v>94</v>
       </c>
       <c r="V95" s="9">
-        <f>COUNTIF(F:S,Q95)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -39411,7 +39304,7 @@
         <v>95</v>
       </c>
       <c r="V96" s="9">
-        <f>COUNTIF(F:S,Q96)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39459,7 +39352,7 @@
         <v>96</v>
       </c>
       <c r="V97" s="9">
-        <f>COUNTIF(F:S,Q97)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39495,7 +39388,7 @@
         <v>97</v>
       </c>
       <c r="V98" s="9">
-        <f>COUNTIF(F:S,Q98)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -39537,7 +39430,7 @@
         <v>98</v>
       </c>
       <c r="V99" s="9">
-        <f>COUNTIF(F:S,Q99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39576,7 +39469,7 @@
         <v>99</v>
       </c>
       <c r="V100" s="9">
-        <f>COUNTIF(F:S,Q100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39618,7 +39511,7 @@
         <v>100</v>
       </c>
       <c r="V101" s="9">
-        <f>COUNTIF(F:S,Q101)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -39660,7 +39553,7 @@
         <v>101</v>
       </c>
       <c r="V102" s="9">
-        <f>COUNTIF(F:S,Q102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39693,7 +39586,7 @@
         <v>102</v>
       </c>
       <c r="V103" s="9">
-        <f>COUNTIF(F:S,Q103)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -39732,7 +39625,7 @@
         <v>103</v>
       </c>
       <c r="V104" s="9">
-        <f>COUNTIF(F:S,Q104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39774,7 +39667,7 @@
         <v>104</v>
       </c>
       <c r="V105" s="9">
-        <f>COUNTIF(F:S,Q105)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -39819,7 +39712,7 @@
         <v>105</v>
       </c>
       <c r="V106" s="9">
-        <f>COUNTIF(F:S,Q106)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -39861,7 +39754,7 @@
         <v>106</v>
       </c>
       <c r="V107" s="9">
-        <f>COUNTIF(F:S,Q107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39906,7 +39799,7 @@
         <v>107</v>
       </c>
       <c r="V108" s="9">
-        <f>COUNTIF(F:S,Q108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39945,7 +39838,7 @@
         <v>108</v>
       </c>
       <c r="V109" s="9">
-        <f>COUNTIF(F:S,Q109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39990,7 +39883,7 @@
         <v>109</v>
       </c>
       <c r="V110" s="9">
-        <f>COUNTIF(F:S,Q110)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40035,7 +39928,7 @@
         <v>110</v>
       </c>
       <c r="V111" s="9">
-        <f>COUNTIF(F:S,Q111)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40080,7 +39973,7 @@
         <v>111</v>
       </c>
       <c r="V112" s="9">
-        <f>COUNTIF(F:S,Q112)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -40122,7 +40015,7 @@
         <v>112</v>
       </c>
       <c r="V113" s="9">
-        <f>COUNTIF(F:S,Q113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -40167,7 +40060,7 @@
         <v>113</v>
       </c>
       <c r="V114" s="9">
-        <f>COUNTIF(F:S,Q114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -40206,7 +40099,7 @@
         <v>114</v>
       </c>
       <c r="V115" s="9">
-        <f>COUNTIF(F:S,Q115)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40245,7 +40138,7 @@
         <v>115</v>
       </c>
       <c r="V116" s="9">
-        <f>COUNTIF(F:S,Q116)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40278,7 +40171,7 @@
         <v>116</v>
       </c>
       <c r="V117" s="9">
-        <f>COUNTIF(F:S,Q117)</f>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
     </row>
@@ -40320,7 +40213,7 @@
         <v>117</v>
       </c>
       <c r="V118" s="9">
-        <f>COUNTIF(F:S,Q118)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -40368,7 +40261,7 @@
         <v>118</v>
       </c>
       <c r="V119" s="9">
-        <f>COUNTIF(F:S,Q119)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40416,7 +40309,7 @@
         <v>119</v>
       </c>
       <c r="V120" s="9">
-        <f>COUNTIF(F:S,Q120)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -40458,7 +40351,7 @@
         <v>120</v>
       </c>
       <c r="V121" s="9">
-        <f>COUNTIF(F:S,Q121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -40506,7 +40399,7 @@
         <v>121</v>
       </c>
       <c r="V122" s="9">
-        <f>COUNTIF(F:S,Q122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -40545,7 +40438,7 @@
         <v>122</v>
       </c>
       <c r="V123" s="9">
-        <f>COUNTIF(F:S,Q123)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -40636,7 +40529,7 @@
         <v>124</v>
       </c>
       <c r="V125" s="9">
-        <f>COUNTIF(F:S,Q125)</f>
+        <f t="shared" ref="V125:V172" si="4">COUNTIF(F:S,Q125)</f>
         <v>1</v>
       </c>
     </row>
@@ -40678,7 +40571,7 @@
         <v>125</v>
       </c>
       <c r="V126" s="9">
-        <f>COUNTIF(F:S,Q126)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -40720,7 +40613,7 @@
         <v>126</v>
       </c>
       <c r="V127" s="9">
-        <f>COUNTIF(F:S,Q127)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -40771,7 +40664,7 @@
         <v>127</v>
       </c>
       <c r="V128" s="9">
-        <f>COUNTIF(F:S,Q128)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -40813,7 +40706,7 @@
         <v>128</v>
       </c>
       <c r="V129" s="9">
-        <f>COUNTIF(F:S,Q129)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -40864,7 +40757,7 @@
         <v>129</v>
       </c>
       <c r="V130" s="9">
-        <f>COUNTIF(F:S,Q130)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -40912,7 +40805,7 @@
         <v>130</v>
       </c>
       <c r="V131" s="9">
-        <f>COUNTIF(F:S,Q131)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -40954,7 +40847,7 @@
         <v>131</v>
       </c>
       <c r="V132" s="9">
-        <f>COUNTIF(F:S,Q132)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -41002,7 +40895,7 @@
         <v>132</v>
       </c>
       <c r="V133" s="9">
-        <f>COUNTIF(F:S,Q133)</f>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
     </row>
@@ -41038,7 +40931,7 @@
         <v>133</v>
       </c>
       <c r="V134" s="9">
-        <f>COUNTIF(F:S,Q134)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41077,7 +40970,7 @@
         <v>134</v>
       </c>
       <c r="V135" s="9">
-        <f>COUNTIF(F:S,Q135)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41110,7 +41003,7 @@
         <v>135</v>
       </c>
       <c r="V136" s="9">
-        <f>COUNTIF(F:S,Q136)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41146,7 +41039,7 @@
         <v>136</v>
       </c>
       <c r="V137" s="9">
-        <f>COUNTIF(F:S,Q137)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -41182,7 +41075,7 @@
         <v>137</v>
       </c>
       <c r="V138" s="9">
-        <f>COUNTIF(F:S,Q138)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41212,7 +41105,7 @@
         <v>138</v>
       </c>
       <c r="V139" s="9">
-        <f>COUNTIF(F:S,Q139)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -41248,7 +41141,7 @@
         <v>139</v>
       </c>
       <c r="V140" s="9">
-        <f>COUNTIF(F:S,Q140)</f>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
     </row>
@@ -41287,7 +41180,7 @@
         <v>140</v>
       </c>
       <c r="V141" s="9">
-        <f>COUNTIF(F:S,Q141)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41320,7 +41213,7 @@
         <v>141</v>
       </c>
       <c r="V142" s="9">
-        <f>COUNTIF(F:S,Q142)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41353,7 +41246,7 @@
         <v>142</v>
       </c>
       <c r="V143" s="9">
-        <f>COUNTIF(F:S,Q143)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -41395,7 +41288,7 @@
         <v>143</v>
       </c>
       <c r="V144" s="9">
-        <f>COUNTIF(F:S,Q144)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -41434,7 +41327,7 @@
         <v>144</v>
       </c>
       <c r="V145" s="9">
-        <f>COUNTIF(F:S,Q145)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -41473,7 +41366,7 @@
         <v>145</v>
       </c>
       <c r="V146" s="9">
-        <f>COUNTIF(F:S,Q146)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -41512,7 +41405,7 @@
         <v>146</v>
       </c>
       <c r="V147" s="9">
-        <f>COUNTIF(F:S,Q147)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -41557,7 +41450,7 @@
         <v>147</v>
       </c>
       <c r="V148" s="9">
-        <f>COUNTIF(F:S,Q148)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41605,7 +41498,7 @@
         <v>148</v>
       </c>
       <c r="V149" s="9">
-        <f>COUNTIF(F:S,Q149)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -41650,7 +41543,7 @@
         <v>149</v>
       </c>
       <c r="V150" s="9">
-        <f>COUNTIF(F:S,Q150)</f>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
     </row>
@@ -41701,7 +41594,7 @@
         <v>150</v>
       </c>
       <c r="V151" s="9">
-        <f>COUNTIF(F:S,Q151)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -41746,7 +41639,7 @@
         <v>151</v>
       </c>
       <c r="V152" s="9">
-        <f>COUNTIF(F:S,Q152)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41791,7 +41684,7 @@
         <v>152</v>
       </c>
       <c r="V153" s="9">
-        <f>COUNTIF(F:S,Q153)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -41830,7 +41723,7 @@
         <v>153</v>
       </c>
       <c r="V154" s="9">
-        <f>COUNTIF(F:S,Q154)</f>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
@@ -41869,7 +41762,7 @@
         <v>154</v>
       </c>
       <c r="V155" s="9">
-        <f>COUNTIF(F:S,Q155)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -41914,7 +41807,7 @@
         <v>155</v>
       </c>
       <c r="V156" s="9">
-        <f>COUNTIF(F:S,Q156)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41953,7 +41846,7 @@
         <v>156</v>
       </c>
       <c r="V157" s="9">
-        <f>COUNTIF(F:S,Q157)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -41992,7 +41885,7 @@
         <v>157</v>
       </c>
       <c r="V158" s="9">
-        <f>COUNTIF(F:S,Q158)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -42025,7 +41918,7 @@
         <v>158</v>
       </c>
       <c r="V159" s="9">
-        <f>COUNTIF(F:S,Q159)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -42070,7 +41963,7 @@
         <v>159</v>
       </c>
       <c r="V160" s="9">
-        <f>COUNTIF(F:S,Q160)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42109,7 +42002,7 @@
         <v>160</v>
       </c>
       <c r="V161" s="9">
-        <f>COUNTIF(F:S,Q161)</f>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
     </row>
@@ -42145,7 +42038,7 @@
         <v>161</v>
       </c>
       <c r="V162" s="9">
-        <f>COUNTIF(F:S,Q162)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -42187,7 +42080,7 @@
         <v>162</v>
       </c>
       <c r="V163" s="9">
-        <f>COUNTIF(F:S,Q163)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42229,7 +42122,7 @@
         <v>163</v>
       </c>
       <c r="V164" s="9">
-        <f>COUNTIF(F:S,Q164)</f>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
     </row>
@@ -42274,7 +42167,7 @@
         <v>164</v>
       </c>
       <c r="V165" s="9">
-        <f>COUNTIF(F:S,Q165)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -42313,7 +42206,7 @@
         <v>165</v>
       </c>
       <c r="V166" s="9">
-        <f>COUNTIF(F:S,Q166)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42355,7 +42248,7 @@
         <v>166</v>
       </c>
       <c r="V167" s="9">
-        <f>COUNTIF(F:S,Q167)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42400,7 +42293,7 @@
         <v>167</v>
       </c>
       <c r="V168" s="9">
-        <f>COUNTIF(F:S,Q168)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42442,7 +42335,7 @@
         <v>168</v>
       </c>
       <c r="V169" s="9">
-        <f>COUNTIF(F:S,Q169)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42493,7 +42386,7 @@
         <v>169</v>
       </c>
       <c r="V170" s="9">
-        <f>COUNTIF(F:S,Q170)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42538,7 +42431,7 @@
         <v>170</v>
       </c>
       <c r="V171" s="9">
-        <f>COUNTIF(F:S,Q171)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42577,7 +42470,7 @@
         <v>171</v>
       </c>
       <c r="V172" s="9">
-        <f>COUNTIF(F:S,Q172)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -42592,14 +42485,14 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V172">
     <sortCondition ref="D2:D172"/>
     <sortCondition ref="U2:U172"/>
-    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="23"/>
+    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="17"/>
     <sortCondition ref="F2:F172"/>
     <sortCondition ref="A2:A172"/>
     <sortCondition ref="L2:L172"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="Q1:Q1048576 F1:F1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -65783,33 +65676,33 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="M1:AB66 M68:AB1048576 V67:AB67 M67:T67">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>$E$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
       <formula>$I$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>$J$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>$K$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="equal">
       <formula>$L$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:L1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EA996B-531D-4F6A-9D06-3C33D4F81E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112AF6C8-62AA-474C-9474-235389A874E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="1" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
     <sheet name="辨证论治 0" sheetId="19" r:id="rId2"/>
     <sheet name="辨证论治" sheetId="20" r:id="rId3"/>
     <sheet name="诊断" sheetId="21" r:id="rId4"/>
-    <sheet name="药" sheetId="2" r:id="rId5"/>
-    <sheet name="药总" sheetId="3" r:id="rId6"/>
-    <sheet name="方剂" sheetId="4" r:id="rId7"/>
-    <sheet name="方剂 总" sheetId="5" r:id="rId8"/>
+    <sheet name="方剂" sheetId="4" r:id="rId5"/>
+    <sheet name="方剂 总" sheetId="5" r:id="rId6"/>
+    <sheet name="药" sheetId="2" r:id="rId7"/>
+    <sheet name="药总" sheetId="3" r:id="rId8"/>
     <sheet name="组成统计" sheetId="14" r:id="rId9"/>
     <sheet name="组合" sheetId="15" r:id="rId10"/>
     <sheet name="次数" sheetId="11" r:id="rId11"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10908" uniqueCount="2703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10908" uniqueCount="2706">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13372,6 +13372,18 @@
   </si>
   <si>
     <t>恶寒 恶风 其他病病名都在前面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癫狂梦醒汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰热瘀结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃仁红花煎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13740,7 +13752,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="CCEDC7"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -28214,11 +28226,11 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:R172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1:O1048576"/>
+      <selection pane="bottomRight" activeCell="A48" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -35020,11 +35032,11 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -36280,7 +36292,7 @@
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10" t="s">
-        <v>2302</v>
+        <v>2705</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>1872</v>
@@ -37163,7 +37175,7 @@
         <v>1863</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>1950</v>
+        <v>2704</v>
       </c>
       <c r="J47" s="10" t="s">
         <v>2585</v>
@@ -37178,7 +37190,7 @@
         <v>2690</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>1846</v>
+        <v>2703</v>
       </c>
       <c r="R47" s="5" t="s">
         <v>2363</v>
@@ -42644,6 +42656,4286 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B982488-BE3B-42AB-BF9C-0C74658490DA}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:L180"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G64" sqref="G64"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>1743</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C38" s="1">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C47" s="1">
+        <v>2</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>1544</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C53" s="1">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>1557</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>1558</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" s="1">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" s="1">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>1577</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C72" s="1">
+        <v>2</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>1578</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>1579</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C75" s="1">
+        <v>3</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C76" s="1">
+        <v>3</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>1582</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C77" s="1">
+        <v>3</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>1584</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C80" s="1">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>1587</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C81" s="1">
+        <v>3</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="1">
+        <v>6</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>1597</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>1702</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C83" s="1">
+        <v>6</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C85" s="1">
+        <v>6</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C86" s="1">
+        <v>6</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" s="1">
+        <v>6</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>1704</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>1706</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>1712</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C95" s="1">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>1724</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97" s="1">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C99" s="1">
+        <v>2</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C100" s="1">
+        <v>2</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C101" s="1">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C102" s="1">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C103" s="1">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C104" s="1">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="1">
+        <v>6</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="1">
+        <v>6</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107" s="1">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="1">
+        <v>6</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="1">
+        <v>6</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110" s="1">
+        <v>6</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C112" s="1">
+        <v>5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>1600</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C113" s="1">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C114" s="1">
+        <v>5</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="1">
+        <v>5</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>1608</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="1">
+        <v>5</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>1607</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="1">
+        <v>8</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C118" s="1">
+        <v>8</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>1619</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C119" s="1">
+        <v>8</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>1624</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C120" s="1">
+        <v>8</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>1621</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C121" s="1">
+        <v>8</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C122" s="1">
+        <v>8</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>1719</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C123" s="1">
+        <v>8</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C124" s="1">
+        <v>8</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>1721</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>1720</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>1683</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C127" s="1">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C128" s="1">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C129" s="1">
+        <v>2</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C131" s="1">
+        <v>2</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C132" s="1">
+        <v>3</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C133" s="1">
+        <v>3</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C134" s="1">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C135" s="1">
+        <v>8</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C136" s="1">
+        <v>8</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C137" s="1">
+        <v>8</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>1685</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C138" s="1">
+        <v>8</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="1">
+        <v>8</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C140" s="1">
+        <v>8</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C141" s="1">
+        <v>8</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C142" s="1">
+        <v>8</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C144" s="1">
+        <v>5</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>1625</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" s="1">
+        <v>5</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>1626</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="1">
+        <v>5</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>1627</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C147" s="1">
+        <v>5</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>1628</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>1631</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C148" s="1">
+        <v>5</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C149" s="1">
+        <v>3</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C150" s="1">
+        <v>3</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>1635</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C151" s="1">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>1637</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C152" s="1">
+        <v>2</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C153" s="1">
+        <v>2</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>1639</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C154" s="1">
+        <v>4</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C155" s="1">
+        <v>4</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="1">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C157" s="1">
+        <v>4</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C158" s="1">
+        <v>2</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>1644</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>1647</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C159" s="1">
+        <v>2</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C160" s="1">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>1648</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C162" s="1">
+        <v>2</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>1653</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>1652</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C163" s="1">
+        <v>2</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>1651</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C164" s="1">
+        <v>3</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>1655</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C165" s="1">
+        <v>3</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
+      <c r="A166" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C166" s="1">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
+      <c r="A167" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C167" s="1">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
+      <c r="A168" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C168" s="1">
+        <v>2</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="A169" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C169" s="1">
+        <v>2</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="A170" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C170" s="1">
+        <v>2</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>1664</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>1665</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
+      <c r="A171" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C171" s="1">
+        <v>3</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
+      <c r="A172" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C172" s="1">
+        <v>3</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>1733</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
+      <c r="A173" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C173" s="1">
+        <v>3</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
+      <c r="A174" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C174" s="1">
+        <v>7</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E174" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
+      <c r="A175" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C175" s="1">
+        <v>7</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E175" s="1">
+        <v>238</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
+      <c r="A176" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C176" s="1">
+        <v>7</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E176" s="1">
+        <v>238</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
+      <c r="A177" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C177" s="1">
+        <v>7</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>1676</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
+      <c r="A178" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C178" s="1">
+        <v>7</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>1682</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
+      <c r="A179" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C179" s="1">
+        <v>7</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
+      <c r="A180" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C180" s="1">
+        <v>7</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>1677</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED155A-BF2B-4D81-AEB3-B117136BF50B}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:R69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.75" style="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="B1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="I2" s="4">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1">
+        <f t="shared" ref="R2:R47" si="0">IF(ISBLANK(A2),,IF(ISBLANK(C2),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I3" s="4">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="I4" s="4">
+        <v>11</v>
+      </c>
+      <c r="R4" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="I5" s="4">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="I7" s="4">
+        <v>15</v>
+      </c>
+      <c r="R7" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="I8" s="4">
+        <v>19</v>
+      </c>
+      <c r="R8" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="I9" s="4">
+        <v>17</v>
+      </c>
+      <c r="R9" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B11" s="1">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5</v>
+      </c>
+      <c r="R11" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5</v>
+      </c>
+      <c r="R12" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="R13" s="1">
+        <f>IF(ISBLANK(A13),,IF(ISBLANK(C13),1,0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="I14" s="4">
+        <v>14</v>
+      </c>
+      <c r="R14" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10</v>
+      </c>
+      <c r="R15" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="34.799999999999997">
+      <c r="A16" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="I16" s="4">
+        <v>16</v>
+      </c>
+      <c r="R16" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="B17" s="1">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9</v>
+      </c>
+      <c r="I18" s="4">
+        <v>7</v>
+      </c>
+      <c r="R18" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B19" s="1">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="I19" s="4">
+        <v>7</v>
+      </c>
+      <c r="R19" s="1">
+        <f>IF(ISBLANK(A19),,IF(ISBLANK(C19),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20" s="1">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D20" s="1">
+        <v>6</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="I20" s="4">
+        <v>7</v>
+      </c>
+      <c r="R20" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4">
+        <v>9</v>
+      </c>
+      <c r="R21" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="I22" s="4">
+        <v>9</v>
+      </c>
+      <c r="R22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="I23" s="4">
+        <v>9</v>
+      </c>
+      <c r="R23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D24" s="1">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="I24" s="4">
+        <v>9</v>
+      </c>
+      <c r="R24" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+      <c r="I25" s="4">
+        <v>8</v>
+      </c>
+      <c r="R25" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B26" s="1">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1599</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I26" s="4">
+        <v>8</v>
+      </c>
+      <c r="R26" s="1">
+        <f>IF(ISBLANK(A26),,IF(ISBLANK(C26),1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="1">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="I27" s="4">
+        <v>8</v>
+      </c>
+      <c r="R27" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28" s="1">
+        <v>17</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="I28" s="1">
+        <v>6</v>
+      </c>
+      <c r="R28" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="1">
+        <v>17</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30" s="1">
+        <v>17</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="I30" s="1">
+        <v>6</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="I31" s="1">
+        <v>6</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32" s="1">
+        <v>17</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="I32" s="1">
+        <v>6</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="1">
+        <v>17</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17</v>
+      </c>
+      <c r="I34" s="4">
+        <v>13</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B35" s="1">
+        <v>17</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="I35" s="4">
+        <v>13</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B36" s="1">
+        <v>17</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="I36" s="4">
+        <v>13</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B37" s="1">
+        <v>17</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="4">
+        <v>13</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B38" s="1">
+        <v>17</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D38" s="1">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="I38" s="4">
+        <v>13</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B39" s="1">
+        <v>17</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="4">
+        <v>13</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <v>13</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B41" s="1">
+        <v>19</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B42" s="1">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="I42" s="4">
+        <v>4</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B43" s="1">
+        <v>19</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B44" s="1">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="I44" s="4">
+        <v>4</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B45" s="1">
+        <v>19</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="I45" s="4">
+        <v>4</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B46" s="1">
+        <v>19</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="I46" s="4">
+        <v>4</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B47" s="1">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D47" s="1">
+        <v>7</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="I47" s="4">
+        <v>4</v>
+      </c>
+      <c r="R47" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="H48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="9:11" s="1" customFormat="1">
+      <c r="I49" s="4"/>
+      <c r="K49" s="1">
+        <f>SUMPRODUCT(B:B,R:R)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="9:11" s="1" customFormat="1">
+      <c r="I50" s="4"/>
+    </row>
+    <row r="51" spans="9:11" s="1" customFormat="1">
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" spans="9:11" s="1" customFormat="1">
+      <c r="I52" s="4"/>
+    </row>
+    <row r="53" spans="9:11" s="1" customFormat="1">
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" spans="9:11" s="1" customFormat="1">
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" spans="9:11" s="1" customFormat="1">
+      <c r="I55" s="4"/>
+    </row>
+    <row r="56" spans="9:11" s="1" customFormat="1">
+      <c r="I56" s="4"/>
+    </row>
+    <row r="57" spans="9:11" s="1" customFormat="1">
+      <c r="I57" s="4"/>
+    </row>
+    <row r="58" spans="9:11" s="1" customFormat="1">
+      <c r="I58" s="4"/>
+    </row>
+    <row r="59" spans="9:11" s="1" customFormat="1">
+      <c r="I59" s="4"/>
+    </row>
+    <row r="60" spans="9:11" s="1" customFormat="1">
+      <c r="I60" s="4"/>
+    </row>
+    <row r="61" spans="9:11" s="1" customFormat="1">
+      <c r="I61" s="4"/>
+    </row>
+    <row r="62" spans="9:11" s="1" customFormat="1">
+      <c r="I62" s="4"/>
+    </row>
+    <row r="63" spans="9:11" s="1" customFormat="1">
+      <c r="I63" s="4"/>
+    </row>
+    <row r="64" spans="9:11" s="1" customFormat="1">
+      <c r="I64" s="4"/>
+    </row>
+    <row r="65" spans="9:9" s="1" customFormat="1">
+      <c r="I65" s="4"/>
+    </row>
+    <row r="66" spans="9:9" s="1" customFormat="1">
+      <c r="I66" s="4"/>
+    </row>
+    <row r="67" spans="9:9" s="1" customFormat="1">
+      <c r="I67" s="4"/>
+    </row>
+    <row r="68" spans="9:9" s="1" customFormat="1">
+      <c r="I68" s="4"/>
+    </row>
+    <row r="69" spans="9:9" s="1" customFormat="1">
+      <c r="I69" s="4"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
+    <sortCondition ref="B2:B47"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8694F7F5-97E8-4D45-8162-E3186C4160B9}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L389"/>
@@ -48890,7 +53182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D81F33E3-6E34-4A0F-8A7A-BC6069320D6E}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W58"/>
@@ -50246,4286 +54538,6 @@
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G58">
     <sortCondition ref="A2:A58"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B982488-BE3B-42AB-BF9C-0C74658490DA}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:L180"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G64" sqref="G64"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>1517</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>1512</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>1513</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>1514</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>1511</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>1515</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1522</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>1530</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>1524</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>1527</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>1528</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>1526</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>1529</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>1531</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>1536</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>1532</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1533</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>1535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>1534</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>1537</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>1521</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>1741</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>1520</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>1743</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>1744</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>1742</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>1540</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>1541</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C34" s="1">
-        <v>3</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>1546</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C38" s="1">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C39" s="1">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>1548</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>1730</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>1549</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C41" s="1">
-        <v>4</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>1731</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C42" s="1">
-        <v>4</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C43" s="1">
-        <v>4</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>1552</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>1556</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C47" s="1">
-        <v>2</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C48" s="1">
-        <v>4</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C49" s="1">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C50" s="1">
-        <v>4</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C51" s="1">
-        <v>4</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>1544</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C53" s="1">
-        <v>2</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>1557</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>1558</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" s="1">
-        <v>2</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>1559</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>1740</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1">
-        <v>2</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>1560</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="1">
-        <v>2</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1561</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>1568</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C64" s="1">
-        <v>2</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>1562</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C65" s="1">
-        <v>1</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>1563</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="A66" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C66" s="1">
-        <v>1</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>1564</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
-      <c r="A67" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C67" s="1">
-        <v>2</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>1565</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>1571</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C68" s="1">
-        <v>2</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>1566</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J68" s="1" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="C70" s="1">
-        <v>1</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>1572</v>
-      </c>
-      <c r="C71" s="1">
-        <v>1</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>1577</v>
-      </c>
-      <c r="J71" s="1" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C72" s="1">
-        <v>2</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>1578</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
-      <c r="A73" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C73" s="1">
-        <v>2</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>1579</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C74" s="1">
-        <v>1</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C75" s="1">
-        <v>3</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>1581</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>1516</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C76" s="1">
-        <v>3</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>1582</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="A77" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C77" s="1">
-        <v>3</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>1583</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C79" s="1">
-        <v>3</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>1584</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J79" s="1" t="s">
-        <v>1586</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="A80" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C80" s="1">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>1587</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>1703</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
-      <c r="A81" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C81" s="1">
-        <v>3</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>1585</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C82" s="1">
-        <v>6</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>1597</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C83" s="1">
-        <v>6</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="J83" s="1" t="s">
-        <v>1698</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="A84" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C84" s="1">
-        <v>6</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
-      <c r="A85" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C85" s="1">
-        <v>6</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>1593</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
-      <c r="A86" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C86" s="1">
-        <v>6</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>1595</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C87" s="1">
-        <v>6</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>1594</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>1596</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C89" s="1">
-        <v>5</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C90" s="1">
-        <v>5</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>1706</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>1727</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>1726</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
-      <c r="A91" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C91" s="1">
-        <v>5</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>1714</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="A92" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="1">
-        <v>5</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>1715</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="A93" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="1">
-        <v>5</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>1716</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="A94" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C94" s="1">
-        <v>4</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>1713</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
-      <c r="A95" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C95" s="1">
-        <v>4</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>1723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
-      <c r="A96" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C96" s="1">
-        <v>4</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>1724</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97" s="1">
-        <v>4</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>1725</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C99" s="1">
-        <v>2</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C100" s="1">
-        <v>2</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C101" s="1">
-        <v>4</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C102" s="1">
-        <v>4</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C103" s="1">
-        <v>4</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C104" s="1">
-        <v>4</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
-      <c r="A105" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C105" s="1">
-        <v>6</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="K105" s="1" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
-      <c r="A106" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C106" s="1">
-        <v>6</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
-      <c r="A107" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C107" s="1">
-        <v>6</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C108" s="1">
-        <v>6</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="1">
-        <v>6</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C110" s="1">
-        <v>6</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C112" s="1">
-        <v>5</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>1600</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>1722</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C113" s="1">
-        <v>5</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>1601</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C114" s="1">
-        <v>5</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>1602</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>1605</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C115" s="1">
-        <v>5</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>1603</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>1608</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C116" s="1">
-        <v>5</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>1607</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>1609</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C117" s="1">
-        <v>8</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>1611</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="G117" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C118" s="1">
-        <v>8</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G118" s="1" t="s">
-        <v>1619</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>1620</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C119" s="1">
-        <v>8</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>1613</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>1624</v>
-      </c>
-      <c r="G119" s="1" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C120" s="1">
-        <v>8</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>1614</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>1621</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="1">
-        <v>8</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>1610</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>1718</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="1">
-        <v>8</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F122" s="1" t="s">
-        <v>1719</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="1">
-        <v>8</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>1617</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="1">
-        <v>8</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>1615</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="F124" s="1" t="s">
-        <v>1720</v>
-      </c>
-      <c r="G124" s="1" t="s">
-        <v>1622</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>1623</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C126" s="1">
-        <v>2</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J126" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="K126" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C127" s="1">
-        <v>2</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="J127" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C128" s="1">
-        <v>2</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="J128" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="1">
-        <v>2</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C130" s="1">
-        <v>2</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C131" s="1">
-        <v>2</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J131" s="1" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C132" s="1">
-        <v>3</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="K132" s="1" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="1">
-        <v>3</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C134" s="1">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="J134" s="1" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C135" s="1">
-        <v>8</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G135" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C136" s="1">
-        <v>8</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C137" s="1">
-        <v>8</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F137" s="1" t="s">
-        <v>1685</v>
-      </c>
-      <c r="G137" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C138" s="1">
-        <v>8</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C139" s="1">
-        <v>8</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C140" s="1">
-        <v>8</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C141" s="1">
-        <v>8</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C142" s="1">
-        <v>8</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C144" s="1">
-        <v>5</v>
-      </c>
-      <c r="D144" s="1" t="s">
-        <v>1625</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10">
-      <c r="A145" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C145" s="1">
-        <v>5</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>1542</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C146" s="1">
-        <v>5</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>1630</v>
-      </c>
-    </row>
-    <row r="147" spans="1:10">
-      <c r="A147" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C147" s="1">
-        <v>5</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>1631</v>
-      </c>
-      <c r="J147" s="1" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10">
-      <c r="A148" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C148" s="1">
-        <v>5</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C149" s="1">
-        <v>3</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>1634</v>
-      </c>
-    </row>
-    <row r="150" spans="1:10">
-      <c r="A150" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C150" s="1">
-        <v>3</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10">
-      <c r="A151" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C151" s="1">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C152" s="1">
-        <v>2</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>1638</v>
-      </c>
-    </row>
-    <row r="153" spans="1:10">
-      <c r="A153" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C153" s="1">
-        <v>2</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G153" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="J153" s="1" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C154" s="1">
-        <v>4</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10">
-      <c r="A155" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C155" s="1">
-        <v>4</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10">
-      <c r="A156" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C156" s="1">
-        <v>4</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>1643</v>
-      </c>
-      <c r="G156" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="H156" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="C157" s="1">
-        <v>4</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="G157" s="1" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
-      <c r="A158" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C158" s="1">
-        <v>2</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>1644</v>
-      </c>
-      <c r="G158" s="1" t="s">
-        <v>1647</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10">
-      <c r="A159" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C159" s="1">
-        <v>2</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>1645</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10">
-      <c r="A160" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C160" s="1">
-        <v>1</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>1648</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>1649</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
-      <c r="A162" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C162" s="1">
-        <v>2</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="G162" s="1" t="s">
-        <v>1652</v>
-      </c>
-      <c r="H162" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10">
-      <c r="A163" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C163" s="1">
-        <v>2</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>1651</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C164" s="1">
-        <v>3</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
-      <c r="A165" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C165" s="1">
-        <v>3</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="H165" s="1" t="s">
-        <v>1658</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10">
-      <c r="A166" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C166" s="1">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="G166" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H166" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J166" s="1" t="s">
-        <v>1659</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10">
-      <c r="A167" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C167" s="1">
-        <v>2</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="168" spans="1:10">
-      <c r="A168" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C168" s="1">
-        <v>2</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="G168" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="J168" s="1" t="s">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="169" spans="1:10">
-      <c r="A169" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C169" s="1">
-        <v>2</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="J169" s="1" t="s">
-        <v>1739</v>
-      </c>
-    </row>
-    <row r="170" spans="1:10">
-      <c r="A170" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C170" s="1">
-        <v>2</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>1664</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>1665</v>
-      </c>
-      <c r="J170" s="1" t="s">
-        <v>1666</v>
-      </c>
-    </row>
-    <row r="171" spans="1:10">
-      <c r="A171" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C171" s="1">
-        <v>3</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>1732</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10">
-      <c r="A172" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C172" s="1">
-        <v>3</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>1733</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="173" spans="1:10">
-      <c r="A173" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C173" s="1">
-        <v>3</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="G173" s="1" t="s">
-        <v>1672</v>
-      </c>
-      <c r="H173" s="1" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10">
-      <c r="A174" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C174" s="1">
-        <v>7</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="E174" s="1">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10">
-      <c r="A175" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C175" s="1">
-        <v>7</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>1674</v>
-      </c>
-      <c r="E175" s="1">
-        <v>238</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="176" spans="1:10">
-      <c r="A176" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C176" s="1">
-        <v>7</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>1675</v>
-      </c>
-      <c r="E176" s="1">
-        <v>238</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="J176" s="1" t="s">
-        <v>1737</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10">
-      <c r="A177" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C177" s="1">
-        <v>7</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="G177" s="1" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10">
-      <c r="A178" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C178" s="1">
-        <v>7</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G178" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="H178" s="1" t="s">
-        <v>1571</v>
-      </c>
-      <c r="J178" s="1" t="s">
-        <v>1738</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10">
-      <c r="A179" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C179" s="1">
-        <v>7</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10">
-      <c r="A180" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C180" s="1">
-        <v>7</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="G180" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ED155A-BF2B-4D81-AEB3-B117136BF50B}">
-  <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:R69"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
-  <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
-    <col min="11" max="14" width="8.75" style="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="I2" s="4">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1">
-        <f t="shared" ref="R2:R47" si="0">IF(ISBLANK(A2),,IF(ISBLANK(C2),1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="B3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="I3" s="4">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1510</v>
-      </c>
-      <c r="I4" s="4">
-        <v>11</v>
-      </c>
-      <c r="R4" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="I5" s="4">
-        <v>18</v>
-      </c>
-      <c r="R5" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I6" s="4">
-        <v>20</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="I7" s="4">
-        <v>15</v>
-      </c>
-      <c r="R7" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="1">
-        <v>4</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="I8" s="4">
-        <v>19</v>
-      </c>
-      <c r="R8" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1538</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>1539</v>
-      </c>
-      <c r="I9" s="4">
-        <v>17</v>
-      </c>
-      <c r="R9" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>1553</v>
-      </c>
-      <c r="I10" s="4">
-        <v>5</v>
-      </c>
-      <c r="R10" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B11" s="1">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D11" s="1">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="I11" s="4">
-        <v>5</v>
-      </c>
-      <c r="R11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="I12" s="4">
-        <v>5</v>
-      </c>
-      <c r="R12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="R13" s="1">
-        <f>IF(ISBLANK(A13),,IF(ISBLANK(C13),1,0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="1">
-        <v>7</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="I14" s="4">
-        <v>14</v>
-      </c>
-      <c r="R14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="B15" s="1">
-        <v>8</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="I15" s="4">
-        <v>10</v>
-      </c>
-      <c r="R15" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="34.799999999999997">
-      <c r="A16" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B16" s="1">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="I16" s="4">
-        <v>16</v>
-      </c>
-      <c r="R16" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="B17" s="1">
-        <v>9</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="R17" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9</v>
-      </c>
-      <c r="I18" s="4">
-        <v>7</v>
-      </c>
-      <c r="R18" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B19" s="1">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="I19" s="4">
-        <v>7</v>
-      </c>
-      <c r="R19" s="1">
-        <f>IF(ISBLANK(A19),,IF(ISBLANK(C19),1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="D20" s="1">
-        <v>6</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1588</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1589</v>
-      </c>
-      <c r="I20" s="4">
-        <v>7</v>
-      </c>
-      <c r="R20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="1">
-        <v>12</v>
-      </c>
-      <c r="I21" s="4">
-        <v>9</v>
-      </c>
-      <c r="R21" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="1">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="I22" s="4">
-        <v>9</v>
-      </c>
-      <c r="R22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
-      <c r="A23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="I23" s="4">
-        <v>9</v>
-      </c>
-      <c r="R23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="A24" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="1">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="I24" s="4">
-        <v>9</v>
-      </c>
-      <c r="R24" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="A25" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B25" s="1">
-        <v>13</v>
-      </c>
-      <c r="I25" s="4">
-        <v>8</v>
-      </c>
-      <c r="R25" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B26" s="1">
-        <v>13</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>1599</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>1606</v>
-      </c>
-      <c r="I26" s="4">
-        <v>8</v>
-      </c>
-      <c r="R26" s="1">
-        <f>IF(ISBLANK(A26),,IF(ISBLANK(C26),1,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B27" s="1">
-        <v>13</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="1">
-        <v>8</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>1545</v>
-      </c>
-      <c r="I27" s="4">
-        <v>8</v>
-      </c>
-      <c r="R27" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B28" s="1">
-        <v>17</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="I28" s="1">
-        <v>6</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
-      <c r="A29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="1">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="1">
-        <v>6</v>
-      </c>
-      <c r="R29" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B30" s="1">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="D30" s="1">
-        <v>2</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="I30" s="1">
-        <v>6</v>
-      </c>
-      <c r="R30" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B31" s="1">
-        <v>17</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="I31" s="1">
-        <v>6</v>
-      </c>
-      <c r="R31" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B32" s="1">
-        <v>17</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="1">
-        <v>3</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="I32" s="1">
-        <v>6</v>
-      </c>
-      <c r="R32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="1">
-        <v>17</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="D33" s="1">
-        <v>8</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="I33" s="1">
-        <v>6</v>
-      </c>
-      <c r="R33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B34" s="1">
-        <v>17</v>
-      </c>
-      <c r="I34" s="4">
-        <v>13</v>
-      </c>
-      <c r="R34" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18">
-      <c r="A35" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B35" s="1">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="1">
-        <v>5</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="I35" s="4">
-        <v>13</v>
-      </c>
-      <c r="R35" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B36" s="1">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="1">
-        <v>3</v>
-      </c>
-      <c r="I36" s="4">
-        <v>13</v>
-      </c>
-      <c r="R36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B37" s="1">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="D37" s="1">
-        <v>2</v>
-      </c>
-      <c r="I37" s="4">
-        <v>13</v>
-      </c>
-      <c r="R37" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B38" s="1">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D38" s="1">
-        <v>4</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="I38" s="4">
-        <v>13</v>
-      </c>
-      <c r="R38" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18">
-      <c r="A39" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B39" s="1">
-        <v>17</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="D39" s="1">
-        <v>2</v>
-      </c>
-      <c r="I39" s="4">
-        <v>13</v>
-      </c>
-      <c r="R39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18">
-      <c r="A40" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B40" s="1">
-        <v>17</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="I40" s="4">
-        <v>13</v>
-      </c>
-      <c r="R40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18">
-      <c r="A41" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B41" s="1">
-        <v>19</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="I41" s="4">
-        <v>4</v>
-      </c>
-      <c r="R41" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18">
-      <c r="A42" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B42" s="1">
-        <v>19</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="I42" s="4">
-        <v>4</v>
-      </c>
-      <c r="R42" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18">
-      <c r="A43" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B43" s="1">
-        <v>19</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="1">
-        <v>3</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="I43" s="4">
-        <v>4</v>
-      </c>
-      <c r="R43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18">
-      <c r="A44" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B44" s="1">
-        <v>19</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="D44" s="1">
-        <v>3</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="I44" s="4">
-        <v>4</v>
-      </c>
-      <c r="R44" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18">
-      <c r="A45" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B45" s="1">
-        <v>19</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="I45" s="4">
-        <v>4</v>
-      </c>
-      <c r="R45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18">
-      <c r="A46" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B46" s="1">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="D46" s="1">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="I46" s="4">
-        <v>4</v>
-      </c>
-      <c r="R46" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18">
-      <c r="A47" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B47" s="1">
-        <v>19</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="1">
-        <v>7</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4</v>
-      </c>
-      <c r="R47" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18">
-      <c r="H48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="9:11" s="1" customFormat="1">
-      <c r="I49" s="4"/>
-      <c r="K49" s="1">
-        <f>SUMPRODUCT(B:B,R:R)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="9:11" s="1" customFormat="1">
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="9:11" s="1" customFormat="1">
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="9:11" s="1" customFormat="1">
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="9:11" s="1" customFormat="1">
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="9:11" s="1" customFormat="1">
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="9:11" s="1" customFormat="1">
-      <c r="I55" s="4"/>
-    </row>
-    <row r="56" spans="9:11" s="1" customFormat="1">
-      <c r="I56" s="4"/>
-    </row>
-    <row r="57" spans="9:11" s="1" customFormat="1">
-      <c r="I57" s="4"/>
-    </row>
-    <row r="58" spans="9:11" s="1" customFormat="1">
-      <c r="I58" s="4"/>
-    </row>
-    <row r="59" spans="9:11" s="1" customFormat="1">
-      <c r="I59" s="4"/>
-    </row>
-    <row r="60" spans="9:11" s="1" customFormat="1">
-      <c r="I60" s="4"/>
-    </row>
-    <row r="61" spans="9:11" s="1" customFormat="1">
-      <c r="I61" s="4"/>
-    </row>
-    <row r="62" spans="9:11" s="1" customFormat="1">
-      <c r="I62" s="4"/>
-    </row>
-    <row r="63" spans="9:11" s="1" customFormat="1">
-      <c r="I63" s="4"/>
-    </row>
-    <row r="64" spans="9:11" s="1" customFormat="1">
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="9:9" s="1" customFormat="1">
-      <c r="I65" s="4"/>
-    </row>
-    <row r="66" spans="9:9" s="1" customFormat="1">
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="9:9" s="1" customFormat="1">
-      <c r="I67" s="4"/>
-    </row>
-    <row r="68" spans="9:9" s="1" customFormat="1">
-      <c r="I68" s="4"/>
-    </row>
-    <row r="69" spans="9:9" s="1" customFormat="1">
-      <c r="I69" s="4"/>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H47">
-    <sortCondition ref="B2:B47"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuda/练功_中医/yikao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112AF6C8-62AA-474C-9474-235389A874E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62280F8B-A27C-C448-A45E-9EB1B58AE3AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="2" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10908" uniqueCount="2706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="2707">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13384,6 +13384,10 @@
   </si>
   <si>
     <t>桃仁红花煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涤痰汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13665,74 +13669,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13752,7 +13688,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14051,18 +13987,18 @@
       <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" style="1"/>
-    <col min="8" max="8" width="24.08203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14082,7 +14018,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -14164,7 +14100,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="34.799999999999997">
+    <row r="7" spans="1:9" ht="38">
       <c r="A7" s="1" t="s">
         <v>541</v>
       </c>
@@ -14354,7 +14290,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34.799999999999997">
+    <row r="21" spans="1:9" ht="38">
       <c r="B21" s="1" t="s">
         <v>1776</v>
       </c>
@@ -14472,9 +14408,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14686,12 +14622,12 @@
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.75" style="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23555,7 +23491,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
@@ -23648,123 +23584,123 @@
       <selection activeCell="A3" sqref="A3:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.4140625" style="1"/>
-    <col min="25" max="25" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.4140625" style="1"/>
-    <col min="36" max="36" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.4140625" style="1"/>
-    <col min="41" max="42" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="103" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8.4140625" style="1"/>
-    <col min="106" max="106" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="139" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.4140625" style="1"/>
-    <col min="145" max="147" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="158" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="16384" width="8.4140625" style="1"/>
+    <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="1"/>
+    <col min="25" max="25" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" style="1"/>
+    <col min="36" max="36" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" style="1"/>
+    <col min="41" max="42" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="103" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.42578125" style="1"/>
+    <col min="106" max="106" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.42578125" style="1"/>
+    <col min="145" max="147" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -28184,7 +28120,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -28233,26 +28169,26 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.6640625" style="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="64.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -28305,7 +28241,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.2">
+    <row r="2" spans="1:18" ht="32">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -28344,7 +28280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="31.2">
+    <row r="3" spans="1:18" ht="32">
       <c r="A3" s="1" t="s">
         <v>294</v>
       </c>
@@ -28389,7 +28325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="46.8">
+    <row r="4" spans="1:18" ht="48">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
@@ -28431,7 +28367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997">
+    <row r="5" spans="1:18" ht="38">
       <c r="A5" s="1" t="s">
         <v>294</v>
       </c>
@@ -28512,7 +28448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.2">
+    <row r="7" spans="1:18" ht="32">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -28557,7 +28493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="31.2">
+    <row r="8" spans="1:18" ht="32">
       <c r="A8" s="1" t="s">
         <v>294</v>
       </c>
@@ -28593,7 +28529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="46.8">
+    <row r="9" spans="1:18" ht="48">
       <c r="A9" s="1" t="s">
         <v>294</v>
       </c>
@@ -28638,7 +28574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="46.8">
+    <row r="10" spans="1:18" ht="48">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -28683,7 +28619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="46.8">
+    <row r="11" spans="1:18" ht="48">
       <c r="A11" s="1" t="s">
         <v>294</v>
       </c>
@@ -28731,7 +28667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="31.2">
+    <row r="12" spans="1:18" ht="32">
       <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
@@ -28767,7 +28703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="46.8">
+    <row r="13" spans="1:18" ht="48">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -28809,7 +28745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="46.8">
+    <row r="14" spans="1:18" ht="48">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -28857,7 +28793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="34.799999999999997">
+    <row r="15" spans="1:18" ht="38">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -28902,7 +28838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="46.8">
+    <row r="16" spans="1:18" ht="48">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -28950,7 +28886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="31.2">
+    <row r="17" spans="1:18" ht="32">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -28992,7 +28928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="46.8">
+    <row r="18" spans="1:18" ht="48">
       <c r="A18" s="1" t="s">
         <v>294</v>
       </c>
@@ -29028,7 +28964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="31.2">
+    <row r="19" spans="1:18" ht="32">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -29073,7 +29009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="31.2">
+    <row r="20" spans="1:18" ht="32">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -29113,7 +29049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="31.2">
+    <row r="21" spans="1:18" ht="32">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -29155,7 +29091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="31.2">
+    <row r="22" spans="1:18" ht="32">
       <c r="A22" s="1" t="s">
         <v>294</v>
       </c>
@@ -29197,7 +29133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="31.2">
+    <row r="23" spans="1:18" ht="32">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
@@ -29230,7 +29166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="31.2">
+    <row r="24" spans="1:18" ht="32">
       <c r="A24" s="1" t="s">
         <v>294</v>
       </c>
@@ -29260,7 +29196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31.2">
+    <row r="25" spans="1:18" ht="32">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -29290,7 +29226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="62.4">
+    <row r="26" spans="1:18" ht="80">
       <c r="A26" s="1" t="s">
         <v>294</v>
       </c>
@@ -29323,7 +29259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="31.2">
+    <row r="27" spans="1:18" ht="32">
       <c r="A27" s="1" t="s">
         <v>541</v>
       </c>
@@ -29372,7 +29308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="31.2">
+    <row r="28" spans="1:18" ht="32">
       <c r="A28" s="1" t="s">
         <v>541</v>
       </c>
@@ -29417,7 +29353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="34.799999999999997">
+    <row r="29" spans="1:18" ht="38">
       <c r="A29" s="1" t="s">
         <v>541</v>
       </c>
@@ -29468,7 +29404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="31.2">
+    <row r="30" spans="1:18" ht="32">
       <c r="A30" s="1" t="s">
         <v>541</v>
       </c>
@@ -29507,7 +29443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="34.799999999999997">
+    <row r="31" spans="1:18" ht="38">
       <c r="A31" s="1" t="s">
         <v>541</v>
       </c>
@@ -29549,7 +29485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="31.2">
+    <row r="32" spans="1:18" ht="32">
       <c r="A32" s="1" t="s">
         <v>541</v>
       </c>
@@ -29598,7 +29534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="31.2">
+    <row r="33" spans="1:18" ht="32">
       <c r="A33" s="1" t="s">
         <v>541</v>
       </c>
@@ -29640,7 +29576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="31.2">
+    <row r="34" spans="1:18" ht="32">
       <c r="A34" s="1" t="s">
         <v>541</v>
       </c>
@@ -29682,7 +29618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="46.8">
+    <row r="35" spans="1:18" ht="48">
       <c r="A35" s="1" t="s">
         <v>541</v>
       </c>
@@ -29721,7 +29657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="31.2">
+    <row r="36" spans="1:18" ht="32">
       <c r="A36" s="1" t="s">
         <v>541</v>
       </c>
@@ -29757,7 +29693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="31.2">
+    <row r="37" spans="1:18" ht="32">
       <c r="A37" s="1" t="s">
         <v>541</v>
       </c>
@@ -29799,7 +29735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="46.8">
+    <row r="38" spans="1:18" ht="48">
       <c r="A38" s="1" t="s">
         <v>541</v>
       </c>
@@ -29841,7 +29777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="52.2">
+    <row r="39" spans="1:18" ht="57">
       <c r="A39" s="1" t="s">
         <v>541</v>
       </c>
@@ -29922,7 +29858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="31.2">
+    <row r="41" spans="1:18" ht="32">
       <c r="A41" s="1" t="s">
         <v>541</v>
       </c>
@@ -29958,7 +29894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="31.2">
+    <row r="42" spans="1:18" ht="32">
       <c r="A42" s="1" t="s">
         <v>541</v>
       </c>
@@ -29994,7 +29930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="31.2">
+    <row r="43" spans="1:18" ht="32">
       <c r="A43" s="1" t="s">
         <v>541</v>
       </c>
@@ -30036,7 +29972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="31.2">
+    <row r="44" spans="1:18" ht="32">
       <c r="A44" s="1" t="s">
         <v>541</v>
       </c>
@@ -30078,7 +30014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="31.2">
+    <row r="45" spans="1:18" ht="32">
       <c r="A45" s="1" t="s">
         <v>541</v>
       </c>
@@ -30120,7 +30056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="46.8">
+    <row r="46" spans="1:18" ht="48">
       <c r="A46" s="1" t="s">
         <v>541</v>
       </c>
@@ -30159,7 +30095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="46.8">
+    <row r="47" spans="1:18" ht="48">
       <c r="A47" s="1" t="s">
         <v>541</v>
       </c>
@@ -30195,7 +30131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="31.2">
+    <row r="48" spans="1:18" ht="32">
       <c r="A48" s="1" t="s">
         <v>541</v>
       </c>
@@ -30240,7 +30176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="62.4">
+    <row r="49" spans="1:18" ht="64">
       <c r="A49" s="1" t="s">
         <v>541</v>
       </c>
@@ -30282,7 +30218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="32.4">
+    <row r="50" spans="1:18" ht="34">
       <c r="A50" s="1" t="s">
         <v>541</v>
       </c>
@@ -30327,7 +30263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="47.4">
+    <row r="51" spans="1:18" ht="49">
       <c r="A51" s="1" t="s">
         <v>541</v>
       </c>
@@ -30366,7 +30302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="31.2">
+    <row r="52" spans="1:18" ht="32">
       <c r="A52" s="1" t="s">
         <v>541</v>
       </c>
@@ -30408,7 +30344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="31.8">
+    <row r="53" spans="1:18" ht="33">
       <c r="A53" s="1" t="s">
         <v>541</v>
       </c>
@@ -30447,7 +30383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="31.2">
+    <row r="54" spans="1:18" ht="32">
       <c r="A54" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30489,7 +30425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="46.8">
+    <row r="55" spans="1:18" ht="32">
       <c r="A55" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30531,7 +30467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="31.2">
+    <row r="56" spans="1:18" ht="32">
       <c r="A56" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30573,7 +30509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="31.2">
+    <row r="57" spans="1:18" ht="32">
       <c r="A57" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30609,7 +30545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="31.2">
+    <row r="58" spans="1:18" ht="32">
       <c r="A58" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30651,7 +30587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="31.2">
+    <row r="59" spans="1:18" ht="32">
       <c r="A59" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30687,7 +30623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="31.2">
+    <row r="60" spans="1:18" ht="32">
       <c r="A60" s="1" t="s">
         <v>1752</v>
       </c>
@@ -30927,7 +30863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="31.2">
+    <row r="66" spans="1:18" ht="32">
       <c r="A66" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31002,7 +30938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="31.2">
+    <row r="68" spans="1:18" ht="32">
       <c r="A68" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31047,7 +30983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="31.2">
+    <row r="69" spans="1:18" ht="32">
       <c r="A69" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31089,7 +31025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="31.2">
+    <row r="70" spans="1:18" ht="32">
       <c r="A70" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31134,7 +31070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="31.2">
+    <row r="71" spans="1:18" ht="32">
       <c r="A71" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31212,7 +31148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="31.2">
+    <row r="73" spans="1:18" ht="32">
       <c r="A73" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31251,7 +31187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="31.2">
+    <row r="74" spans="1:18" ht="32">
       <c r="A74" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31293,7 +31229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="31.2">
+    <row r="75" spans="1:18" ht="32">
       <c r="A75" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31329,7 +31265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="31.2">
+    <row r="76" spans="1:18" ht="32">
       <c r="A76" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31368,7 +31304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="31.2">
+    <row r="77" spans="1:18" ht="32">
       <c r="A77" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31410,7 +31346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="31.2">
+    <row r="78" spans="1:18" ht="32">
       <c r="A78" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31452,7 +31388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="31.2">
+    <row r="79" spans="1:18" ht="32">
       <c r="A79" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31488,7 +31424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="46.8">
+    <row r="80" spans="1:18" ht="48">
       <c r="A80" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31530,7 +31466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="31.2">
+    <row r="81" spans="1:18" ht="32">
       <c r="A81" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31572,7 +31508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="31.2">
+    <row r="82" spans="1:18" ht="32">
       <c r="A82" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31608,7 +31544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="34.799999999999997">
+    <row r="83" spans="1:18" ht="38">
       <c r="A83" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31644,7 +31580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="31.2">
+    <row r="84" spans="1:18" ht="32">
       <c r="A84" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31680,7 +31616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="31.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31716,7 +31652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="31.2">
+    <row r="86" spans="1:18" ht="32">
       <c r="A86" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31755,7 +31691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="31.2">
+    <row r="87" spans="1:18" ht="32">
       <c r="A87" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31791,7 +31727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="31.2">
+    <row r="88" spans="1:18" ht="32">
       <c r="A88" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31869,7 +31805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="31.2">
+    <row r="90" spans="1:18" ht="32">
       <c r="A90" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31905,7 +31841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="31.2">
+    <row r="91" spans="1:18" ht="32">
       <c r="A91" s="1" t="s">
         <v>1752</v>
       </c>
@@ -31944,7 +31880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="31.2">
+    <row r="92" spans="1:18" ht="32">
       <c r="A92" s="1" t="s">
         <v>1755</v>
       </c>
@@ -31974,7 +31910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="31.2">
+    <row r="93" spans="1:18" ht="32">
       <c r="A93" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32007,7 +31943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="31.2">
+    <row r="94" spans="1:18" ht="32">
       <c r="A94" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32040,7 +31976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="31.2">
+    <row r="95" spans="1:18" ht="32">
       <c r="A95" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32073,7 +32009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="31.2">
+    <row r="96" spans="1:18" ht="32">
       <c r="A96" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32112,7 +32048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="31.2">
+    <row r="97" spans="1:18" ht="32">
       <c r="A97" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32157,7 +32093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="31.2">
+    <row r="98" spans="1:18" ht="32">
       <c r="A98" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32193,7 +32129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="31.2">
+    <row r="99" spans="1:18" ht="32">
       <c r="A99" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32232,7 +32168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="31.2">
+    <row r="100" spans="1:18" ht="32">
       <c r="A100" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32268,7 +32204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="31.2">
+    <row r="101" spans="1:18" ht="32">
       <c r="A101" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32304,7 +32240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="31.2">
+    <row r="102" spans="1:18" ht="32">
       <c r="A102" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32340,7 +32276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="31.2">
+    <row r="103" spans="1:18" ht="32">
       <c r="A103" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32373,7 +32309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="31.2">
+    <row r="104" spans="1:18" ht="32">
       <c r="A104" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32412,7 +32348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="31.2">
+    <row r="105" spans="1:18" ht="32">
       <c r="A105" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32451,7 +32387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="31.2">
+    <row r="106" spans="1:18" ht="32">
       <c r="A106" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32529,7 +32465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="31.2">
+    <row r="108" spans="1:18" ht="32">
       <c r="A108" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32607,7 +32543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="31.2">
+    <row r="110" spans="1:18" ht="32">
       <c r="A110" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32682,7 +32618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="31.2">
+    <row r="112" spans="1:18" ht="32">
       <c r="A112" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32718,7 +32654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="31.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32805,7 +32741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="31.2">
+    <row r="115" spans="1:18" ht="32">
       <c r="A115" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32838,7 +32774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="31.2">
+    <row r="116" spans="1:18" ht="32">
       <c r="A116" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32868,7 +32804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="31.2">
+    <row r="117" spans="1:18" ht="32">
       <c r="A117" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32901,7 +32837,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="46.8">
+    <row r="118" spans="1:18" ht="48">
       <c r="A118" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32937,7 +32873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="31.2">
+    <row r="119" spans="1:18" ht="32">
       <c r="A119" s="1" t="s">
         <v>1755</v>
       </c>
@@ -32976,7 +32912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="31.2">
+    <row r="120" spans="1:18" ht="32">
       <c r="A120" s="1" t="s">
         <v>1755</v>
       </c>
@@ -33018,7 +32954,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="31.2">
+    <row r="121" spans="1:18" ht="32">
       <c r="A121" s="1" t="s">
         <v>1755</v>
       </c>
@@ -33144,7 +33080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="31.2">
+    <row r="124" spans="1:18" ht="32">
       <c r="A124" s="1" t="s">
         <v>1755</v>
       </c>
@@ -33228,7 +33164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" ht="19">
       <c r="A126" s="1" t="s">
         <v>1755</v>
       </c>
@@ -33267,7 +33203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="31.2">
+    <row r="127" spans="1:18" ht="32">
       <c r="A127" s="1" t="s">
         <v>1755</v>
       </c>
@@ -33306,7 +33242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="46.8">
+    <row r="128" spans="1:18" ht="48">
       <c r="A128" s="1" t="s">
         <v>767</v>
       </c>
@@ -33351,7 +33287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="31.2">
+    <row r="129" spans="1:18" ht="32">
       <c r="A129" s="1" t="s">
         <v>767</v>
       </c>
@@ -33393,7 +33329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="31.2">
+    <row r="130" spans="1:18" ht="32">
       <c r="A130" s="1" t="s">
         <v>767</v>
       </c>
@@ -33441,7 +33377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="31.2">
+    <row r="131" spans="1:18" ht="32">
       <c r="A131" s="1" t="s">
         <v>767</v>
       </c>
@@ -33486,7 +33422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="31.2">
+    <row r="132" spans="1:18" ht="32">
       <c r="A132" s="1" t="s">
         <v>767</v>
       </c>
@@ -33528,7 +33464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="46.8">
+    <row r="133" spans="1:18" ht="48">
       <c r="A133" s="1" t="s">
         <v>767</v>
       </c>
@@ -33573,7 +33509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="62.4">
+    <row r="134" spans="1:18" ht="64">
       <c r="A134" s="1" t="s">
         <v>767</v>
       </c>
@@ -33609,7 +33545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="31.2">
+    <row r="135" spans="1:18" ht="32">
       <c r="A135" s="1" t="s">
         <v>767</v>
       </c>
@@ -33678,7 +33614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="31.2">
+    <row r="137" spans="1:18" ht="32">
       <c r="A137" s="1" t="s">
         <v>767</v>
       </c>
@@ -33711,7 +33647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="31.2">
+    <row r="138" spans="1:18" ht="32">
       <c r="A138" s="1" t="s">
         <v>767</v>
       </c>
@@ -33744,7 +33680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="31.2">
+    <row r="139" spans="1:18" ht="32">
       <c r="A139" s="1" t="s">
         <v>767</v>
       </c>
@@ -33774,7 +33710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="31.2">
+    <row r="140" spans="1:18" ht="32">
       <c r="A140" s="1" t="s">
         <v>668</v>
       </c>
@@ -33804,7 +33740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="31.2">
+    <row r="141" spans="1:18" ht="32">
       <c r="A141" s="1" t="s">
         <v>668</v>
       </c>
@@ -33837,7 +33773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="31.2">
+    <row r="142" spans="1:18" ht="32">
       <c r="A142" s="1" t="s">
         <v>668</v>
       </c>
@@ -33870,7 +33806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="31.2">
+    <row r="143" spans="1:18" ht="32">
       <c r="A143" s="1" t="s">
         <v>668</v>
       </c>
@@ -33939,7 +33875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="31.2">
+    <row r="145" spans="1:18" ht="32">
       <c r="A145" s="1" t="s">
         <v>668</v>
       </c>
@@ -34011,7 +33947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="31.2">
+    <row r="147" spans="1:18" ht="32">
       <c r="A147" s="1" t="s">
         <v>668</v>
       </c>
@@ -34044,7 +33980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" ht="19">
       <c r="A148" s="1" t="s">
         <v>668</v>
       </c>
@@ -34089,7 +34025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="31.2">
+    <row r="149" spans="1:18" ht="32">
       <c r="A149" s="1" t="s">
         <v>668</v>
       </c>
@@ -34128,7 +34064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" ht="19">
       <c r="A150" s="1" t="s">
         <v>668</v>
       </c>
@@ -34167,7 +34103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="31.2">
+    <row r="151" spans="1:18" ht="32">
       <c r="A151" s="1" t="s">
         <v>668</v>
       </c>
@@ -34212,7 +34148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="31.2">
+    <row r="152" spans="1:18" ht="32">
       <c r="A152" s="1" t="s">
         <v>668</v>
       </c>
@@ -34248,7 +34184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="31.2">
+    <row r="153" spans="1:18" ht="32">
       <c r="A153" s="1" t="s">
         <v>668</v>
       </c>
@@ -34323,7 +34259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="31.2">
+    <row r="155" spans="1:18" ht="32">
       <c r="A155" s="1" t="s">
         <v>668</v>
       </c>
@@ -34398,7 +34334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="31.2">
+    <row r="157" spans="1:18" ht="32">
       <c r="A157" s="1" t="s">
         <v>668</v>
       </c>
@@ -34539,7 +34475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="31.2">
+    <row r="161" spans="1:18" ht="32">
       <c r="A161" s="1" t="s">
         <v>668</v>
       </c>
@@ -34605,7 +34541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" ht="19">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -34686,7 +34622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="31.2">
+    <row r="165" spans="1:18" ht="32">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -34722,7 +34658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="31.2">
+    <row r="166" spans="1:18" ht="32">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -34761,7 +34697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="31.2">
+    <row r="167" spans="1:18" ht="32">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -34800,7 +34736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="31.2">
+    <row r="168" spans="1:18" ht="32">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -34842,7 +34778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="31.2">
+    <row r="169" spans="1:18" ht="32">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -34884,7 +34820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="46.8">
+    <row r="170" spans="1:18" ht="48">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -34929,7 +34865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="46.8">
+    <row r="171" spans="1:18" ht="48">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -34971,7 +34907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="31.2">
+    <row r="172" spans="1:18" ht="32">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -35032,35 +34968,35 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H67" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N26" sqref="N26"/>
+      <selection pane="bottomRight" activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.08203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.9140625" style="9" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="9" customWidth="1"/>
     <col min="15" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="9" customWidth="1"/>
     <col min="18" max="18" width="60" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.6640625" style="9"/>
+    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -35125,7 +35061,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="46.8">
+    <row r="2" spans="1:22" ht="48">
       <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
@@ -35166,11 +35102,11 @@
         <v>1</v>
       </c>
       <c r="V2" s="9">
-        <f t="shared" ref="V2:V26" si="0">COUNTIF(F:S,Q2)</f>
+        <f>COUNTIF(F:S,Q2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="46.8">
+    <row r="3" spans="1:22" ht="48">
       <c r="A3" s="9" t="s">
         <v>294</v>
       </c>
@@ -35214,11 +35150,11 @@
         <v>2</v>
       </c>
       <c r="V3" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q3)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="46.8">
+    <row r="4" spans="1:22" ht="48">
       <c r="A4" s="9" t="s">
         <v>294</v>
       </c>
@@ -35259,11 +35195,11 @@
         <v>3</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q4)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="34.799999999999997">
+    <row r="5" spans="1:22" ht="38">
       <c r="A5" s="9" t="s">
         <v>294</v>
       </c>
@@ -35307,7 +35243,7 @@
         <v>4</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q5)</f>
         <v>1</v>
       </c>
     </row>
@@ -35352,11 +35288,11 @@
         <v>5</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q6)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="31.2">
+    <row r="7" spans="1:22" ht="32">
       <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
@@ -35403,11 +35339,11 @@
         <v>6</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q7)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="46.8">
+    <row r="8" spans="1:22" ht="48">
       <c r="A8" s="9" t="s">
         <v>294</v>
       </c>
@@ -35451,11 +35387,11 @@
         <v>7</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q8)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="46.8">
+    <row r="9" spans="1:22" ht="48">
       <c r="A9" s="9" t="s">
         <v>294</v>
       </c>
@@ -35500,11 +35436,11 @@
         <v>8</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q9)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="46.8">
+    <row r="10" spans="1:22" ht="48">
       <c r="A10" s="9" t="s">
         <v>294</v>
       </c>
@@ -35551,11 +35487,11 @@
         <v>9</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q10)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="46.8">
+    <row r="11" spans="1:22" ht="48">
       <c r="A11" s="9" t="s">
         <v>294</v>
       </c>
@@ -35605,11 +35541,11 @@
         <v>10</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q11)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="31.2">
+    <row r="12" spans="1:22" ht="32">
       <c r="A12" s="9" t="s">
         <v>294</v>
       </c>
@@ -35650,11 +35586,11 @@
         <v>11</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="46.8">
+    <row r="13" spans="1:22" ht="48">
       <c r="A13" s="9" t="s">
         <v>294</v>
       </c>
@@ -35698,11 +35634,11 @@
         <v>12</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="46.8">
+    <row r="14" spans="1:22" ht="48">
       <c r="A14" s="9" t="s">
         <v>294</v>
       </c>
@@ -35749,11 +35685,11 @@
         <v>13</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="34.799999999999997">
+    <row r="15" spans="1:22" ht="38">
       <c r="A15" s="9" t="s">
         <v>294</v>
       </c>
@@ -35794,11 +35730,11 @@
         <v>14</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q15)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="46.8">
+    <row r="16" spans="1:22" ht="48">
       <c r="A16" s="9" t="s">
         <v>294</v>
       </c>
@@ -35842,11 +35778,11 @@
         <v>15</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="46.8">
+    <row r="17" spans="1:22" ht="48">
       <c r="A17" s="9" t="s">
         <v>294</v>
       </c>
@@ -35887,11 +35823,11 @@
         <v>16</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q17)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="46.8">
+    <row r="18" spans="1:22" ht="48">
       <c r="A18" s="9" t="s">
         <v>294</v>
       </c>
@@ -35926,11 +35862,11 @@
         <v>17</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q18)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="31.2">
+    <row r="19" spans="1:22" ht="32">
       <c r="A19" s="9" t="s">
         <v>294</v>
       </c>
@@ -35977,11 +35913,11 @@
         <v>18</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="31.2">
+    <row r="20" spans="1:22" ht="32">
       <c r="A20" s="9" t="s">
         <v>294</v>
       </c>
@@ -36023,11 +35959,11 @@
         <v>19</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="31.2">
+    <row r="21" spans="1:22" ht="32">
       <c r="A21" s="9" t="s">
         <v>294</v>
       </c>
@@ -36068,11 +36004,11 @@
         <v>20</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="31.2">
+    <row r="22" spans="1:22" ht="32">
       <c r="A22" s="9" t="s">
         <v>294</v>
       </c>
@@ -36110,11 +36046,11 @@
         <v>21</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="31.2">
+    <row r="23" spans="1:22" ht="32">
       <c r="A23" s="9" t="s">
         <v>294</v>
       </c>
@@ -36146,11 +36082,11 @@
         <v>22</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q23)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="31.2">
+    <row r="24" spans="1:22" ht="32">
       <c r="A24" s="9" t="s">
         <v>294</v>
       </c>
@@ -36179,11 +36115,11 @@
         <v>23</v>
       </c>
       <c r="V24" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q24)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="46.8">
+    <row r="25" spans="1:22" ht="48">
       <c r="A25" s="9" t="s">
         <v>294</v>
       </c>
@@ -36212,11 +36148,11 @@
         <v>24</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q25)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="78">
+    <row r="26" spans="1:22" ht="80">
       <c r="A26" s="9" t="s">
         <v>294</v>
       </c>
@@ -36248,11 +36184,11 @@
         <v>25</v>
       </c>
       <c r="V26" s="9">
-        <f t="shared" si="0"/>
+        <f>COUNTIF(F:S,Q26)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="31.2">
+    <row r="27" spans="1:22" ht="32">
       <c r="A27" s="9" t="s">
         <v>541</v>
       </c>
@@ -36308,7 +36244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="31.2">
+    <row r="28" spans="1:22" ht="32">
       <c r="A28" s="9" t="s">
         <v>541</v>
       </c>
@@ -36349,11 +36285,11 @@
         <v>27</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" ref="V28:V59" si="1">COUNTIF(F:S,Q28)</f>
+        <f>COUNTIF(F:S,Q28)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="34.799999999999997">
+    <row r="29" spans="1:22" ht="38">
       <c r="A29" s="9" t="s">
         <v>541</v>
       </c>
@@ -36400,11 +36336,11 @@
         <v>28</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q29)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="31.2">
+    <row r="30" spans="1:22" ht="32">
       <c r="A30" s="9" t="s">
         <v>541</v>
       </c>
@@ -36439,11 +36375,11 @@
         <v>29</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q30)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="34.799999999999997">
+    <row r="31" spans="1:22" ht="38">
       <c r="A31" s="9" t="s">
         <v>541</v>
       </c>
@@ -36487,11 +36423,11 @@
         <v>30</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q31)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="31.2">
+    <row r="32" spans="1:22" ht="32">
       <c r="A32" s="9" t="s">
         <v>541</v>
       </c>
@@ -36544,11 +36480,11 @@
         <v>31</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q32)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="31.2">
+    <row r="33" spans="1:22" ht="32">
       <c r="A33" s="9" t="s">
         <v>541</v>
       </c>
@@ -36589,11 +36525,11 @@
         <v>32</v>
       </c>
       <c r="V33" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q33)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="31.2">
+    <row r="34" spans="1:22" ht="32">
       <c r="A34" s="9" t="s">
         <v>541</v>
       </c>
@@ -36631,11 +36567,11 @@
         <v>33</v>
       </c>
       <c r="V34" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q34)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="46.8">
+    <row r="35" spans="1:22" ht="57">
       <c r="A35" s="9" t="s">
         <v>541</v>
       </c>
@@ -36682,11 +36618,11 @@
         <v>34</v>
       </c>
       <c r="V35" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q35)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="31.2">
+    <row r="36" spans="1:22" ht="32">
       <c r="A36" s="9" t="s">
         <v>541</v>
       </c>
@@ -36724,11 +36660,11 @@
         <v>35</v>
       </c>
       <c r="V36" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q36)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="46.8">
+    <row r="37" spans="1:22" ht="48">
       <c r="A37" s="9" t="s">
         <v>541</v>
       </c>
@@ -36769,11 +36705,11 @@
         <v>36</v>
       </c>
       <c r="V37" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q37)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="46.8">
+    <row r="38" spans="1:22" ht="48">
       <c r="A38" s="9" t="s">
         <v>541</v>
       </c>
@@ -36814,11 +36750,11 @@
         <v>37</v>
       </c>
       <c r="V38" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q38)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="52.2">
+    <row r="39" spans="1:22" ht="57">
       <c r="A39" s="9" t="s">
         <v>541</v>
       </c>
@@ -36859,11 +36795,11 @@
         <v>38</v>
       </c>
       <c r="V39" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q39)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="31.2">
+    <row r="40" spans="1:22" ht="32">
       <c r="A40" s="9" t="s">
         <v>541</v>
       </c>
@@ -36901,11 +36837,11 @@
         <v>39</v>
       </c>
       <c r="V40" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q40)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="31.2">
+    <row r="41" spans="1:22" ht="32">
       <c r="A41" s="9" t="s">
         <v>541</v>
       </c>
@@ -36943,11 +36879,11 @@
         <v>40</v>
       </c>
       <c r="V41" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q41)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="31.2">
+    <row r="42" spans="1:22" ht="32">
       <c r="A42" s="9" t="s">
         <v>541</v>
       </c>
@@ -36979,11 +36915,11 @@
         <v>41</v>
       </c>
       <c r="V42" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q42)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="31.2">
+    <row r="43" spans="1:22" ht="32">
       <c r="A43" s="9" t="s">
         <v>541</v>
       </c>
@@ -37030,11 +36966,11 @@
         <v>42</v>
       </c>
       <c r="V43" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q43)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="31.2">
+    <row r="44" spans="1:22" ht="32">
       <c r="A44" s="9" t="s">
         <v>541</v>
       </c>
@@ -37075,11 +37011,11 @@
         <v>43</v>
       </c>
       <c r="V44" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q44)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="31.2">
+    <row r="45" spans="1:22" ht="32">
       <c r="A45" s="9" t="s">
         <v>541</v>
       </c>
@@ -37117,11 +37053,11 @@
         <v>44</v>
       </c>
       <c r="V45" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q45)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="46.8">
+    <row r="46" spans="1:22" ht="48">
       <c r="A46" s="9" t="s">
         <v>541</v>
       </c>
@@ -37160,11 +37096,11 @@
         <v>45</v>
       </c>
       <c r="V46" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q46)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="46.8">
+    <row r="47" spans="1:22" ht="48">
       <c r="A47" s="9" t="s">
         <v>541</v>
       </c>
@@ -37199,11 +37135,11 @@
         <v>46</v>
       </c>
       <c r="V47" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q47)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="46.8">
+    <row r="48" spans="1:22" ht="48">
       <c r="A48" s="9" t="s">
         <v>541</v>
       </c>
@@ -37244,11 +37180,11 @@
         <v>47</v>
       </c>
       <c r="V48" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q48)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="62.4">
+    <row r="49" spans="1:22" ht="64">
       <c r="A49" s="9" t="s">
         <v>541</v>
       </c>
@@ -37290,11 +37226,11 @@
         <v>48</v>
       </c>
       <c r="V49" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q49)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="32.4">
+    <row r="50" spans="1:22" ht="50">
       <c r="A50" s="9" t="s">
         <v>541</v>
       </c>
@@ -37344,11 +37280,11 @@
         <v>49</v>
       </c>
       <c r="V50" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q50)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="47.4">
+    <row r="51" spans="1:22" ht="49">
       <c r="A51" s="9" t="s">
         <v>541</v>
       </c>
@@ -37392,11 +37328,11 @@
         <v>50</v>
       </c>
       <c r="V51" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q51)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="31.2">
+    <row r="52" spans="1:22" ht="32">
       <c r="A52" s="9" t="s">
         <v>541</v>
       </c>
@@ -37440,11 +37376,11 @@
         <v>51</v>
       </c>
       <c r="V52" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q52)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="31.8">
+    <row r="53" spans="1:22" ht="33">
       <c r="A53" s="9" t="s">
         <v>541</v>
       </c>
@@ -37485,11 +37421,11 @@
         <v>52</v>
       </c>
       <c r="V53" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q53)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="31.2">
+    <row r="54" spans="1:22" ht="32">
       <c r="A54" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37536,11 +37472,11 @@
         <v>53</v>
       </c>
       <c r="V54" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q54)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="46.8">
+    <row r="55" spans="1:22" ht="48">
       <c r="A55" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37578,11 +37514,11 @@
         <v>54</v>
       </c>
       <c r="V55" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q55)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="31.2">
+    <row r="56" spans="1:22" ht="32">
       <c r="A56" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37629,11 +37565,11 @@
         <v>55</v>
       </c>
       <c r="V56" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q56)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="31.2">
+    <row r="57" spans="1:22" ht="32">
       <c r="A57" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37671,11 +37607,11 @@
         <v>56</v>
       </c>
       <c r="V57" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q57)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="31.2">
+    <row r="58" spans="1:22" ht="32">
       <c r="A58" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37716,11 +37652,11 @@
         <v>57</v>
       </c>
       <c r="V58" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q58)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="31.2">
+    <row r="59" spans="1:22" ht="32">
       <c r="A59" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37758,11 +37694,11 @@
         <v>58</v>
       </c>
       <c r="V59" s="9">
-        <f t="shared" si="1"/>
+        <f>COUNTIF(F:S,Q59)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="31.2">
+    <row r="60" spans="1:22" ht="32">
       <c r="A60" s="9" t="s">
         <v>1752</v>
       </c>
@@ -37806,7 +37742,7 @@
         <v>59</v>
       </c>
       <c r="V60" s="9">
-        <f t="shared" ref="V60:V91" si="2">COUNTIF(F:S,Q60)</f>
+        <f>COUNTIF(F:S,Q60)</f>
         <v>1</v>
       </c>
     </row>
@@ -37851,7 +37787,7 @@
         <v>60</v>
       </c>
       <c r="V61" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q61)</f>
         <v>4</v>
       </c>
     </row>
@@ -37893,7 +37829,7 @@
         <v>61</v>
       </c>
       <c r="V62" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q62)</f>
         <v>6</v>
       </c>
     </row>
@@ -37935,7 +37871,7 @@
         <v>62</v>
       </c>
       <c r="V63" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q63)</f>
         <v>1</v>
       </c>
     </row>
@@ -37978,11 +37914,11 @@
         <v>63</v>
       </c>
       <c r="V64" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q64)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" ht="32">
       <c r="A65" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38020,11 +37956,11 @@
         <v>64</v>
       </c>
       <c r="V65" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q65)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="31.2">
+    <row r="66" spans="1:22" ht="32">
       <c r="A66" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38056,11 +37992,11 @@
         <v>65</v>
       </c>
       <c r="V66" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q66)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="31.2">
+    <row r="67" spans="1:22" ht="32">
       <c r="A67" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38101,11 +38037,11 @@
         <v>66</v>
       </c>
       <c r="V67" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q67)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="31.2">
+    <row r="68" spans="1:22" ht="32">
       <c r="A68" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38146,11 +38082,11 @@
         <v>67</v>
       </c>
       <c r="V68" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q68)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="31.2">
+    <row r="69" spans="1:22" ht="32">
       <c r="A69" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38197,11 +38133,11 @@
         <v>68</v>
       </c>
       <c r="V69" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q69)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="31.2">
+    <row r="70" spans="1:22" ht="32">
       <c r="A70" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38245,11 +38181,11 @@
         <v>69</v>
       </c>
       <c r="V70" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q70)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="31.2">
+    <row r="71" spans="1:22" ht="32">
       <c r="A71" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38290,7 +38226,7 @@
         <v>70</v>
       </c>
       <c r="V71" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q71)</f>
         <v>12</v>
       </c>
     </row>
@@ -38335,11 +38271,11 @@
         <v>71</v>
       </c>
       <c r="V72" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q72)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="31.2">
+    <row r="73" spans="1:22" ht="32">
       <c r="A73" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38383,11 +38319,11 @@
         <v>72</v>
       </c>
       <c r="V73" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q73)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="31.2">
+    <row r="74" spans="1:22" ht="32">
       <c r="A74" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38428,11 +38364,11 @@
         <v>73</v>
       </c>
       <c r="V74" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q74)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="31.2">
+    <row r="75" spans="1:22" ht="32">
       <c r="A75" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38470,11 +38406,11 @@
         <v>74</v>
       </c>
       <c r="V75" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q75)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="31.2">
+    <row r="76" spans="1:22" ht="32">
       <c r="A76" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38496,6 +38432,9 @@
       <c r="L76" s="9" t="s">
         <v>1917</v>
       </c>
+      <c r="N76" s="9" t="s">
+        <v>2699</v>
+      </c>
       <c r="Q76" s="9" t="s">
         <v>1013</v>
       </c>
@@ -38509,11 +38448,11 @@
         <v>75</v>
       </c>
       <c r="V76" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q76)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="31.2">
+    <row r="77" spans="1:22" ht="32">
       <c r="A77" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38551,11 +38490,11 @@
         <v>76</v>
       </c>
       <c r="V77" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q77)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="31.2">
+    <row r="78" spans="1:22" ht="32">
       <c r="A78" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38596,11 +38535,11 @@
         <v>77</v>
       </c>
       <c r="V78" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q78)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="31.2">
+    <row r="79" spans="1:22" ht="32">
       <c r="A79" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38641,11 +38580,11 @@
         <v>78</v>
       </c>
       <c r="V79" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q79)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="46.8">
+    <row r="80" spans="1:22" ht="48">
       <c r="A80" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38683,11 +38622,11 @@
         <v>79</v>
       </c>
       <c r="V80" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q80)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="31.2">
+    <row r="81" spans="1:22" ht="32">
       <c r="A81" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38728,11 +38667,11 @@
         <v>80</v>
       </c>
       <c r="V81" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q81)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="31.2">
+    <row r="82" spans="1:22" ht="32">
       <c r="A82" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38767,11 +38706,11 @@
         <v>81</v>
       </c>
       <c r="V82" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q82)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="46.8">
+    <row r="83" spans="1:22" ht="38">
       <c r="A83" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38803,11 +38742,11 @@
         <v>82</v>
       </c>
       <c r="V83" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q83)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="31.2">
+    <row r="84" spans="1:22" ht="32">
       <c r="A84" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38839,11 +38778,11 @@
         <v>83</v>
       </c>
       <c r="V84" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q84)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="31.2">
+    <row r="85" spans="1:22" ht="32">
       <c r="A85" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38881,11 +38820,11 @@
         <v>84</v>
       </c>
       <c r="V85" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q85)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="31.2">
+    <row r="86" spans="1:22" ht="32">
       <c r="A86" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38923,11 +38862,11 @@
         <v>85</v>
       </c>
       <c r="V86" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q86)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="31.2">
+    <row r="87" spans="1:22" ht="32">
       <c r="A87" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38959,11 +38898,11 @@
         <v>86</v>
       </c>
       <c r="V87" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q87)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="31.2">
+    <row r="88" spans="1:22" ht="32">
       <c r="A88" s="9" t="s">
         <v>1752</v>
       </c>
@@ -38998,11 +38937,11 @@
         <v>87</v>
       </c>
       <c r="V88" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q88)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="31.2">
+    <row r="89" spans="1:22" ht="32">
       <c r="A89" s="9" t="s">
         <v>1752</v>
       </c>
@@ -39037,11 +38976,11 @@
         <v>88</v>
       </c>
       <c r="V89" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q89)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="31.2">
+    <row r="90" spans="1:22" ht="32">
       <c r="A90" s="9" t="s">
         <v>1752</v>
       </c>
@@ -39082,11 +39021,11 @@
         <v>89</v>
       </c>
       <c r="V90" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q90)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="31.2">
+    <row r="91" spans="1:22" ht="32">
       <c r="A91" s="9" t="s">
         <v>1752</v>
       </c>
@@ -39124,11 +39063,11 @@
         <v>90</v>
       </c>
       <c r="V91" s="9">
-        <f t="shared" si="2"/>
+        <f>COUNTIF(F:S,Q91)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="31.2">
+    <row r="92" spans="1:22" ht="32">
       <c r="A92" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39160,11 +39099,11 @@
         <v>91</v>
       </c>
       <c r="V92" s="9">
-        <f t="shared" ref="V92:V123" si="3">COUNTIF(F:S,Q92)</f>
+        <f>COUNTIF(F:S,Q92)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="31.2">
+    <row r="93" spans="1:22" ht="32">
       <c r="A93" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39202,11 +39141,11 @@
         <v>92</v>
       </c>
       <c r="V93" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q93)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="31.2">
+    <row r="94" spans="1:22" ht="32">
       <c r="A94" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39244,11 +39183,11 @@
         <v>93</v>
       </c>
       <c r="V94" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q94)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="31.2">
+    <row r="95" spans="1:22" ht="32">
       <c r="A95" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39277,11 +39216,11 @@
         <v>94</v>
       </c>
       <c r="V95" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q95)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="46.8">
+    <row r="96" spans="1:22" ht="48">
       <c r="A96" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39316,11 +39255,11 @@
         <v>95</v>
       </c>
       <c r="V96" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q96)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="31.2">
+    <row r="97" spans="1:22" ht="32">
       <c r="A97" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39364,11 +39303,11 @@
         <v>96</v>
       </c>
       <c r="V97" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q97)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="31.2">
+    <row r="98" spans="1:22" ht="32">
       <c r="A98" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39400,11 +39339,11 @@
         <v>97</v>
       </c>
       <c r="V98" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q98)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="31.2">
+    <row r="99" spans="1:22" ht="32">
       <c r="A99" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39442,11 +39381,11 @@
         <v>98</v>
       </c>
       <c r="V99" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q99)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="31.2">
+    <row r="100" spans="1:22" ht="32">
       <c r="A100" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39481,11 +39420,11 @@
         <v>99</v>
       </c>
       <c r="V100" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q100)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="31.2">
+    <row r="101" spans="1:22" ht="32">
       <c r="A101" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39523,11 +39462,11 @@
         <v>100</v>
       </c>
       <c r="V101" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q101)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="46.8">
+    <row r="102" spans="1:22" ht="48">
       <c r="A102" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39565,11 +39504,11 @@
         <v>101</v>
       </c>
       <c r="V102" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q102)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="31.2">
+    <row r="103" spans="1:22" ht="32">
       <c r="A103" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39598,11 +39537,11 @@
         <v>102</v>
       </c>
       <c r="V103" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q103)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="31.2">
+    <row r="104" spans="1:22" ht="32">
       <c r="A104" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39637,11 +39576,11 @@
         <v>103</v>
       </c>
       <c r="V104" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q104)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="31.2">
+    <row r="105" spans="1:22" ht="32">
       <c r="A105" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39679,11 +39618,11 @@
         <v>104</v>
       </c>
       <c r="V105" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q105)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="31.2">
+    <row r="106" spans="1:22" ht="32">
       <c r="A106" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39724,7 +39663,7 @@
         <v>105</v>
       </c>
       <c r="V106" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q106)</f>
         <v>3</v>
       </c>
     </row>
@@ -39766,11 +39705,11 @@
         <v>106</v>
       </c>
       <c r="V107" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q107)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="31.2">
+    <row r="108" spans="1:22" ht="32">
       <c r="A108" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39811,7 +39750,7 @@
         <v>107</v>
       </c>
       <c r="V108" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q108)</f>
         <v>1</v>
       </c>
     </row>
@@ -39850,11 +39789,11 @@
         <v>108</v>
       </c>
       <c r="V109" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q109)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="31.2">
+    <row r="110" spans="1:22" ht="32">
       <c r="A110" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39895,7 +39834,7 @@
         <v>109</v>
       </c>
       <c r="V110" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q110)</f>
         <v>6</v>
       </c>
     </row>
@@ -39940,11 +39879,11 @@
         <v>110</v>
       </c>
       <c r="V111" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q111)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="31.2">
+    <row r="112" spans="1:22" ht="32">
       <c r="A112" s="9" t="s">
         <v>1755</v>
       </c>
@@ -39985,11 +39924,11 @@
         <v>111</v>
       </c>
       <c r="V112" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q112)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="31.2">
+    <row r="113" spans="1:22" ht="32">
       <c r="A113" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40027,11 +39966,11 @@
         <v>112</v>
       </c>
       <c r="V113" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q113)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="31.2">
+    <row r="114" spans="1:22" ht="32">
       <c r="A114" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40072,11 +40011,11 @@
         <v>113</v>
       </c>
       <c r="V114" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q114)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="31.2">
+    <row r="115" spans="1:22" ht="32">
       <c r="A115" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40111,11 +40050,11 @@
         <v>114</v>
       </c>
       <c r="V115" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q115)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="31.2">
+    <row r="116" spans="1:22" ht="32">
       <c r="A116" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40150,11 +40089,11 @@
         <v>115</v>
       </c>
       <c r="V116" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q116)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="31.2">
+    <row r="117" spans="1:22" ht="32">
       <c r="A117" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40183,11 +40122,11 @@
         <v>116</v>
       </c>
       <c r="V117" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q117)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="46.8">
+    <row r="118" spans="1:22" ht="48">
       <c r="A118" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40225,11 +40164,11 @@
         <v>117</v>
       </c>
       <c r="V118" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q118)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="31.2">
+    <row r="119" spans="1:22" ht="32">
       <c r="A119" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40273,11 +40212,11 @@
         <v>118</v>
       </c>
       <c r="V119" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q119)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="31.2">
+    <row r="120" spans="1:22" ht="32">
       <c r="A120" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40321,11 +40260,11 @@
         <v>119</v>
       </c>
       <c r="V120" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q120)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="31.2">
+    <row r="121" spans="1:22" ht="32">
       <c r="A121" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40363,7 +40302,7 @@
         <v>120</v>
       </c>
       <c r="V121" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q121)</f>
         <v>1</v>
       </c>
     </row>
@@ -40411,7 +40350,7 @@
         <v>121</v>
       </c>
       <c r="V122" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,Q122)</f>
         <v>1</v>
       </c>
     </row>
@@ -40428,6 +40367,9 @@
       <c r="D123" s="9" t="s">
         <v>2075</v>
       </c>
+      <c r="F123" s="9" t="s">
+        <v>1076</v>
+      </c>
       <c r="G123" s="9" t="s">
         <v>2159</v>
       </c>
@@ -40438,7 +40380,7 @@
         <v>2541</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>2062</v>
+        <v>2706</v>
       </c>
       <c r="R123" s="5" t="s">
         <v>2430</v>
@@ -40450,11 +40392,11 @@
         <v>122</v>
       </c>
       <c r="V123" s="9">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:22" ht="31.2">
+        <f>COUNTIF(F:S,Q123)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" ht="32">
       <c r="A124" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40502,7 +40444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="31.2">
+    <row r="125" spans="1:22" ht="32">
       <c r="A125" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40541,11 +40483,11 @@
         <v>124</v>
       </c>
       <c r="V125" s="9">
-        <f t="shared" ref="V125:V172" si="4">COUNTIF(F:S,Q125)</f>
+        <f>COUNTIF(F:S,Q125)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="31.2">
+    <row r="126" spans="1:22" ht="32">
       <c r="A126" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40583,11 +40525,11 @@
         <v>125</v>
       </c>
       <c r="V126" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q126)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="31.2">
+    <row r="127" spans="1:22" ht="32">
       <c r="A127" s="9" t="s">
         <v>1755</v>
       </c>
@@ -40625,11 +40567,11 @@
         <v>126</v>
       </c>
       <c r="V127" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q127)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="46.8">
+    <row r="128" spans="1:22" ht="48">
       <c r="A128" s="9" t="s">
         <v>767</v>
       </c>
@@ -40676,11 +40618,11 @@
         <v>127</v>
       </c>
       <c r="V128" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q128)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="31.2">
+    <row r="129" spans="1:22" ht="32">
       <c r="A129" s="9" t="s">
         <v>767</v>
       </c>
@@ -40718,11 +40660,11 @@
         <v>128</v>
       </c>
       <c r="V129" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q129)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="31.2">
+    <row r="130" spans="1:22" ht="32">
       <c r="A130" s="9" t="s">
         <v>767</v>
       </c>
@@ -40769,11 +40711,11 @@
         <v>129</v>
       </c>
       <c r="V130" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q130)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="31.2">
+    <row r="131" spans="1:22" ht="32">
       <c r="A131" s="9" t="s">
         <v>767</v>
       </c>
@@ -40817,11 +40759,11 @@
         <v>130</v>
       </c>
       <c r="V131" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q131)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="46.8">
+    <row r="132" spans="1:22" ht="48">
       <c r="A132" s="9" t="s">
         <v>767</v>
       </c>
@@ -40859,11 +40801,11 @@
         <v>131</v>
       </c>
       <c r="V132" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q132)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="46.8">
+    <row r="133" spans="1:22" ht="48">
       <c r="A133" s="9" t="s">
         <v>767</v>
       </c>
@@ -40907,11 +40849,11 @@
         <v>132</v>
       </c>
       <c r="V133" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q133)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="62.4">
+    <row r="134" spans="1:22" ht="64">
       <c r="A134" s="9" t="s">
         <v>767</v>
       </c>
@@ -40943,11 +40885,11 @@
         <v>133</v>
       </c>
       <c r="V134" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q134)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="31.2">
+    <row r="135" spans="1:22" ht="32">
       <c r="A135" s="9" t="s">
         <v>767</v>
       </c>
@@ -40982,7 +40924,7 @@
         <v>134</v>
       </c>
       <c r="V135" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q135)</f>
         <v>1</v>
       </c>
     </row>
@@ -41015,11 +40957,11 @@
         <v>135</v>
       </c>
       <c r="V136" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q136)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="31.2">
+    <row r="137" spans="1:22" ht="32">
       <c r="A137" s="9" t="s">
         <v>767</v>
       </c>
@@ -41051,11 +40993,11 @@
         <v>136</v>
       </c>
       <c r="V137" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q137)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="31.2">
+    <row r="138" spans="1:22" ht="32">
       <c r="A138" s="9" t="s">
         <v>767</v>
       </c>
@@ -41087,11 +41029,11 @@
         <v>137</v>
       </c>
       <c r="V138" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q138)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="31.2">
+    <row r="139" spans="1:22" ht="32">
       <c r="A139" s="9" t="s">
         <v>767</v>
       </c>
@@ -41117,11 +41059,11 @@
         <v>138</v>
       </c>
       <c r="V139" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q139)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="31.2">
+    <row r="140" spans="1:22" ht="32">
       <c r="A140" s="9" t="s">
         <v>668</v>
       </c>
@@ -41153,11 +41095,11 @@
         <v>139</v>
       </c>
       <c r="V140" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q140)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="31.2">
+    <row r="141" spans="1:22" ht="32">
       <c r="A141" s="9" t="s">
         <v>668</v>
       </c>
@@ -41192,11 +41134,11 @@
         <v>140</v>
       </c>
       <c r="V141" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q141)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="31.2">
+    <row r="142" spans="1:22" ht="32">
       <c r="A142" s="9" t="s">
         <v>668</v>
       </c>
@@ -41225,11 +41167,11 @@
         <v>141</v>
       </c>
       <c r="V142" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q142)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="31.2">
+    <row r="143" spans="1:22" ht="32">
       <c r="A143" s="9" t="s">
         <v>668</v>
       </c>
@@ -41258,11 +41200,11 @@
         <v>142</v>
       </c>
       <c r="V143" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q143)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="31.2">
+    <row r="144" spans="1:22">
       <c r="A144" s="9" t="s">
         <v>668</v>
       </c>
@@ -41300,11 +41242,11 @@
         <v>143</v>
       </c>
       <c r="V144" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q144)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="31.2">
+    <row r="145" spans="1:22" ht="32">
       <c r="A145" s="9" t="s">
         <v>668</v>
       </c>
@@ -41339,7 +41281,7 @@
         <v>144</v>
       </c>
       <c r="V145" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q145)</f>
         <v>2</v>
       </c>
     </row>
@@ -41378,11 +41320,11 @@
         <v>145</v>
       </c>
       <c r="V146" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q146)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="31.2">
+    <row r="147" spans="1:22" ht="32">
       <c r="A147" s="9" t="s">
         <v>668</v>
       </c>
@@ -41417,11 +41359,11 @@
         <v>146</v>
       </c>
       <c r="V147" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q147)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" ht="19">
       <c r="A148" s="9" t="s">
         <v>668</v>
       </c>
@@ -41462,11 +41404,11 @@
         <v>147</v>
       </c>
       <c r="V148" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q148)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="31.2">
+    <row r="149" spans="1:22" ht="32">
       <c r="A149" s="9" t="s">
         <v>668</v>
       </c>
@@ -41510,11 +41452,11 @@
         <v>148</v>
       </c>
       <c r="V149" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q149)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" ht="19">
       <c r="A150" s="9" t="s">
         <v>668</v>
       </c>
@@ -41555,11 +41497,11 @@
         <v>149</v>
       </c>
       <c r="V150" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q150)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="31.2">
+    <row r="151" spans="1:22" ht="32">
       <c r="A151" s="9" t="s">
         <v>668</v>
       </c>
@@ -41606,11 +41548,11 @@
         <v>150</v>
       </c>
       <c r="V151" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q151)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="31.2">
+    <row r="152" spans="1:22" ht="32">
       <c r="A152" s="9" t="s">
         <v>668</v>
       </c>
@@ -41651,11 +41593,11 @@
         <v>151</v>
       </c>
       <c r="V152" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q152)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="31.2">
+    <row r="153" spans="1:22" ht="32">
       <c r="A153" s="9" t="s">
         <v>668</v>
       </c>
@@ -41696,7 +41638,7 @@
         <v>152</v>
       </c>
       <c r="V153" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q153)</f>
         <v>2</v>
       </c>
     </row>
@@ -41735,11 +41677,11 @@
         <v>153</v>
       </c>
       <c r="V154" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q154)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="31.2">
+    <row r="155" spans="1:22" ht="32">
       <c r="A155" s="9" t="s">
         <v>668</v>
       </c>
@@ -41774,7 +41716,7 @@
         <v>154</v>
       </c>
       <c r="V155" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q155)</f>
         <v>16</v>
       </c>
     </row>
@@ -41819,11 +41761,11 @@
         <v>155</v>
       </c>
       <c r="V156" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q156)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="31.2">
+    <row r="157" spans="1:22" ht="32">
       <c r="A157" s="9" t="s">
         <v>668</v>
       </c>
@@ -41858,7 +41800,7 @@
         <v>156</v>
       </c>
       <c r="V157" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q157)</f>
         <v>1</v>
       </c>
     </row>
@@ -41897,7 +41839,7 @@
         <v>157</v>
       </c>
       <c r="V158" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q158)</f>
         <v>16</v>
       </c>
     </row>
@@ -41930,7 +41872,7 @@
         <v>158</v>
       </c>
       <c r="V159" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q159)</f>
         <v>2</v>
       </c>
     </row>
@@ -41975,11 +41917,11 @@
         <v>159</v>
       </c>
       <c r="V160" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q160)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="31.2">
+    <row r="161" spans="1:22" ht="32">
       <c r="A161" s="9" t="s">
         <v>668</v>
       </c>
@@ -42014,7 +41956,7 @@
         <v>160</v>
       </c>
       <c r="V161" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q161)</f>
         <v>16</v>
       </c>
     </row>
@@ -42050,11 +41992,11 @@
         <v>161</v>
       </c>
       <c r="V162" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q162)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" ht="19">
       <c r="A163" s="9" t="s">
         <v>19</v>
       </c>
@@ -42092,7 +42034,7 @@
         <v>162</v>
       </c>
       <c r="V163" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q163)</f>
         <v>1</v>
       </c>
     </row>
@@ -42134,11 +42076,11 @@
         <v>163</v>
       </c>
       <c r="V164" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q164)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="31.2">
+    <row r="165" spans="1:22" ht="32">
       <c r="A165" s="9" t="s">
         <v>19</v>
       </c>
@@ -42179,11 +42121,11 @@
         <v>164</v>
       </c>
       <c r="V165" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q165)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="31.2">
+    <row r="166" spans="1:22" ht="32">
       <c r="A166" s="9" t="s">
         <v>19</v>
       </c>
@@ -42218,11 +42160,11 @@
         <v>165</v>
       </c>
       <c r="V166" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q166)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="31.2">
+    <row r="167" spans="1:22" ht="32">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -42260,11 +42202,11 @@
         <v>166</v>
       </c>
       <c r="V167" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q167)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="31.2">
+    <row r="168" spans="1:22" ht="32">
       <c r="A168" s="9" t="s">
         <v>19</v>
       </c>
@@ -42305,11 +42247,11 @@
         <v>167</v>
       </c>
       <c r="V168" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q168)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="31.2">
+    <row r="169" spans="1:22" ht="32">
       <c r="A169" s="9" t="s">
         <v>19</v>
       </c>
@@ -42347,11 +42289,11 @@
         <v>168</v>
       </c>
       <c r="V169" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q169)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="46.8">
+    <row r="170" spans="1:22" ht="48">
       <c r="A170" s="9" t="s">
         <v>19</v>
       </c>
@@ -42398,11 +42340,11 @@
         <v>169</v>
       </c>
       <c r="V170" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q170)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="46.8">
+    <row r="171" spans="1:22" ht="48">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -42443,11 +42385,11 @@
         <v>170</v>
       </c>
       <c r="V171" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q171)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="31.2">
+    <row r="172" spans="1:22" ht="32">
       <c r="A172" s="9" t="s">
         <v>19</v>
       </c>
@@ -42482,7 +42424,7 @@
         <v>171</v>
       </c>
       <c r="V172" s="9">
-        <f t="shared" si="4"/>
+        <f>COUNTIF(F:S,Q172)</f>
         <v>1</v>
       </c>
     </row>
@@ -42490,7 +42432,7 @@
   <autoFilter ref="A1:V172" xr:uid="{E4D7306C-BEAB-4BCE-BE34-FC7EFA2E7EF8}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V172">
       <sortCondition ref="U2:U172"/>
-      <sortCondition ref="N2:N172"/>
+      <sortCondition ref="Q2:Q172"/>
       <sortCondition ref="O2:O172"/>
     </sortState>
   </autoFilter>
@@ -42520,15 +42462,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.58203125" style="7"/>
+    <col min="3" max="3" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="8" t="s">
         <v>2662</v>
       </c>
@@ -42539,7 +42481,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="8" t="s">
         <v>2663</v>
       </c>
@@ -42550,7 +42492,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="8" t="s">
         <v>1766</v>
       </c>
@@ -42561,7 +42503,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="8" t="s">
         <v>2057</v>
       </c>
@@ -42661,25 +42603,25 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A133" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G64" sqref="G64"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -43373,7 +43315,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="19">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -43393,7 +43335,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="19">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -45771,19 +45713,19 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
-    <col min="11" max="14" width="8.75" style="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" style="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -46088,7 +46030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34.799999999999997">
+    <row r="16" spans="1:18" ht="38">
       <c r="A16" s="1" t="s">
         <v>634</v>
       </c>
@@ -46946,19 +46888,19 @@
       <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="3.58203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1"/>
-    <col min="9" max="9" width="22.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -47200,7 +47142,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="69.599999999999994">
+    <row r="23" spans="1:10" ht="76">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -48649,7 +48591,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="34.799999999999997">
+    <row r="104" spans="1:10" ht="38">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -50021,7 +49963,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="52.2">
+    <row r="177" spans="1:10" ht="57">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -52811,7 +52753,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="34.799999999999997">
+    <row r="334" spans="1:11" ht="38">
       <c r="A334" s="1" t="s">
         <v>91</v>
       </c>
@@ -53192,22 +53134,22 @@
       <selection pane="bottomLeft" activeCell="F46" sqref="F46:F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="1" customWidth="1"/>
-    <col min="11" max="16" width="5.25" style="1"/>
-    <col min="18" max="22" width="5.25" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="5.28515625" style="1"/>
+    <col min="18" max="22" width="5.28515625" style="1"/>
     <col min="23" max="23" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
+    <col min="24" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -53440,7 +53382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="69.599999999999994">
+    <row r="12" spans="1:23" ht="76">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -53554,7 +53496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="34.799999999999997">
+    <row r="17" spans="1:23" ht="38">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -53695,7 +53637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="52.2">
+    <row r="23" spans="1:23" ht="57">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -53869,7 +53811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="34.799999999999997">
+    <row r="31" spans="1:23" ht="38">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -54364,7 +54306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="34.799999999999997">
+    <row r="52" spans="1:23" ht="38">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -54555,29 +54497,29 @@
       <selection pane="bottomLeft" activeCell="J19" sqref="C6:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="36" width="8.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuda/练功_中医/yikao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5F4B59-53B2-4746-999E-316AABAC840D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED501F22-1AA9-FC44-B0A2-EB93A296D12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="6" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="7" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="2708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10910" uniqueCount="2709">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13394,6 +13394,10 @@
   <si>
     <t>三三两两痰热瓜
 早不困 立如天 节前割瓜蒌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘麦大枣汤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -13675,74 +13679,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -13762,7 +13698,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -14061,18 +13997,18 @@
       <selection pane="bottomRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14092,7 +14028,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -14174,7 +14110,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="34.799999999999997">
+    <row r="7" spans="1:9" ht="38">
       <c r="A7" s="1" t="s">
         <v>539</v>
       </c>
@@ -14364,7 +14300,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34.799999999999997">
+    <row r="21" spans="1:9" ht="38">
       <c r="B21" s="1" t="s">
         <v>1768</v>
       </c>
@@ -14482,9 +14418,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14696,12 +14632,12 @@
       <selection activeCell="B2" sqref="B2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.75" style="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23565,7 +23501,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
@@ -23658,123 +23594,123 @@
       <selection activeCell="A3" sqref="A3:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.4140625" style="1"/>
-    <col min="25" max="25" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.4140625" style="1"/>
-    <col min="36" max="36" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.4140625" style="1"/>
-    <col min="41" max="42" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="103" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8.4140625" style="1"/>
-    <col min="106" max="106" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="139" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.4140625" style="1"/>
-    <col min="145" max="147" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="158" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="16384" width="8.4140625" style="1"/>
+    <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="1"/>
+    <col min="25" max="25" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" style="1"/>
+    <col min="36" max="36" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" style="1"/>
+    <col min="41" max="42" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="103" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.42578125" style="1"/>
+    <col min="106" max="106" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.42578125" style="1"/>
+    <col min="145" max="147" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -28194,7 +28130,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -28243,26 +28179,26 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="64.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -28315,7 +28251,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.2">
+    <row r="2" spans="1:18" ht="32">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -28354,7 +28290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="31.2">
+    <row r="3" spans="1:18" ht="32">
       <c r="A3" s="1" t="s">
         <v>294</v>
       </c>
@@ -28399,7 +28335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="46.8">
+    <row r="4" spans="1:18" ht="48">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
@@ -28441,7 +28377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997">
+    <row r="5" spans="1:18" ht="38">
       <c r="A5" s="1" t="s">
         <v>294</v>
       </c>
@@ -28522,7 +28458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.2">
+    <row r="7" spans="1:18" ht="32">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -28567,7 +28503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="31.2">
+    <row r="8" spans="1:18" ht="32">
       <c r="A8" s="1" t="s">
         <v>294</v>
       </c>
@@ -28603,7 +28539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="46.8">
+    <row r="9" spans="1:18" ht="48">
       <c r="A9" s="1" t="s">
         <v>294</v>
       </c>
@@ -28648,7 +28584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="46.8">
+    <row r="10" spans="1:18" ht="48">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -28693,7 +28629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="46.8">
+    <row r="11" spans="1:18" ht="48">
       <c r="A11" s="1" t="s">
         <v>294</v>
       </c>
@@ -28741,7 +28677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="31.2">
+    <row r="12" spans="1:18" ht="32">
       <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
@@ -28777,7 +28713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="46.8">
+    <row r="13" spans="1:18" ht="48">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -28819,7 +28755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="46.8">
+    <row r="14" spans="1:18" ht="48">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -28867,7 +28803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="34.799999999999997">
+    <row r="15" spans="1:18" ht="38">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -28912,7 +28848,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="46.8">
+    <row r="16" spans="1:18" ht="48">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -28960,7 +28896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="31.2">
+    <row r="17" spans="1:18" ht="32">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -29002,7 +28938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="46.8">
+    <row r="18" spans="1:18" ht="48">
       <c r="A18" s="1" t="s">
         <v>294</v>
       </c>
@@ -29038,7 +28974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="31.2">
+    <row r="19" spans="1:18" ht="32">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -29083,7 +29019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="31.2">
+    <row r="20" spans="1:18" ht="32">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -29123,7 +29059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="31.2">
+    <row r="21" spans="1:18" ht="32">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -29165,7 +29101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="31.2">
+    <row r="22" spans="1:18" ht="32">
       <c r="A22" s="1" t="s">
         <v>294</v>
       </c>
@@ -29207,7 +29143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="31.2">
+    <row r="23" spans="1:18" ht="32">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
@@ -29240,7 +29176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="31.2">
+    <row r="24" spans="1:18" ht="32">
       <c r="A24" s="1" t="s">
         <v>294</v>
       </c>
@@ -29270,7 +29206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31.2">
+    <row r="25" spans="1:18" ht="32">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -29300,7 +29236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="62.4">
+    <row r="26" spans="1:18" ht="80">
       <c r="A26" s="1" t="s">
         <v>294</v>
       </c>
@@ -29333,7 +29269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="31.2">
+    <row r="27" spans="1:18" ht="32">
       <c r="A27" s="1" t="s">
         <v>539</v>
       </c>
@@ -29382,7 +29318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="31.2">
+    <row r="28" spans="1:18" ht="32">
       <c r="A28" s="1" t="s">
         <v>539</v>
       </c>
@@ -29427,7 +29363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="34.799999999999997">
+    <row r="29" spans="1:18" ht="38">
       <c r="A29" s="1" t="s">
         <v>539</v>
       </c>
@@ -29478,7 +29414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="31.2">
+    <row r="30" spans="1:18" ht="32">
       <c r="A30" s="1" t="s">
         <v>539</v>
       </c>
@@ -29517,7 +29453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="34.799999999999997">
+    <row r="31" spans="1:18" ht="38">
       <c r="A31" s="1" t="s">
         <v>539</v>
       </c>
@@ -29559,7 +29495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="31.2">
+    <row r="32" spans="1:18" ht="32">
       <c r="A32" s="1" t="s">
         <v>539</v>
       </c>
@@ -29608,7 +29544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="31.2">
+    <row r="33" spans="1:18" ht="32">
       <c r="A33" s="1" t="s">
         <v>539</v>
       </c>
@@ -29650,7 +29586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="31.2">
+    <row r="34" spans="1:18" ht="32">
       <c r="A34" s="1" t="s">
         <v>539</v>
       </c>
@@ -29692,7 +29628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="46.8">
+    <row r="35" spans="1:18" ht="48">
       <c r="A35" s="1" t="s">
         <v>539</v>
       </c>
@@ -29731,7 +29667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="31.2">
+    <row r="36" spans="1:18" ht="32">
       <c r="A36" s="1" t="s">
         <v>539</v>
       </c>
@@ -29767,7 +29703,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="31.2">
+    <row r="37" spans="1:18" ht="32">
       <c r="A37" s="1" t="s">
         <v>539</v>
       </c>
@@ -29809,7 +29745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="46.8">
+    <row r="38" spans="1:18" ht="48">
       <c r="A38" s="1" t="s">
         <v>539</v>
       </c>
@@ -29851,7 +29787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="52.2">
+    <row r="39" spans="1:18" ht="57">
       <c r="A39" s="1" t="s">
         <v>539</v>
       </c>
@@ -29932,7 +29868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="31.2">
+    <row r="41" spans="1:18" ht="32">
       <c r="A41" s="1" t="s">
         <v>539</v>
       </c>
@@ -29968,7 +29904,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="31.2">
+    <row r="42" spans="1:18" ht="32">
       <c r="A42" s="1" t="s">
         <v>539</v>
       </c>
@@ -30004,7 +29940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="31.2">
+    <row r="43" spans="1:18" ht="32">
       <c r="A43" s="1" t="s">
         <v>539</v>
       </c>
@@ -30046,7 +29982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="31.2">
+    <row r="44" spans="1:18" ht="32">
       <c r="A44" s="1" t="s">
         <v>539</v>
       </c>
@@ -30088,7 +30024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="31.2">
+    <row r="45" spans="1:18" ht="32">
       <c r="A45" s="1" t="s">
         <v>539</v>
       </c>
@@ -30130,7 +30066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="46.8">
+    <row r="46" spans="1:18" ht="48">
       <c r="A46" s="1" t="s">
         <v>539</v>
       </c>
@@ -30169,7 +30105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="46.8">
+    <row r="47" spans="1:18" ht="48">
       <c r="A47" s="1" t="s">
         <v>539</v>
       </c>
@@ -30205,7 +30141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="31.2">
+    <row r="48" spans="1:18" ht="32">
       <c r="A48" s="1" t="s">
         <v>539</v>
       </c>
@@ -30250,7 +30186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="62.4">
+    <row r="49" spans="1:18" ht="64">
       <c r="A49" s="1" t="s">
         <v>539</v>
       </c>
@@ -30292,7 +30228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="32.4">
+    <row r="50" spans="1:18" ht="34">
       <c r="A50" s="1" t="s">
         <v>539</v>
       </c>
@@ -30337,7 +30273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="47.4">
+    <row r="51" spans="1:18" ht="49">
       <c r="A51" s="1" t="s">
         <v>539</v>
       </c>
@@ -30376,7 +30312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="31.2">
+    <row r="52" spans="1:18" ht="32">
       <c r="A52" s="1" t="s">
         <v>539</v>
       </c>
@@ -30418,7 +30354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="31.8">
+    <row r="53" spans="1:18" ht="33">
       <c r="A53" s="1" t="s">
         <v>539</v>
       </c>
@@ -30457,7 +30393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="31.2">
+    <row r="54" spans="1:18" ht="32">
       <c r="A54" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30499,7 +30435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="46.8">
+    <row r="55" spans="1:18" ht="32">
       <c r="A55" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30541,7 +30477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="31.2">
+    <row r="56" spans="1:18" ht="32">
       <c r="A56" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30583,7 +30519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="31.2">
+    <row r="57" spans="1:18" ht="32">
       <c r="A57" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30619,7 +30555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="31.2">
+    <row r="58" spans="1:18" ht="32">
       <c r="A58" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30661,7 +30597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="31.2">
+    <row r="59" spans="1:18" ht="32">
       <c r="A59" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30697,7 +30633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="31.2">
+    <row r="60" spans="1:18" ht="32">
       <c r="A60" s="1" t="s">
         <v>1744</v>
       </c>
@@ -30937,7 +30873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="31.2">
+    <row r="66" spans="1:18" ht="32">
       <c r="A66" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31012,7 +30948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="31.2">
+    <row r="68" spans="1:18" ht="32">
       <c r="A68" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31057,7 +30993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="31.2">
+    <row r="69" spans="1:18" ht="32">
       <c r="A69" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31099,7 +31035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="31.2">
+    <row r="70" spans="1:18" ht="32">
       <c r="A70" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31144,7 +31080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="31.2">
+    <row r="71" spans="1:18" ht="32">
       <c r="A71" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31222,7 +31158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="31.2">
+    <row r="73" spans="1:18" ht="32">
       <c r="A73" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31261,7 +31197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="31.2">
+    <row r="74" spans="1:18" ht="32">
       <c r="A74" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31303,7 +31239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="31.2">
+    <row r="75" spans="1:18" ht="32">
       <c r="A75" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31339,7 +31275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="31.2">
+    <row r="76" spans="1:18" ht="32">
       <c r="A76" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31378,7 +31314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="31.2">
+    <row r="77" spans="1:18" ht="32">
       <c r="A77" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31420,7 +31356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="31.2">
+    <row r="78" spans="1:18" ht="32">
       <c r="A78" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31462,7 +31398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="31.2">
+    <row r="79" spans="1:18" ht="32">
       <c r="A79" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31498,7 +31434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="46.8">
+    <row r="80" spans="1:18" ht="48">
       <c r="A80" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31540,7 +31476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="31.2">
+    <row r="81" spans="1:18" ht="32">
       <c r="A81" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31582,7 +31518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="31.2">
+    <row r="82" spans="1:18" ht="32">
       <c r="A82" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31618,7 +31554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="34.799999999999997">
+    <row r="83" spans="1:18" ht="38">
       <c r="A83" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31654,7 +31590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="31.2">
+    <row r="84" spans="1:18" ht="32">
       <c r="A84" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31690,7 +31626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="31.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31726,7 +31662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="31.2">
+    <row r="86" spans="1:18" ht="32">
       <c r="A86" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31765,7 +31701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="31.2">
+    <row r="87" spans="1:18" ht="32">
       <c r="A87" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31801,7 +31737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="31.2">
+    <row r="88" spans="1:18" ht="32">
       <c r="A88" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31879,7 +31815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="31.2">
+    <row r="90" spans="1:18" ht="32">
       <c r="A90" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31915,7 +31851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="31.2">
+    <row r="91" spans="1:18" ht="32">
       <c r="A91" s="1" t="s">
         <v>1744</v>
       </c>
@@ -31954,7 +31890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="31.2">
+    <row r="92" spans="1:18" ht="32">
       <c r="A92" s="1" t="s">
         <v>1747</v>
       </c>
@@ -31984,7 +31920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="31.2">
+    <row r="93" spans="1:18" ht="32">
       <c r="A93" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32017,7 +31953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="31.2">
+    <row r="94" spans="1:18" ht="32">
       <c r="A94" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32050,7 +31986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="31.2">
+    <row r="95" spans="1:18" ht="32">
       <c r="A95" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32083,7 +32019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="31.2">
+    <row r="96" spans="1:18" ht="32">
       <c r="A96" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32122,7 +32058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="31.2">
+    <row r="97" spans="1:18" ht="32">
       <c r="A97" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32167,7 +32103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="31.2">
+    <row r="98" spans="1:18" ht="32">
       <c r="A98" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32203,7 +32139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="31.2">
+    <row r="99" spans="1:18" ht="32">
       <c r="A99" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32242,7 +32178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="31.2">
+    <row r="100" spans="1:18" ht="32">
       <c r="A100" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32278,7 +32214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="31.2">
+    <row r="101" spans="1:18" ht="32">
       <c r="A101" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32314,7 +32250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="31.2">
+    <row r="102" spans="1:18" ht="32">
       <c r="A102" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32350,7 +32286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="31.2">
+    <row r="103" spans="1:18" ht="32">
       <c r="A103" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32383,7 +32319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="31.2">
+    <row r="104" spans="1:18" ht="32">
       <c r="A104" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32422,7 +32358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="31.2">
+    <row r="105" spans="1:18" ht="32">
       <c r="A105" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32461,7 +32397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="31.2">
+    <row r="106" spans="1:18" ht="32">
       <c r="A106" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32539,7 +32475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="31.2">
+    <row r="108" spans="1:18" ht="32">
       <c r="A108" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32617,7 +32553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="31.2">
+    <row r="110" spans="1:18" ht="32">
       <c r="A110" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32692,7 +32628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="31.2">
+    <row r="112" spans="1:18" ht="32">
       <c r="A112" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32728,7 +32664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="31.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32815,7 +32751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="31.2">
+    <row r="115" spans="1:18" ht="32">
       <c r="A115" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32848,7 +32784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="31.2">
+    <row r="116" spans="1:18" ht="32">
       <c r="A116" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32878,7 +32814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="31.2">
+    <row r="117" spans="1:18" ht="32">
       <c r="A117" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32911,7 +32847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="46.8">
+    <row r="118" spans="1:18" ht="48">
       <c r="A118" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32947,7 +32883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="31.2">
+    <row r="119" spans="1:18" ht="32">
       <c r="A119" s="1" t="s">
         <v>1747</v>
       </c>
@@ -32986,7 +32922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="31.2">
+    <row r="120" spans="1:18" ht="32">
       <c r="A120" s="1" t="s">
         <v>1747</v>
       </c>
@@ -33028,7 +32964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="31.2">
+    <row r="121" spans="1:18" ht="32">
       <c r="A121" s="1" t="s">
         <v>1747</v>
       </c>
@@ -33154,7 +33090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="31.2">
+    <row r="124" spans="1:18" ht="32">
       <c r="A124" s="1" t="s">
         <v>1747</v>
       </c>
@@ -33238,7 +33174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" ht="19">
       <c r="A126" s="1" t="s">
         <v>1747</v>
       </c>
@@ -33277,7 +33213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="31.2">
+    <row r="127" spans="1:18" ht="32">
       <c r="A127" s="1" t="s">
         <v>1747</v>
       </c>
@@ -33316,7 +33252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="46.8">
+    <row r="128" spans="1:18" ht="48">
       <c r="A128" s="1" t="s">
         <v>762</v>
       </c>
@@ -33361,7 +33297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="31.2">
+    <row r="129" spans="1:18" ht="32">
       <c r="A129" s="1" t="s">
         <v>762</v>
       </c>
@@ -33403,7 +33339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="31.2">
+    <row r="130" spans="1:18" ht="32">
       <c r="A130" s="1" t="s">
         <v>762</v>
       </c>
@@ -33451,7 +33387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="31.2">
+    <row r="131" spans="1:18" ht="32">
       <c r="A131" s="1" t="s">
         <v>762</v>
       </c>
@@ -33496,7 +33432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="31.2">
+    <row r="132" spans="1:18" ht="32">
       <c r="A132" s="1" t="s">
         <v>762</v>
       </c>
@@ -33538,7 +33474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="46.8">
+    <row r="133" spans="1:18" ht="48">
       <c r="A133" s="1" t="s">
         <v>762</v>
       </c>
@@ -33583,7 +33519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="62.4">
+    <row r="134" spans="1:18" ht="64">
       <c r="A134" s="1" t="s">
         <v>762</v>
       </c>
@@ -33619,7 +33555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="31.2">
+    <row r="135" spans="1:18" ht="32">
       <c r="A135" s="1" t="s">
         <v>762</v>
       </c>
@@ -33688,7 +33624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="31.2">
+    <row r="137" spans="1:18" ht="32">
       <c r="A137" s="1" t="s">
         <v>762</v>
       </c>
@@ -33721,7 +33657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="31.2">
+    <row r="138" spans="1:18" ht="32">
       <c r="A138" s="1" t="s">
         <v>762</v>
       </c>
@@ -33754,7 +33690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="31.2">
+    <row r="139" spans="1:18" ht="32">
       <c r="A139" s="1" t="s">
         <v>762</v>
       </c>
@@ -33784,7 +33720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="31.2">
+    <row r="140" spans="1:18" ht="32">
       <c r="A140" s="1" t="s">
         <v>663</v>
       </c>
@@ -33814,7 +33750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="31.2">
+    <row r="141" spans="1:18" ht="32">
       <c r="A141" s="1" t="s">
         <v>663</v>
       </c>
@@ -33847,7 +33783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="31.2">
+    <row r="142" spans="1:18" ht="32">
       <c r="A142" s="1" t="s">
         <v>663</v>
       </c>
@@ -33880,7 +33816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="31.2">
+    <row r="143" spans="1:18" ht="32">
       <c r="A143" s="1" t="s">
         <v>663</v>
       </c>
@@ -33949,7 +33885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="31.2">
+    <row r="145" spans="1:18" ht="32">
       <c r="A145" s="1" t="s">
         <v>663</v>
       </c>
@@ -34021,7 +33957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="31.2">
+    <row r="147" spans="1:18" ht="32">
       <c r="A147" s="1" t="s">
         <v>663</v>
       </c>
@@ -34054,7 +33990,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" ht="19">
       <c r="A148" s="1" t="s">
         <v>663</v>
       </c>
@@ -34099,7 +34035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="31.2">
+    <row r="149" spans="1:18" ht="32">
       <c r="A149" s="1" t="s">
         <v>663</v>
       </c>
@@ -34138,7 +34074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" ht="19">
       <c r="A150" s="1" t="s">
         <v>663</v>
       </c>
@@ -34177,7 +34113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="31.2">
+    <row r="151" spans="1:18" ht="32">
       <c r="A151" s="1" t="s">
         <v>663</v>
       </c>
@@ -34222,7 +34158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="31.2">
+    <row r="152" spans="1:18" ht="32">
       <c r="A152" s="1" t="s">
         <v>663</v>
       </c>
@@ -34258,7 +34194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="31.2">
+    <row r="153" spans="1:18" ht="32">
       <c r="A153" s="1" t="s">
         <v>663</v>
       </c>
@@ -34333,7 +34269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="31.2">
+    <row r="155" spans="1:18" ht="32">
       <c r="A155" s="1" t="s">
         <v>663</v>
       </c>
@@ -34408,7 +34344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="31.2">
+    <row r="157" spans="1:18" ht="32">
       <c r="A157" s="1" t="s">
         <v>663</v>
       </c>
@@ -34549,7 +34485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="31.2">
+    <row r="161" spans="1:18" ht="32">
       <c r="A161" s="1" t="s">
         <v>663</v>
       </c>
@@ -34615,7 +34551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" ht="19">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -34696,7 +34632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="31.2">
+    <row r="165" spans="1:18" ht="32">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -34732,7 +34668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="31.2">
+    <row r="166" spans="1:18" ht="32">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -34771,7 +34707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="31.2">
+    <row r="167" spans="1:18" ht="32">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -34810,7 +34746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="31.2">
+    <row r="168" spans="1:18" ht="32">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -34852,7 +34788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="31.2">
+    <row r="169" spans="1:18" ht="32">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -34894,7 +34830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="46.8">
+    <row r="170" spans="1:18" ht="48">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -34939,7 +34875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="46.8">
+    <row r="171" spans="1:18" ht="48">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -34981,7 +34917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="31.2">
+    <row r="172" spans="1:18" ht="32">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -35042,35 +34978,35 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:V172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="M23" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="K147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R28" sqref="R28"/>
+      <selection pane="bottomRight" activeCell="Q151" sqref="Q151:Q152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.83203125" style="9" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="9" customWidth="1"/>
     <col min="15" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="9" customWidth="1"/>
     <col min="18" max="18" width="60" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="9"/>
+    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -35135,7 +35071,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="46.8">
+    <row r="2" spans="1:22" ht="48">
       <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
@@ -35180,7 +35116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="46.8">
+    <row r="3" spans="1:22" ht="48">
       <c r="A3" s="9" t="s">
         <v>294</v>
       </c>
@@ -35228,7 +35164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="46.8">
+    <row r="4" spans="1:22" ht="48">
       <c r="A4" s="9" t="s">
         <v>294</v>
       </c>
@@ -35273,7 +35209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="34.799999999999997">
+    <row r="5" spans="1:22" ht="38">
       <c r="A5" s="9" t="s">
         <v>294</v>
       </c>
@@ -35366,7 +35302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="31.2">
+    <row r="7" spans="1:22" ht="32">
       <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
@@ -35417,7 +35353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="46.8">
+    <row r="8" spans="1:22" ht="48">
       <c r="A8" s="9" t="s">
         <v>294</v>
       </c>
@@ -35465,7 +35401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="46.8">
+    <row r="9" spans="1:22" ht="48">
       <c r="A9" s="9" t="s">
         <v>294</v>
       </c>
@@ -35514,7 +35450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="46.8">
+    <row r="10" spans="1:22" ht="48">
       <c r="A10" s="9" t="s">
         <v>294</v>
       </c>
@@ -35565,7 +35501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="46.8">
+    <row r="11" spans="1:22" ht="48">
       <c r="A11" s="9" t="s">
         <v>294</v>
       </c>
@@ -35619,7 +35555,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="31.2">
+    <row r="12" spans="1:22" ht="32">
       <c r="A12" s="9" t="s">
         <v>294</v>
       </c>
@@ -35664,7 +35600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="46.8">
+    <row r="13" spans="1:22" ht="48">
       <c r="A13" s="9" t="s">
         <v>294</v>
       </c>
@@ -35712,7 +35648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="46.8">
+    <row r="14" spans="1:22" ht="48">
       <c r="A14" s="9" t="s">
         <v>294</v>
       </c>
@@ -35763,7 +35699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="34.799999999999997">
+    <row r="15" spans="1:22" ht="38">
       <c r="A15" s="9" t="s">
         <v>294</v>
       </c>
@@ -35808,7 +35744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="46.8">
+    <row r="16" spans="1:22" ht="48">
       <c r="A16" s="9" t="s">
         <v>294</v>
       </c>
@@ -35856,7 +35792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="46.8">
+    <row r="17" spans="1:22" ht="48">
       <c r="A17" s="9" t="s">
         <v>294</v>
       </c>
@@ -35901,7 +35837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="46.8">
+    <row r="18" spans="1:22" ht="48">
       <c r="A18" s="9" t="s">
         <v>294</v>
       </c>
@@ -35940,7 +35876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="31.2">
+    <row r="19" spans="1:22" ht="32">
       <c r="A19" s="9" t="s">
         <v>294</v>
       </c>
@@ -35991,7 +35927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="31.2">
+    <row r="20" spans="1:22" ht="32">
       <c r="A20" s="9" t="s">
         <v>294</v>
       </c>
@@ -36037,7 +35973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="31.2">
+    <row r="21" spans="1:22" ht="32">
       <c r="A21" s="9" t="s">
         <v>294</v>
       </c>
@@ -36082,7 +36018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="31.2">
+    <row r="22" spans="1:22" ht="32">
       <c r="A22" s="9" t="s">
         <v>294</v>
       </c>
@@ -36124,7 +36060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="31.2">
+    <row r="23" spans="1:22" ht="32">
       <c r="A23" s="9" t="s">
         <v>294</v>
       </c>
@@ -36160,7 +36096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="31.2">
+    <row r="24" spans="1:22" ht="32">
       <c r="A24" s="9" t="s">
         <v>294</v>
       </c>
@@ -36193,7 +36129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="46.8">
+    <row r="25" spans="1:22" ht="48">
       <c r="A25" s="9" t="s">
         <v>294</v>
       </c>
@@ -36226,7 +36162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="78">
+    <row r="26" spans="1:22" ht="80">
       <c r="A26" s="9" t="s">
         <v>294</v>
       </c>
@@ -36262,7 +36198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="31.2">
+    <row r="27" spans="1:22" ht="32">
       <c r="A27" s="9" t="s">
         <v>539</v>
       </c>
@@ -36318,7 +36254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="31.2">
+    <row r="28" spans="1:22" ht="32">
       <c r="A28" s="9" t="s">
         <v>539</v>
       </c>
@@ -36363,7 +36299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="34.799999999999997">
+    <row r="29" spans="1:22" ht="38">
       <c r="A29" s="9" t="s">
         <v>539</v>
       </c>
@@ -36414,7 +36350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="31.2">
+    <row r="30" spans="1:22" ht="32">
       <c r="A30" s="9" t="s">
         <v>539</v>
       </c>
@@ -36453,7 +36389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="34.799999999999997">
+    <row r="31" spans="1:22" ht="38">
       <c r="A31" s="9" t="s">
         <v>539</v>
       </c>
@@ -36501,7 +36437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="31.2">
+    <row r="32" spans="1:22" ht="32">
       <c r="A32" s="9" t="s">
         <v>539</v>
       </c>
@@ -36558,7 +36494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="31.2">
+    <row r="33" spans="1:22" ht="32">
       <c r="A33" s="9" t="s">
         <v>539</v>
       </c>
@@ -36603,7 +36539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="31.2">
+    <row r="34" spans="1:22" ht="32">
       <c r="A34" s="9" t="s">
         <v>539</v>
       </c>
@@ -36645,7 +36581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="46.8">
+    <row r="35" spans="1:22" ht="57">
       <c r="A35" s="9" t="s">
         <v>539</v>
       </c>
@@ -36696,7 +36632,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="31.2">
+    <row r="36" spans="1:22" ht="32">
       <c r="A36" s="9" t="s">
         <v>539</v>
       </c>
@@ -36738,7 +36674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="46.8">
+    <row r="37" spans="1:22" ht="48">
       <c r="A37" s="9" t="s">
         <v>539</v>
       </c>
@@ -36783,7 +36719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="46.8">
+    <row r="38" spans="1:22" ht="48">
       <c r="A38" s="9" t="s">
         <v>539</v>
       </c>
@@ -36828,7 +36764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="52.2">
+    <row r="39" spans="1:22" ht="57">
       <c r="A39" s="9" t="s">
         <v>539</v>
       </c>
@@ -36873,7 +36809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="31.2">
+    <row r="40" spans="1:22" ht="32">
       <c r="A40" s="9" t="s">
         <v>539</v>
       </c>
@@ -36915,7 +36851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="31.2">
+    <row r="41" spans="1:22" ht="32">
       <c r="A41" s="9" t="s">
         <v>539</v>
       </c>
@@ -36957,7 +36893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="31.2">
+    <row r="42" spans="1:22" ht="32">
       <c r="A42" s="9" t="s">
         <v>539</v>
       </c>
@@ -36993,7 +36929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="31.2">
+    <row r="43" spans="1:22" ht="32">
       <c r="A43" s="9" t="s">
         <v>539</v>
       </c>
@@ -37044,7 +36980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="31.2">
+    <row r="44" spans="1:22" ht="32">
       <c r="A44" s="9" t="s">
         <v>539</v>
       </c>
@@ -37089,7 +37025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="31.2">
+    <row r="45" spans="1:22" ht="32">
       <c r="A45" s="9" t="s">
         <v>539</v>
       </c>
@@ -37131,7 +37067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="46.8">
+    <row r="46" spans="1:22" ht="48">
       <c r="A46" s="9" t="s">
         <v>539</v>
       </c>
@@ -37174,7 +37110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="46.8">
+    <row r="47" spans="1:22" ht="48">
       <c r="A47" s="9" t="s">
         <v>539</v>
       </c>
@@ -37213,7 +37149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="46.8">
+    <row r="48" spans="1:22" ht="48">
       <c r="A48" s="9" t="s">
         <v>539</v>
       </c>
@@ -37258,7 +37194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="62.4">
+    <row r="49" spans="1:22" ht="64">
       <c r="A49" s="9" t="s">
         <v>539</v>
       </c>
@@ -37304,7 +37240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="32.4">
+    <row r="50" spans="1:22" ht="50">
       <c r="A50" s="9" t="s">
         <v>539</v>
       </c>
@@ -37358,7 +37294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="47.4">
+    <row r="51" spans="1:22" ht="49">
       <c r="A51" s="9" t="s">
         <v>539</v>
       </c>
@@ -37406,7 +37342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="31.2">
+    <row r="52" spans="1:22" ht="32">
       <c r="A52" s="9" t="s">
         <v>539</v>
       </c>
@@ -37454,7 +37390,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="31.8">
+    <row r="53" spans="1:22" ht="33">
       <c r="A53" s="9" t="s">
         <v>539</v>
       </c>
@@ -37499,7 +37435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="31.2">
+    <row r="54" spans="1:22" ht="32">
       <c r="A54" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37550,7 +37486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="46.8">
+    <row r="55" spans="1:22" ht="48">
       <c r="A55" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37592,7 +37528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="31.2">
+    <row r="56" spans="1:22" ht="32">
       <c r="A56" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37643,7 +37579,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="31.2">
+    <row r="57" spans="1:22" ht="32">
       <c r="A57" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37685,7 +37621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="31.2">
+    <row r="58" spans="1:22" ht="32">
       <c r="A58" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37730,7 +37666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="31.2">
+    <row r="59" spans="1:22" ht="32">
       <c r="A59" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37772,7 +37708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="31.2">
+    <row r="60" spans="1:22" ht="32">
       <c r="A60" s="9" t="s">
         <v>1744</v>
       </c>
@@ -37992,7 +37928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" ht="32">
       <c r="A65" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38034,7 +37970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="31.2">
+    <row r="66" spans="1:22" ht="32">
       <c r="A66" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38070,7 +38006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="31.2">
+    <row r="67" spans="1:22" ht="32">
       <c r="A67" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38115,7 +38051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="31.2">
+    <row r="68" spans="1:22" ht="32">
       <c r="A68" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38160,7 +38096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="31.2">
+    <row r="69" spans="1:22" ht="32">
       <c r="A69" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38211,7 +38147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="31.2">
+    <row r="70" spans="1:22" ht="32">
       <c r="A70" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38259,7 +38195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="31.2">
+    <row r="71" spans="1:22" ht="32">
       <c r="A71" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38349,7 +38285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="31.2">
+    <row r="73" spans="1:22" ht="32">
       <c r="A73" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38397,7 +38333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="31.2">
+    <row r="74" spans="1:22" ht="32">
       <c r="A74" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38442,7 +38378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="31.2">
+    <row r="75" spans="1:22" ht="32">
       <c r="A75" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38484,7 +38420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="31.2">
+    <row r="76" spans="1:22" ht="32">
       <c r="A76" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38526,7 +38462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="31.2">
+    <row r="77" spans="1:22" ht="32">
       <c r="A77" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38568,7 +38504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="31.2">
+    <row r="78" spans="1:22" ht="32">
       <c r="A78" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38613,7 +38549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="31.2">
+    <row r="79" spans="1:22" ht="32">
       <c r="A79" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38658,7 +38594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="46.8">
+    <row r="80" spans="1:22" ht="48">
       <c r="A80" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38700,7 +38636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="31.2">
+    <row r="81" spans="1:22" ht="32">
       <c r="A81" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38745,7 +38681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="31.2">
+    <row r="82" spans="1:22" ht="32">
       <c r="A82" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38784,7 +38720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="46.8">
+    <row r="83" spans="1:22" ht="38">
       <c r="A83" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38820,7 +38756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="31.2">
+    <row r="84" spans="1:22" ht="32">
       <c r="A84" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38856,7 +38792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="31.2">
+    <row r="85" spans="1:22" ht="32">
       <c r="A85" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38898,7 +38834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="31.2">
+    <row r="86" spans="1:22" ht="32">
       <c r="A86" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38940,7 +38876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="31.2">
+    <row r="87" spans="1:22" ht="32">
       <c r="A87" s="9" t="s">
         <v>1744</v>
       </c>
@@ -38976,7 +38912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="31.2">
+    <row r="88" spans="1:22" ht="32">
       <c r="A88" s="9" t="s">
         <v>1744</v>
       </c>
@@ -39015,7 +38951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="31.2">
+    <row r="89" spans="1:22" ht="32">
       <c r="A89" s="9" t="s">
         <v>1744</v>
       </c>
@@ -39054,7 +38990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="31.2">
+    <row r="90" spans="1:22" ht="32">
       <c r="A90" s="9" t="s">
         <v>1744</v>
       </c>
@@ -39099,7 +39035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="31.2">
+    <row r="91" spans="1:22" ht="32">
       <c r="A91" s="9" t="s">
         <v>1744</v>
       </c>
@@ -39141,7 +39077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="31.2">
+    <row r="92" spans="1:22" ht="32">
       <c r="A92" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39177,7 +39113,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="31.2">
+    <row r="93" spans="1:22" ht="32">
       <c r="A93" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39219,7 +39155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="31.2">
+    <row r="94" spans="1:22" ht="32">
       <c r="A94" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39261,7 +39197,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="31.2">
+    <row r="95" spans="1:22" ht="32">
       <c r="A95" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39294,7 +39230,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="46.8">
+    <row r="96" spans="1:22" ht="48">
       <c r="A96" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39333,7 +39269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="31.2">
+    <row r="97" spans="1:22" ht="32">
       <c r="A97" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39381,7 +39317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="31.2">
+    <row r="98" spans="1:22" ht="32">
       <c r="A98" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39417,7 +39353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="31.2">
+    <row r="99" spans="1:22" ht="32">
       <c r="A99" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39459,7 +39395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="31.2">
+    <row r="100" spans="1:22" ht="32">
       <c r="A100" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39498,7 +39434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="31.2">
+    <row r="101" spans="1:22" ht="32">
       <c r="A101" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39540,7 +39476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="46.8">
+    <row r="102" spans="1:22" ht="48">
       <c r="A102" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39582,7 +39518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="31.2">
+    <row r="103" spans="1:22" ht="32">
       <c r="A103" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39615,7 +39551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="31.2">
+    <row r="104" spans="1:22" ht="32">
       <c r="A104" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39654,7 +39590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="31.2">
+    <row r="105" spans="1:22" ht="32">
       <c r="A105" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39696,7 +39632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="31.2">
+    <row r="106" spans="1:22" ht="32">
       <c r="A106" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39783,7 +39719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="31.2">
+    <row r="108" spans="1:22" ht="32">
       <c r="A108" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39867,7 +39803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="31.2">
+    <row r="110" spans="1:22" ht="32">
       <c r="A110" s="9" t="s">
         <v>1747</v>
       </c>
@@ -39957,7 +39893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="31.2">
+    <row r="112" spans="1:22" ht="32">
       <c r="A112" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40002,7 +39938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="31.2">
+    <row r="113" spans="1:22" ht="32">
       <c r="A113" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40044,7 +39980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="31.2">
+    <row r="114" spans="1:22" ht="32">
       <c r="A114" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40089,7 +40025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="31.2">
+    <row r="115" spans="1:22" ht="32">
       <c r="A115" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40128,7 +40064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="31.2">
+    <row r="116" spans="1:22" ht="32">
       <c r="A116" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40167,7 +40103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="31.2">
+    <row r="117" spans="1:22" ht="32">
       <c r="A117" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40200,7 +40136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="46.8">
+    <row r="118" spans="1:22" ht="48">
       <c r="A118" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40242,7 +40178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="31.2">
+    <row r="119" spans="1:22" ht="32">
       <c r="A119" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40290,7 +40226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="31.2">
+    <row r="120" spans="1:22" ht="32">
       <c r="A120" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40338,7 +40274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="31.2">
+    <row r="121" spans="1:22" ht="32">
       <c r="A121" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40394,7 +40330,7 @@
         <v>2066</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>2303</v>
+        <v>1702</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>2152</v>
@@ -40412,7 +40348,7 @@
         <v>2679</v>
       </c>
       <c r="Q122" s="9" t="s">
-        <v>1702</v>
+        <v>2303</v>
       </c>
       <c r="R122" s="5" t="s">
         <v>2421</v>
@@ -40424,7 +40360,7 @@
         <v>121</v>
       </c>
       <c r="V122" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,F122)</f>
         <v>1</v>
       </c>
     </row>
@@ -40442,7 +40378,7 @@
         <v>2067</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1070</v>
+        <v>2698</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>2151</v>
@@ -40454,7 +40390,7 @@
         <v>2533</v>
       </c>
       <c r="Q123" s="9" t="s">
-        <v>2698</v>
+        <v>1070</v>
       </c>
       <c r="R123" s="5" t="s">
         <v>2422</v>
@@ -40466,11 +40402,11 @@
         <v>122</v>
       </c>
       <c r="V123" s="9">
-        <f t="shared" si="3"/>
+        <f>COUNTIF(F:S,F123)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="31.2">
+    <row r="124" spans="1:22" ht="32">
       <c r="A124" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40518,7 +40454,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="31.2">
+    <row r="125" spans="1:22" ht="32">
       <c r="A125" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40561,7 +40497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="31.2">
+    <row r="126" spans="1:22" ht="32">
       <c r="A126" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40603,7 +40539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="31.2">
+    <row r="127" spans="1:22" ht="32">
       <c r="A127" s="9" t="s">
         <v>1747</v>
       </c>
@@ -40645,7 +40581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="46.8">
+    <row r="128" spans="1:22" ht="48">
       <c r="A128" s="9" t="s">
         <v>762</v>
       </c>
@@ -40696,7 +40632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="31.2">
+    <row r="129" spans="1:22" ht="32">
       <c r="A129" s="9" t="s">
         <v>762</v>
       </c>
@@ -40738,7 +40674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="31.2">
+    <row r="130" spans="1:22" ht="32">
       <c r="A130" s="9" t="s">
         <v>762</v>
       </c>
@@ -40789,7 +40725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="31.2">
+    <row r="131" spans="1:22" ht="32">
       <c r="A131" s="9" t="s">
         <v>762</v>
       </c>
@@ -40837,7 +40773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="46.8">
+    <row r="132" spans="1:22" ht="48">
       <c r="A132" s="9" t="s">
         <v>762</v>
       </c>
@@ -40879,7 +40815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="46.8">
+    <row r="133" spans="1:22" ht="48">
       <c r="A133" s="9" t="s">
         <v>762</v>
       </c>
@@ -40927,7 +40863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="62.4">
+    <row r="134" spans="1:22" ht="64">
       <c r="A134" s="9" t="s">
         <v>762</v>
       </c>
@@ -40963,7 +40899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="31.2">
+    <row r="135" spans="1:22" ht="32">
       <c r="A135" s="9" t="s">
         <v>762</v>
       </c>
@@ -41035,7 +40971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="31.2">
+    <row r="137" spans="1:22" ht="32">
       <c r="A137" s="9" t="s">
         <v>762</v>
       </c>
@@ -41071,7 +41007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="31.2">
+    <row r="138" spans="1:22" ht="32">
       <c r="A138" s="9" t="s">
         <v>762</v>
       </c>
@@ -41107,7 +41043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="31.2">
+    <row r="139" spans="1:22" ht="32">
       <c r="A139" s="9" t="s">
         <v>762</v>
       </c>
@@ -41137,7 +41073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="31.2">
+    <row r="140" spans="1:22" ht="32">
       <c r="A140" s="9" t="s">
         <v>663</v>
       </c>
@@ -41173,7 +41109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="31.2">
+    <row r="141" spans="1:22" ht="32">
       <c r="A141" s="9" t="s">
         <v>663</v>
       </c>
@@ -41212,7 +41148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="31.2">
+    <row r="142" spans="1:22" ht="32">
       <c r="A142" s="9" t="s">
         <v>663</v>
       </c>
@@ -41229,7 +41165,7 @@
         <v>2470</v>
       </c>
       <c r="Q142" s="9" t="s">
-        <v>2205</v>
+        <v>2708</v>
       </c>
       <c r="R142" s="5" t="s">
         <v>2437</v>
@@ -41245,7 +41181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="31.2">
+    <row r="143" spans="1:22" ht="32">
       <c r="A143" s="9" t="s">
         <v>663</v>
       </c>
@@ -41278,7 +41214,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="31.2">
+    <row r="144" spans="1:22">
       <c r="A144" s="9" t="s">
         <v>663</v>
       </c>
@@ -41320,7 +41256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="31.2">
+    <row r="145" spans="1:22" ht="32">
       <c r="A145" s="9" t="s">
         <v>663</v>
       </c>
@@ -41398,7 +41334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="31.2">
+    <row r="147" spans="1:22" ht="32">
       <c r="A147" s="9" t="s">
         <v>663</v>
       </c>
@@ -41437,7 +41373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" ht="19">
       <c r="A148" s="9" t="s">
         <v>663</v>
       </c>
@@ -41482,7 +41418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="31.2">
+    <row r="149" spans="1:22" ht="32">
       <c r="A149" s="9" t="s">
         <v>663</v>
       </c>
@@ -41530,7 +41466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" ht="19">
       <c r="A150" s="9" t="s">
         <v>663</v>
       </c>
@@ -41575,7 +41511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="31.2">
+    <row r="151" spans="1:22" ht="32">
       <c r="A151" s="9" t="s">
         <v>663</v>
       </c>
@@ -41626,7 +41562,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="31.2">
+    <row r="152" spans="1:22" ht="32">
       <c r="A152" s="9" t="s">
         <v>663</v>
       </c>
@@ -41671,7 +41607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="31.2">
+    <row r="153" spans="1:22" ht="32">
       <c r="A153" s="9" t="s">
         <v>663</v>
       </c>
@@ -41755,7 +41691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="31.2">
+    <row r="155" spans="1:22" ht="32">
       <c r="A155" s="9" t="s">
         <v>663</v>
       </c>
@@ -41839,7 +41775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="31.2">
+    <row r="157" spans="1:22" ht="32">
       <c r="A157" s="9" t="s">
         <v>663</v>
       </c>
@@ -41995,7 +41931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="31.2">
+    <row r="161" spans="1:22" ht="32">
       <c r="A161" s="9" t="s">
         <v>663</v>
       </c>
@@ -42070,7 +42006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" ht="19">
       <c r="A163" s="9" t="s">
         <v>19</v>
       </c>
@@ -42154,7 +42090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="31.2">
+    <row r="165" spans="1:22" ht="32">
       <c r="A165" s="9" t="s">
         <v>19</v>
       </c>
@@ -42199,7 +42135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="31.2">
+    <row r="166" spans="1:22" ht="32">
       <c r="A166" s="9" t="s">
         <v>19</v>
       </c>
@@ -42238,7 +42174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="31.2">
+    <row r="167" spans="1:22" ht="32">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -42280,7 +42216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="31.2">
+    <row r="168" spans="1:22" ht="32">
       <c r="A168" s="9" t="s">
         <v>19</v>
       </c>
@@ -42325,7 +42261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="31.2">
+    <row r="169" spans="1:22" ht="32">
       <c r="A169" s="9" t="s">
         <v>19</v>
       </c>
@@ -42367,7 +42303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="46.8">
+    <row r="170" spans="1:22" ht="48">
       <c r="A170" s="9" t="s">
         <v>19</v>
       </c>
@@ -42418,7 +42354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="46.8">
+    <row r="171" spans="1:22" ht="48">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -42463,7 +42399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="31.2">
+    <row r="172" spans="1:22" ht="32">
       <c r="A172" s="9" t="s">
         <v>19</v>
       </c>
@@ -42519,7 +42455,7 @@
     <sortCondition ref="L2:L172"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="Q1:Q1048576 F1:F1048576">
+  <conditionalFormatting sqref="F1:F1048576 Q1:Q1048576">
     <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42536,15 +42472,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.58203125" style="7"/>
+    <col min="3" max="3" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="8" t="s">
         <v>2654</v>
       </c>
@@ -42555,7 +42491,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="8" t="s">
         <v>2655</v>
       </c>
@@ -42566,7 +42502,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="8" t="s">
         <v>1758</v>
       </c>
@@ -42577,7 +42513,7 @@
         <v>2661</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="8" t="s">
         <v>2049</v>
       </c>
@@ -42677,25 +42613,25 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G64" sqref="G64"/>
-      <selection pane="bottomLeft" activeCell="D162" sqref="D162:D170"/>
+      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -43389,7 +43325,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="19">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -43409,7 +43345,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="19">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -45783,23 +45719,23 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A20" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
-    <col min="11" max="14" width="8.75" style="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" style="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -46104,7 +46040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34.799999999999997">
+    <row r="16" spans="1:18" ht="38">
       <c r="A16" s="1" t="s">
         <v>632</v>
       </c>
@@ -46125,7 +46061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="34.799999999999997">
+    <row r="17" spans="1:18" ht="38">
       <c r="A17" s="1" t="s">
         <v>638</v>
       </c>
@@ -46956,25 +46892,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A194" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="G345" sqref="G345"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="3.58203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1"/>
-    <col min="9" max="9" width="22.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -47216,7 +47152,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="69.599999999999994">
+    <row r="23" spans="1:10" ht="76">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -48665,7 +48601,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="34.799999999999997">
+    <row r="104" spans="1:10" ht="38">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -50037,7 +49973,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="52.2">
+    <row r="177" spans="1:10" ht="57">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -52827,7 +52763,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="34.799999999999997">
+    <row r="334" spans="1:11" ht="38">
       <c r="A334" s="1" t="s">
         <v>91</v>
       </c>
@@ -53203,27 +53139,27 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="1" customWidth="1"/>
-    <col min="11" max="16" width="5.25" style="1"/>
-    <col min="18" max="22" width="5.25" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="5.28515625" style="1"/>
+    <col min="18" max="22" width="5.28515625" style="1"/>
     <col min="23" max="23" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
+    <col min="24" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -53456,7 +53392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="69.599999999999994">
+    <row r="12" spans="1:23" ht="76">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -53570,7 +53506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="34.799999999999997">
+    <row r="17" spans="1:23" ht="38">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -53711,7 +53647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="52.2">
+    <row r="23" spans="1:23" ht="57">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -53885,7 +53821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="34.799999999999997">
+    <row r="31" spans="1:23" ht="38">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -54380,7 +54316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="34.799999999999997">
+    <row r="52" spans="1:23" ht="38">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -54571,29 +54507,29 @@
       <selection pane="bottomLeft" activeCell="J19" sqref="C6:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="36" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68914E48-5B61-4380-8035-405A59DDD7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288AF98-6F03-483D-A730-F34C24FC3419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" firstSheet="2" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="10140" yWindow="1656" windowWidth="11880" windowHeight="11304" firstSheet="2" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12637" uniqueCount="3109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12639" uniqueCount="3111">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14647,6 +14647,14 @@
   </si>
   <si>
     <t>羊会疯吃 全市疯跳 气虚悬钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓车下关头 天书归来 三巨龙 停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明珠 煮熟料 只卖昆仑山中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14934,17 +14942,17 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -15035,7 +15043,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCEDC7"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -37547,7 +37555,7 @@
         <v>2732</v>
       </c>
       <c r="C2" s="1">
-        <f>COUNTIFS(A:A,B2)</f>
+        <f t="shared" ref="C2:C33" si="0">COUNTIFS(A:A,B2)</f>
         <v>21</v>
       </c>
     </row>
@@ -37559,7 +37567,7 @@
         <v>2722</v>
       </c>
       <c r="C3" s="1">
-        <f>COUNTIFS(A:A,B3)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -37571,7 +37579,7 @@
         <v>2793</v>
       </c>
       <c r="C4" s="1">
-        <f>COUNTIFS(A:A,B4)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -37583,7 +37591,7 @@
         <v>2769</v>
       </c>
       <c r="C5" s="1">
-        <f>COUNTIFS(A:A,B5)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
@@ -37595,7 +37603,7 @@
         <v>2784</v>
       </c>
       <c r="C6" s="1">
-        <f>COUNTIFS(A:A,B6)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
@@ -37607,7 +37615,7 @@
         <v>2738</v>
       </c>
       <c r="C7" s="1">
-        <f>COUNTIFS(A:A,B7)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -37619,7 +37627,7 @@
         <v>2724</v>
       </c>
       <c r="C8" s="1">
-        <f>COUNTIFS(A:A,B8)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -37631,7 +37639,7 @@
         <v>2809</v>
       </c>
       <c r="C9" s="1">
-        <f>COUNTIFS(A:A,B9)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -37643,7 +37651,7 @@
         <v>2759</v>
       </c>
       <c r="C10" s="1">
-        <f>COUNTIFS(A:A,B10)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -37655,7 +37663,7 @@
         <v>2774</v>
       </c>
       <c r="C11" s="1">
-        <f>COUNTIFS(A:A,B11)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -37667,7 +37675,7 @@
         <v>2758</v>
       </c>
       <c r="C12" s="1">
-        <f>COUNTIFS(A:A,B12)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -37679,7 +37687,7 @@
         <v>2808</v>
       </c>
       <c r="C13" s="1">
-        <f>COUNTIFS(A:A,B13)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -37691,7 +37699,7 @@
         <v>2735</v>
       </c>
       <c r="C14" s="1">
-        <f>COUNTIFS(A:A,B14)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -37703,7 +37711,7 @@
         <v>2734</v>
       </c>
       <c r="C15" s="1">
-        <f>COUNTIFS(A:A,B15)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -37715,7 +37723,7 @@
         <v>2740</v>
       </c>
       <c r="C16" s="1">
-        <f>COUNTIFS(A:A,B16)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -37727,7 +37735,7 @@
         <v>3048</v>
       </c>
       <c r="C17" s="1">
-        <f>COUNTIFS(A:A,B17)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37739,7 +37747,7 @@
         <v>2803</v>
       </c>
       <c r="C18" s="1">
-        <f>COUNTIFS(A:A,B18)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37751,7 +37759,7 @@
         <v>2778</v>
       </c>
       <c r="C19" s="1">
-        <f>COUNTIFS(A:A,B19)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37763,7 +37771,7 @@
         <v>2739</v>
       </c>
       <c r="C20" s="1">
-        <f>COUNTIFS(A:A,B20)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37775,7 +37783,7 @@
         <v>2792</v>
       </c>
       <c r="C21" s="1">
-        <f>COUNTIFS(A:A,B21)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -37787,7 +37795,7 @@
         <v>2811</v>
       </c>
       <c r="C22" s="1">
-        <f>COUNTIFS(A:A,B22)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -37799,7 +37807,7 @@
         <v>3086</v>
       </c>
       <c r="C23" s="1">
-        <f>COUNTIFS(A:A,B23)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -37811,7 +37819,7 @@
         <v>2863</v>
       </c>
       <c r="C24" s="1">
-        <f>COUNTIFS(A:A,B24)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -37823,7 +37831,7 @@
         <v>2730</v>
       </c>
       <c r="C25" s="1">
-        <f>COUNTIFS(A:A,B25)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -37835,7 +37843,7 @@
         <v>2747</v>
       </c>
       <c r="C26" s="1">
-        <f>COUNTIFS(A:A,B26)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37847,7 +37855,7 @@
         <v>3025</v>
       </c>
       <c r="C27" s="1">
-        <f>COUNTIFS(A:A,B27)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37859,7 +37867,7 @@
         <v>2718</v>
       </c>
       <c r="C28" s="1">
-        <f>COUNTIFS(A:A,B28)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37871,7 +37879,7 @@
         <v>2801</v>
       </c>
       <c r="C29" s="1">
-        <f>COUNTIFS(A:A,B29)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37883,7 +37891,7 @@
         <v>3029</v>
       </c>
       <c r="C30" s="1">
-        <f>COUNTIFS(A:A,B30)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37895,7 +37903,7 @@
         <v>2754</v>
       </c>
       <c r="C31" s="1">
-        <f>COUNTIFS(A:A,B31)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -37907,7 +37915,7 @@
         <v>2788</v>
       </c>
       <c r="C32" s="1">
-        <f>COUNTIFS(A:A,B32)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -37919,7 +37927,7 @@
         <v>3022</v>
       </c>
       <c r="C33" s="1">
-        <f>COUNTIFS(A:A,B33)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -37931,7 +37939,7 @@
         <v>2762</v>
       </c>
       <c r="C34" s="1">
-        <f>COUNTIFS(A:A,B34)</f>
+        <f t="shared" ref="C34:C65" si="1">COUNTIFS(A:A,B34)</f>
         <v>4</v>
       </c>
     </row>
@@ -37943,7 +37951,7 @@
         <v>2765</v>
       </c>
       <c r="C35" s="1">
-        <f>COUNTIFS(A:A,B35)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37955,7 +37963,7 @@
         <v>2716</v>
       </c>
       <c r="C36" s="1">
-        <f>COUNTIFS(A:A,B36)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37967,7 +37975,7 @@
         <v>2810</v>
       </c>
       <c r="C37" s="1">
-        <f>COUNTIFS(A:A,B37)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37979,7 +37987,7 @@
         <v>2807</v>
       </c>
       <c r="C38" s="1">
-        <f>COUNTIFS(A:A,B38)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -37991,7 +37999,7 @@
         <v>2816</v>
       </c>
       <c r="C39" s="1">
-        <f>COUNTIFS(A:A,B39)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38003,7 +38011,7 @@
         <v>2787</v>
       </c>
       <c r="C40" s="1">
-        <f>COUNTIFS(A:A,B40)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38015,7 +38023,7 @@
         <v>2760</v>
       </c>
       <c r="C41" s="1">
-        <f>COUNTIFS(A:A,B41)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38027,7 +38035,7 @@
         <v>2805</v>
       </c>
       <c r="C42" s="1">
-        <f>COUNTIFS(A:A,B42)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38039,7 +38047,7 @@
         <v>2780</v>
       </c>
       <c r="C43" s="1">
-        <f>COUNTIFS(A:A,B43)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38051,7 +38059,7 @@
         <v>2744</v>
       </c>
       <c r="C44" s="1">
-        <f>COUNTIFS(A:A,B44)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38063,7 +38071,7 @@
         <v>2768</v>
       </c>
       <c r="C45" s="1">
-        <f>COUNTIFS(A:A,B45)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38075,7 +38083,7 @@
         <v>2720</v>
       </c>
       <c r="C46" s="1">
-        <f>COUNTIFS(A:A,B46)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
@@ -38087,7 +38095,7 @@
         <v>2753</v>
       </c>
       <c r="C47" s="1">
-        <f>COUNTIFS(A:A,B47)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38099,7 +38107,7 @@
         <v>2815</v>
       </c>
       <c r="C48" s="1">
-        <f>COUNTIFS(A:A,B48)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38111,7 +38119,7 @@
         <v>2729</v>
       </c>
       <c r="C49" s="1">
-        <f>COUNTIFS(A:A,B49)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38123,7 +38131,7 @@
         <v>2779</v>
       </c>
       <c r="C50" s="1">
-        <f>COUNTIFS(A:A,B50)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38135,7 +38143,7 @@
         <v>3050</v>
       </c>
       <c r="C51" s="1">
-        <f>COUNTIFS(A:A,B51)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38147,7 +38155,7 @@
         <v>3028</v>
       </c>
       <c r="C52" s="1">
-        <f>COUNTIFS(A:A,B52)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38159,7 +38167,7 @@
         <v>2761</v>
       </c>
       <c r="C53" s="1">
-        <f>COUNTIFS(A:A,B53)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38171,7 +38179,7 @@
         <v>2785</v>
       </c>
       <c r="C54" s="1">
-        <f>COUNTIFS(A:A,B54)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38183,7 +38191,7 @@
         <v>2757</v>
       </c>
       <c r="C55" s="1">
-        <f>COUNTIFS(A:A,B55)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38195,7 +38203,7 @@
         <v>2727</v>
       </c>
       <c r="C56" s="1">
-        <f>COUNTIFS(A:A,B56)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38207,7 +38215,7 @@
         <v>3031</v>
       </c>
       <c r="C57" s="1">
-        <f>COUNTIFS(A:A,B57)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38219,7 +38227,7 @@
         <v>2755</v>
       </c>
       <c r="C58" s="1">
-        <f>COUNTIFS(A:A,B58)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38231,7 +38239,7 @@
         <v>2736</v>
       </c>
       <c r="C59" s="1">
-        <f>COUNTIFS(A:A,B59)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38243,7 +38251,7 @@
         <v>3058</v>
       </c>
       <c r="C60" s="1">
-        <f>COUNTIFS(A:A,B60)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38255,7 +38263,7 @@
         <v>2977</v>
       </c>
       <c r="C61" s="1">
-        <f>COUNTIFS(A:A,B61)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38267,7 +38275,7 @@
         <v>3037</v>
       </c>
       <c r="C62" s="1">
-        <f>COUNTIFS(A:A,B62)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38279,7 +38287,7 @@
         <v>2794</v>
       </c>
       <c r="C63" s="1">
-        <f>COUNTIFS(A:A,B63)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38291,7 +38299,7 @@
         <v>2737</v>
       </c>
       <c r="C64" s="1">
-        <f>COUNTIFS(A:A,B64)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38303,7 +38311,7 @@
         <v>2733</v>
       </c>
       <c r="C65" s="1">
-        <f>COUNTIFS(A:A,B65)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -38315,7 +38323,7 @@
         <v>2812</v>
       </c>
       <c r="C66" s="1">
-        <f>COUNTIFS(A:A,B66)</f>
+        <f t="shared" ref="C66:C97" si="2">COUNTIFS(A:A,B66)</f>
         <v>2</v>
       </c>
     </row>
@@ -38327,7 +38335,7 @@
         <v>2789</v>
       </c>
       <c r="C67" s="1">
-        <f>COUNTIFS(A:A,B67)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -38339,7 +38347,7 @@
         <v>2719</v>
       </c>
       <c r="C68" s="1">
-        <f>COUNTIFS(A:A,B68)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
@@ -38351,7 +38359,7 @@
         <v>2764</v>
       </c>
       <c r="C69" s="1">
-        <f>COUNTIFS(A:A,B69)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38363,7 +38371,7 @@
         <v>2806</v>
       </c>
       <c r="C70" s="1">
-        <f>COUNTIFS(A:A,B70)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38375,7 +38383,7 @@
         <v>3024</v>
       </c>
       <c r="C71" s="1">
-        <f>COUNTIFS(A:A,B71)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38387,7 +38395,7 @@
         <v>2790</v>
       </c>
       <c r="C72" s="1">
-        <f>COUNTIFS(A:A,B72)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38399,7 +38407,7 @@
         <v>3049</v>
       </c>
       <c r="C73" s="1">
-        <f>COUNTIFS(A:A,B73)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38411,7 +38419,7 @@
         <v>3026</v>
       </c>
       <c r="C74" s="1">
-        <f>COUNTIFS(A:A,B74)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38423,7 +38431,7 @@
         <v>3027</v>
       </c>
       <c r="C75" s="1">
-        <f>COUNTIFS(A:A,B75)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38435,7 +38443,7 @@
         <v>2749</v>
       </c>
       <c r="C76" s="1">
-        <f>COUNTIFS(A:A,B76)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38447,7 +38455,7 @@
         <v>3051</v>
       </c>
       <c r="C77" s="1">
-        <f>COUNTIFS(A:A,B77)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38459,7 +38467,7 @@
         <v>2941</v>
       </c>
       <c r="C78" s="1">
-        <f>COUNTIFS(A:A,B78)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38471,7 +38479,7 @@
         <v>2800</v>
       </c>
       <c r="C79" s="1">
-        <f>COUNTIFS(A:A,B79)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38483,7 +38491,7 @@
         <v>3052</v>
       </c>
       <c r="C80" s="1">
-        <f>COUNTIFS(A:A,B80)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38495,7 +38503,7 @@
         <v>3053</v>
       </c>
       <c r="C81" s="1">
-        <f>COUNTIFS(A:A,B81)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38507,7 +38515,7 @@
         <v>2723</v>
       </c>
       <c r="C82" s="1">
-        <f>COUNTIFS(A:A,B82)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38519,7 +38527,7 @@
         <v>2786</v>
       </c>
       <c r="C83" s="1">
-        <f>COUNTIFS(A:A,B83)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38531,7 +38539,7 @@
         <v>2775</v>
       </c>
       <c r="C84" s="1">
-        <f>COUNTIFS(A:A,B84)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38543,7 +38551,7 @@
         <v>3054</v>
       </c>
       <c r="C85" s="1">
-        <f>COUNTIFS(A:A,B85)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38555,7 +38563,7 @@
         <v>2726</v>
       </c>
       <c r="C86" s="1">
-        <f>COUNTIFS(A:A,B86)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38567,7 +38575,7 @@
         <v>3056</v>
       </c>
       <c r="C87" s="1">
-        <f>COUNTIFS(A:A,B87)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38579,7 +38587,7 @@
         <v>3055</v>
       </c>
       <c r="C88" s="1">
-        <f>COUNTIFS(A:A,B88)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38591,7 +38599,7 @@
         <v>2782</v>
       </c>
       <c r="C89" s="1">
-        <f>COUNTIFS(A:A,B89)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38603,7 +38611,7 @@
         <v>2752</v>
       </c>
       <c r="C90" s="1">
-        <f>COUNTIFS(A:A,B90)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38615,7 +38623,7 @@
         <v>3030</v>
       </c>
       <c r="C91" s="1">
-        <f>COUNTIFS(A:A,B91)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38627,7 +38635,7 @@
         <v>2781</v>
       </c>
       <c r="C92" s="1">
-        <f>COUNTIFS(A:A,B92)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38639,7 +38647,7 @@
         <v>3032</v>
       </c>
       <c r="C93" s="1">
-        <f>COUNTIFS(A:A,B93)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38651,7 +38659,7 @@
         <v>2725</v>
       </c>
       <c r="C94" s="1">
-        <f>COUNTIFS(A:A,B94)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38663,7 +38671,7 @@
         <v>2814</v>
       </c>
       <c r="C95" s="1">
-        <f>COUNTIFS(A:A,B95)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38675,7 +38683,7 @@
         <v>2813</v>
       </c>
       <c r="C96" s="1">
-        <f>COUNTIFS(A:A,B96)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38687,7 +38695,7 @@
         <v>3057</v>
       </c>
       <c r="C97" s="1">
-        <f>COUNTIFS(A:A,B97)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -38699,7 +38707,7 @@
         <v>2864</v>
       </c>
       <c r="C98" s="1">
-        <f>COUNTIFS(A:A,B98)</f>
+        <f t="shared" ref="C98:C129" si="3">COUNTIFS(A:A,B98)</f>
         <v>1</v>
       </c>
     </row>
@@ -38711,7 +38719,7 @@
         <v>3033</v>
       </c>
       <c r="C99" s="1">
-        <f>COUNTIFS(A:A,B99)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38723,7 +38731,7 @@
         <v>2817</v>
       </c>
       <c r="C100" s="1">
-        <f>COUNTIFS(A:A,B100)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38735,7 +38743,7 @@
         <v>2721</v>
       </c>
       <c r="C101" s="1">
-        <f>COUNTIFS(A:A,B101)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38747,7 +38755,7 @@
         <v>2856</v>
       </c>
       <c r="C102" s="1">
-        <f>COUNTIFS(A:A,B102)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38759,7 +38767,7 @@
         <v>3059</v>
       </c>
       <c r="C103" s="1">
-        <f>COUNTIFS(A:A,B103)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38771,7 +38779,7 @@
         <v>2717</v>
       </c>
       <c r="C104" s="1">
-        <f>COUNTIFS(A:A,B104)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38783,7 +38791,7 @@
         <v>3034</v>
       </c>
       <c r="C105" s="1">
-        <f>COUNTIFS(A:A,B105)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38795,7 +38803,7 @@
         <v>3035</v>
       </c>
       <c r="C106" s="1">
-        <f>COUNTIFS(A:A,B106)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38807,7 +38815,7 @@
         <v>3036</v>
       </c>
       <c r="C107" s="1">
-        <f>COUNTIFS(A:A,B107)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38819,7 +38827,7 @@
         <v>3038</v>
       </c>
       <c r="C108" s="1">
-        <f>COUNTIFS(A:A,B108)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38831,7 +38839,7 @@
         <v>3062</v>
       </c>
       <c r="C109" s="1">
-        <f>COUNTIFS(A:A,B109)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38843,7 +38851,7 @@
         <v>2833</v>
       </c>
       <c r="C110" s="1">
-        <f>COUNTIFS(A:A,B110)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38855,7 +38863,7 @@
         <v>2777</v>
       </c>
       <c r="C111" s="1">
-        <f>COUNTIFS(A:A,B111)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38867,7 +38875,7 @@
         <v>3060</v>
       </c>
       <c r="C112" s="1">
-        <f>COUNTIFS(A:A,B112)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38879,7 +38887,7 @@
         <v>2731</v>
       </c>
       <c r="C113" s="1">
-        <f>COUNTIFS(A:A,B113)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38891,7 +38899,7 @@
         <v>3063</v>
       </c>
       <c r="C114" s="1">
-        <f>COUNTIFS(A:A,B114)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38903,7 +38911,7 @@
         <v>2746</v>
       </c>
       <c r="C115" s="1">
-        <f>COUNTIFS(A:A,B115)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38915,7 +38923,7 @@
         <v>2867</v>
       </c>
       <c r="C116" s="1">
-        <f>COUNTIFS(A:A,B116)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38927,7 +38935,7 @@
         <v>3061</v>
       </c>
       <c r="C117" s="1">
-        <f>COUNTIFS(A:A,B117)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38939,7 +38947,7 @@
         <v>3064</v>
       </c>
       <c r="C118" s="1">
-        <f>COUNTIFS(A:A,B118)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38951,7 +38959,7 @@
         <v>3065</v>
       </c>
       <c r="C119" s="1">
-        <f>COUNTIFS(A:A,B119)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38963,7 +38971,7 @@
         <v>3066</v>
       </c>
       <c r="C120" s="1">
-        <f>COUNTIFS(A:A,B120)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38975,7 +38983,7 @@
         <v>3068</v>
       </c>
       <c r="C121" s="1">
-        <f>COUNTIFS(A:A,B121)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38987,7 +38995,7 @@
         <v>3067</v>
       </c>
       <c r="C122" s="1">
-        <f>COUNTIFS(A:A,B122)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -38999,7 +39007,7 @@
         <v>2839</v>
       </c>
       <c r="C123" s="1">
-        <f>COUNTIFS(A:A,B123)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39011,7 +39019,7 @@
         <v>3070</v>
       </c>
       <c r="C124" s="1">
-        <f>COUNTIFS(A:A,B124)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39023,7 +39031,7 @@
         <v>3069</v>
       </c>
       <c r="C125" s="1">
-        <f>COUNTIFS(A:A,B125)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39035,7 +39043,7 @@
         <v>3072</v>
       </c>
       <c r="C126" s="1">
-        <f>COUNTIFS(A:A,B126)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39047,7 +39055,7 @@
         <v>3071</v>
       </c>
       <c r="C127" s="1">
-        <f>COUNTIFS(A:A,B127)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39059,7 +39067,7 @@
         <v>3074</v>
       </c>
       <c r="C128" s="1">
-        <f>COUNTIFS(A:A,B128)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39071,7 +39079,7 @@
         <v>2822</v>
       </c>
       <c r="C129" s="1">
-        <f>COUNTIFS(A:A,B129)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -39083,7 +39091,7 @@
         <v>3073</v>
       </c>
       <c r="C130" s="1">
-        <f>COUNTIFS(A:A,B130)</f>
+        <f t="shared" ref="C130:C161" si="4">COUNTIFS(A:A,B130)</f>
         <v>1</v>
       </c>
     </row>
@@ -39095,7 +39103,7 @@
         <v>3075</v>
       </c>
       <c r="C131" s="1">
-        <f>COUNTIFS(A:A,B131)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39107,7 +39115,7 @@
         <v>2751</v>
       </c>
       <c r="C132" s="1">
-        <f>COUNTIFS(A:A,B132)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39119,7 +39127,7 @@
         <v>2783</v>
       </c>
       <c r="C133" s="1">
-        <f>COUNTIFS(A:A,B133)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39131,7 +39139,7 @@
         <v>2776</v>
       </c>
       <c r="C134" s="1">
-        <f>COUNTIFS(A:A,B134)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39143,7 +39151,7 @@
         <v>2750</v>
       </c>
       <c r="C135" s="1">
-        <f>COUNTIFS(A:A,B135)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39155,7 +39163,7 @@
         <v>2728</v>
       </c>
       <c r="C136" s="1">
-        <f>COUNTIFS(A:A,B136)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -39167,7 +39175,7 @@
         <v>3039</v>
       </c>
       <c r="C137" s="1">
-        <f>COUNTIFS(A:A,B137)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -52443,7 +52451,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -59926,7 +59934,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V172">
     <sortCondition ref="D2:D172"/>
     <sortCondition ref="U2:U172"/>
-    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="18"/>
+    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="17"/>
     <sortCondition ref="F2:F172"/>
     <sortCondition ref="A2:A172"/>
     <sortCondition ref="L2:L172"/>
@@ -59946,8 +59954,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -61289,6 +61297,9 @@
       <c r="A92" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D92" s="1" t="s">
+        <v>3109</v>
+      </c>
       <c r="M92" s="1"/>
     </row>
     <row r="93" spans="1:18">
@@ -61444,6 +61455,9 @@
     <row r="103" spans="1:18">
       <c r="A103" s="1" t="s">
         <v>2707</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>3110</v>
       </c>
       <c r="M103" s="1"/>
     </row>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A288AF98-6F03-483D-A730-F34C24FC3419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F1DB8-5FEF-4EE2-A94F-332AC31EA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="1656" windowWidth="11880" windowHeight="11304" firstSheet="2" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -14582,14 +14582,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蹲监重启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽渊缺鱼少商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14598,46 +14590,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>白宫三临海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海溪通神虫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曲门内关宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>谷流溪照泉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>听天养老肠稀少</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>臂臑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>音响比闹曲 手合上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>支沟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>猪狗官僚喜丝竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关大门会停水印</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>练拳成将</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14646,15 +14610,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>羊会疯吃 全市疯跳 气虚悬钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓车下关头 天书归来 三巨龙 停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明珠 煮熟料 只卖昆仑山中</t>
+    <t>肿猪纸狗 歪官贱僚 细缝丝竹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明珠煮熟料 只应卖昆仑山中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响比闹曲 大肠手里合上扬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三银领券啤血海 饮百公损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包去细门内关老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝气闷苔虫 心尖打盹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞驰泽渊缺鱼少商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 桶里门神烧虫 影戏还烧心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小尝养老甜粽 停工后稀少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关大衙门 会神听水沟塘堵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白羊挺会疯吃 全市疯跳 胆气虚悬钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三巨龙听 天书归来 地仓驾车围下关头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -39091,7 +39091,7 @@
         <v>3073</v>
       </c>
       <c r="C130" s="1">
-        <f t="shared" ref="C130:C161" si="4">COUNTIFS(A:A,B130)</f>
+        <f t="shared" ref="C130:C137" si="4">COUNTIFS(A:A,B130)</f>
         <v>1</v>
       </c>
     </row>
@@ -52464,10 +52464,10 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K147" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q151" sqref="Q151:Q152"/>
+      <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -59954,8 +59954,8 @@
   <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
@@ -59963,7 +59963,7 @@
     <col min="1" max="1" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08203125" style="1" customWidth="1"/>
     <col min="6" max="12" width="8.75" style="1"/>
     <col min="14" max="17" width="8.75" style="1"/>
@@ -59987,7 +59987,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3098</v>
+        <v>3103</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3088</v>
@@ -60063,7 +60063,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3092</v>
+        <v>3104</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3090</v>
@@ -60137,7 +60137,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3093</v>
+        <v>3105</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -60185,7 +60185,7 @@
         <v>2718</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="M15" s="1"/>
       <c r="R15" s="1">
@@ -60218,7 +60218,7 @@
         <v>2720</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="M17" s="1"/>
       <c r="R17" s="1">
@@ -60233,7 +60233,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3096</v>
+        <v>3102</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -60320,7 +60320,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3097</v>
+        <v>3106</v>
       </c>
       <c r="M24" s="1"/>
     </row>
@@ -60407,7 +60407,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3100</v>
+        <v>3107</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -60494,7 +60494,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -60581,7 +60581,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3102</v>
+        <v>3101</v>
       </c>
       <c r="M42" s="1"/>
     </row>
@@ -60653,7 +60653,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3101</v>
+        <v>3095</v>
       </c>
       <c r="M47" s="1"/>
       <c r="R47" s="1">
@@ -60683,7 +60683,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -60710,7 +60710,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3103</v>
+        <v>3096</v>
       </c>
       <c r="M51" s="1"/>
       <c r="R51" s="1">
@@ -60782,7 +60782,7 @@
         <v>2796</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3105</v>
+        <v>3108</v>
       </c>
       <c r="M56" s="1"/>
     </row>
@@ -60896,7 +60896,7 @@
         <v>2798</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3106</v>
+        <v>3097</v>
       </c>
       <c r="M64" s="1"/>
     </row>
@@ -61025,7 +61025,7 @@
         <v>2799</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3107</v>
+        <v>3098</v>
       </c>
       <c r="M73" s="1"/>
     </row>
@@ -61154,7 +61154,7 @@
         <v>2714</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>3108</v>
+        <v>3109</v>
       </c>
       <c r="M82" s="1"/>
     </row>
@@ -61298,7 +61298,7 @@
         <v>71</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>3109</v>
+        <v>3110</v>
       </c>
       <c r="M92" s="1"/>
     </row>
@@ -61457,7 +61457,7 @@
         <v>2707</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3110</v>
+        <v>3100</v>
       </c>
       <c r="M103" s="1"/>
     </row>
@@ -64945,7 +64945,7 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G64" sqref="G64"/>
       <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuda/练功_中医/yikao/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4F1DB8-5FEF-4EE2-A94F-332AC31EA3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F4E01-7755-4C4E-B540-CDA708930552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -14590,10 +14590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谷流溪照泉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>臂臑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14622,26 +14618,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三银领券啤血海 饮百公损</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包去细门内关老公</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>肝气闷苔虫 心尖打盹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞驰泽渊缺鱼少商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 桶里门神烧虫 影戏还烧心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小尝养老甜粽 停工后稀少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14655,6 +14635,26 @@
   </si>
   <si>
     <t>三巨龙听 天书归来 地仓驾车围下关头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去砸细门关老公</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞驰泽渊 缺鱼少商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三银领券 公孙血海饮白啤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 桶里门神烧虫 影戏烧海</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬骨太细 父留用犬找孩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14942,6 +14942,11 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -14949,81 +14954,8 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -15043,7 +14975,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -15342,18 +15274,18 @@
       <selection pane="bottomRight" activeCell="E10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
-    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15373,7 +15305,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" ht="19">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -15455,7 +15387,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="34.799999999999997">
+    <row r="7" spans="1:9" ht="38">
       <c r="A7" s="1" t="s">
         <v>538</v>
       </c>
@@ -15645,7 +15577,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="34.799999999999997">
+    <row r="21" spans="1:9" ht="38">
       <c r="B21" s="1" t="s">
         <v>1763</v>
       </c>
@@ -15764,22 +15696,22 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" style="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.25" style="1"/>
-    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.58203125" style="1" customWidth="1"/>
-    <col min="11" max="16" width="5.25" style="1"/>
-    <col min="18" max="22" width="5.25" style="1"/>
+    <col min="1" max="1" width="5.28515625" style="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1"/>
+    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1"/>
+    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="5.28515625" style="1"/>
+    <col min="18" max="22" width="5.28515625" style="1"/>
     <col min="23" max="23" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="5.25" style="1"/>
+    <col min="24" max="16384" width="5.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -16012,7 +15944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="69.599999999999994">
+    <row r="12" spans="1:23" ht="76">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -16126,7 +16058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="34.799999999999997">
+    <row r="17" spans="1:23" ht="38">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -16267,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="52.2">
+    <row r="23" spans="1:23" ht="57">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -16441,7 +16373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="34.799999999999997">
+    <row r="31" spans="1:23" ht="38">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -16936,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="34.799999999999997">
+    <row r="52" spans="1:23" ht="38">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -17126,15 +17058,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.25" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.58203125" style="7"/>
+    <col min="3" max="3" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.5703125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="8" t="s">
         <v>2649</v>
       </c>
@@ -17145,7 +17077,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="8" t="s">
         <v>2650</v>
       </c>
@@ -17156,7 +17088,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="8" t="s">
         <v>1753</v>
       </c>
@@ -17167,7 +17099,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="8" t="s">
         <v>2044</v>
       </c>
@@ -17271,29 +17203,29 @@
       <selection pane="bottomLeft" activeCell="J19" sqref="C6:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="36" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -28448,9 +28380,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="1"/>
+    <col min="1" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -28662,12 +28594,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.75" style="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="16384" width="10.75" style="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -37531,9 +37463,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -40986,7 +40918,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
@@ -41079,123 +41011,123 @@
       <selection activeCell="A3" sqref="A3:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.4140625" style="1"/>
-    <col min="25" max="25" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.4140625" style="1"/>
-    <col min="36" max="36" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.4140625" style="1"/>
-    <col min="41" max="42" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="103" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8.4140625" style="1"/>
-    <col min="106" max="106" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="139" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.4140625" style="1"/>
-    <col min="145" max="147" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="158" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="16384" width="8.4140625" style="1"/>
+    <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.42578125" style="1"/>
+    <col min="25" max="25" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.42578125" style="1"/>
+    <col min="36" max="36" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.42578125" style="1"/>
+    <col min="41" max="42" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="103" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.42578125" style="1"/>
+    <col min="106" max="106" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="5.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.42578125" style="1"/>
+    <col min="145" max="147" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -45615,7 +45547,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -45664,26 +45596,26 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.4140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="64.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -45736,7 +45668,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="31.2">
+    <row r="2" spans="1:18" ht="32">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -45775,7 +45707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="31.2">
+    <row r="3" spans="1:18" ht="32">
       <c r="A3" s="1" t="s">
         <v>294</v>
       </c>
@@ -45820,7 +45752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="46.8">
+    <row r="4" spans="1:18" ht="48">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
@@ -45862,7 +45794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="34.799999999999997">
+    <row r="5" spans="1:18" ht="38">
       <c r="A5" s="1" t="s">
         <v>294</v>
       </c>
@@ -45943,7 +45875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="31.2">
+    <row r="7" spans="1:18" ht="32">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -45988,7 +45920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="31.2">
+    <row r="8" spans="1:18" ht="32">
       <c r="A8" s="1" t="s">
         <v>294</v>
       </c>
@@ -46024,7 +45956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="46.8">
+    <row r="9" spans="1:18" ht="48">
       <c r="A9" s="1" t="s">
         <v>294</v>
       </c>
@@ -46069,7 +46001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="46.8">
+    <row r="10" spans="1:18" ht="48">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -46114,7 +46046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="46.8">
+    <row r="11" spans="1:18" ht="48">
       <c r="A11" s="1" t="s">
         <v>294</v>
       </c>
@@ -46162,7 +46094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="31.2">
+    <row r="12" spans="1:18" ht="32">
       <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
@@ -46198,7 +46130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="46.8">
+    <row r="13" spans="1:18" ht="48">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -46240,7 +46172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="46.8">
+    <row r="14" spans="1:18" ht="48">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -46288,7 +46220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="34.799999999999997">
+    <row r="15" spans="1:18" ht="38">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -46333,7 +46265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="46.8">
+    <row r="16" spans="1:18" ht="48">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -46381,7 +46313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="31.2">
+    <row r="17" spans="1:18" ht="32">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -46423,7 +46355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="46.8">
+    <row r="18" spans="1:18" ht="48">
       <c r="A18" s="1" t="s">
         <v>294</v>
       </c>
@@ -46459,7 +46391,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="31.2">
+    <row r="19" spans="1:18" ht="32">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -46504,7 +46436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="31.2">
+    <row r="20" spans="1:18" ht="32">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -46544,7 +46476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="31.2">
+    <row r="21" spans="1:18" ht="32">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -46586,7 +46518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="31.2">
+    <row r="22" spans="1:18" ht="32">
       <c r="A22" s="1" t="s">
         <v>294</v>
       </c>
@@ -46628,7 +46560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="31.2">
+    <row r="23" spans="1:18" ht="32">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
@@ -46661,7 +46593,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="31.2">
+    <row r="24" spans="1:18" ht="32">
       <c r="A24" s="1" t="s">
         <v>294</v>
       </c>
@@ -46691,7 +46623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="31.2">
+    <row r="25" spans="1:18" ht="32">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -46721,7 +46653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="62.4">
+    <row r="26" spans="1:18" ht="80">
       <c r="A26" s="1" t="s">
         <v>294</v>
       </c>
@@ -46754,7 +46686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="31.2">
+    <row r="27" spans="1:18" ht="32">
       <c r="A27" s="1" t="s">
         <v>538</v>
       </c>
@@ -46803,7 +46735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="31.2">
+    <row r="28" spans="1:18" ht="32">
       <c r="A28" s="1" t="s">
         <v>538</v>
       </c>
@@ -46848,7 +46780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="34.799999999999997">
+    <row r="29" spans="1:18" ht="38">
       <c r="A29" s="1" t="s">
         <v>538</v>
       </c>
@@ -46899,7 +46831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="31.2">
+    <row r="30" spans="1:18" ht="32">
       <c r="A30" s="1" t="s">
         <v>538</v>
       </c>
@@ -46938,7 +46870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="34.799999999999997">
+    <row r="31" spans="1:18" ht="38">
       <c r="A31" s="1" t="s">
         <v>538</v>
       </c>
@@ -46980,7 +46912,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="31.2">
+    <row r="32" spans="1:18" ht="32">
       <c r="A32" s="1" t="s">
         <v>538</v>
       </c>
@@ -47029,7 +46961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="31.2">
+    <row r="33" spans="1:18" ht="32">
       <c r="A33" s="1" t="s">
         <v>538</v>
       </c>
@@ -47071,7 +47003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="31.2">
+    <row r="34" spans="1:18" ht="32">
       <c r="A34" s="1" t="s">
         <v>538</v>
       </c>
@@ -47113,7 +47045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="46.8">
+    <row r="35" spans="1:18" ht="48">
       <c r="A35" s="1" t="s">
         <v>538</v>
       </c>
@@ -47152,7 +47084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="31.2">
+    <row r="36" spans="1:18" ht="32">
       <c r="A36" s="1" t="s">
         <v>538</v>
       </c>
@@ -47188,7 +47120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="31.2">
+    <row r="37" spans="1:18" ht="32">
       <c r="A37" s="1" t="s">
         <v>538</v>
       </c>
@@ -47230,7 +47162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="46.8">
+    <row r="38" spans="1:18" ht="48">
       <c r="A38" s="1" t="s">
         <v>538</v>
       </c>
@@ -47272,7 +47204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="52.2">
+    <row r="39" spans="1:18" ht="57">
       <c r="A39" s="1" t="s">
         <v>538</v>
       </c>
@@ -47353,7 +47285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="31.2">
+    <row r="41" spans="1:18" ht="32">
       <c r="A41" s="1" t="s">
         <v>538</v>
       </c>
@@ -47389,7 +47321,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="31.2">
+    <row r="42" spans="1:18" ht="32">
       <c r="A42" s="1" t="s">
         <v>538</v>
       </c>
@@ -47425,7 +47357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="31.2">
+    <row r="43" spans="1:18" ht="32">
       <c r="A43" s="1" t="s">
         <v>538</v>
       </c>
@@ -47467,7 +47399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="31.2">
+    <row r="44" spans="1:18" ht="32">
       <c r="A44" s="1" t="s">
         <v>538</v>
       </c>
@@ -47509,7 +47441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="31.2">
+    <row r="45" spans="1:18" ht="32">
       <c r="A45" s="1" t="s">
         <v>538</v>
       </c>
@@ -47551,7 +47483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="46.8">
+    <row r="46" spans="1:18" ht="48">
       <c r="A46" s="1" t="s">
         <v>538</v>
       </c>
@@ -47590,7 +47522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="46.8">
+    <row r="47" spans="1:18" ht="48">
       <c r="A47" s="1" t="s">
         <v>538</v>
       </c>
@@ -47626,7 +47558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="31.2">
+    <row r="48" spans="1:18" ht="32">
       <c r="A48" s="1" t="s">
         <v>538</v>
       </c>
@@ -47671,7 +47603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="62.4">
+    <row r="49" spans="1:18" ht="64">
       <c r="A49" s="1" t="s">
         <v>538</v>
       </c>
@@ -47713,7 +47645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="32.4">
+    <row r="50" spans="1:18" ht="34">
       <c r="A50" s="1" t="s">
         <v>538</v>
       </c>
@@ -47758,7 +47690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="47.4">
+    <row r="51" spans="1:18" ht="49">
       <c r="A51" s="1" t="s">
         <v>538</v>
       </c>
@@ -47797,7 +47729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="31.2">
+    <row r="52" spans="1:18" ht="32">
       <c r="A52" s="1" t="s">
         <v>538</v>
       </c>
@@ -47839,7 +47771,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="31.8">
+    <row r="53" spans="1:18" ht="33">
       <c r="A53" s="1" t="s">
         <v>538</v>
       </c>
@@ -47878,7 +47810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="31.2">
+    <row r="54" spans="1:18" ht="32">
       <c r="A54" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47920,7 +47852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="46.8">
+    <row r="55" spans="1:18" ht="32">
       <c r="A55" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47962,7 +47894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="31.2">
+    <row r="56" spans="1:18" ht="32">
       <c r="A56" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48004,7 +47936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="31.2">
+    <row r="57" spans="1:18" ht="32">
       <c r="A57" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48040,7 +47972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="31.2">
+    <row r="58" spans="1:18" ht="32">
       <c r="A58" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48082,7 +48014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="31.2">
+    <row r="59" spans="1:18" ht="32">
       <c r="A59" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48118,7 +48050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="31.2">
+    <row r="60" spans="1:18" ht="32">
       <c r="A60" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48358,7 +48290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="31.2">
+    <row r="66" spans="1:18" ht="32">
       <c r="A66" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48433,7 +48365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="31.2">
+    <row r="68" spans="1:18" ht="32">
       <c r="A68" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48478,7 +48410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="31.2">
+    <row r="69" spans="1:18" ht="32">
       <c r="A69" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48520,7 +48452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="31.2">
+    <row r="70" spans="1:18" ht="32">
       <c r="A70" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48565,7 +48497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="31.2">
+    <row r="71" spans="1:18" ht="32">
       <c r="A71" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48643,7 +48575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="31.2">
+    <row r="73" spans="1:18" ht="32">
       <c r="A73" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48682,7 +48614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="31.2">
+    <row r="74" spans="1:18" ht="32">
       <c r="A74" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48724,7 +48656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="31.2">
+    <row r="75" spans="1:18" ht="32">
       <c r="A75" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48760,7 +48692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="31.2">
+    <row r="76" spans="1:18" ht="32">
       <c r="A76" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48799,7 +48731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="31.2">
+    <row r="77" spans="1:18" ht="32">
       <c r="A77" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48841,7 +48773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="31.2">
+    <row r="78" spans="1:18" ht="32">
       <c r="A78" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48883,7 +48815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="31.2">
+    <row r="79" spans="1:18" ht="32">
       <c r="A79" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48919,7 +48851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="46.8">
+    <row r="80" spans="1:18" ht="48">
       <c r="A80" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48961,7 +48893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="31.2">
+    <row r="81" spans="1:18" ht="32">
       <c r="A81" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49003,7 +48935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="31.2">
+    <row r="82" spans="1:18" ht="32">
       <c r="A82" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49039,7 +48971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="34.799999999999997">
+    <row r="83" spans="1:18" ht="38">
       <c r="A83" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49075,7 +49007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="31.2">
+    <row r="84" spans="1:18" ht="32">
       <c r="A84" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49111,7 +49043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="31.2">
+    <row r="85" spans="1:18">
       <c r="A85" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49147,7 +49079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="31.2">
+    <row r="86" spans="1:18" ht="32">
       <c r="A86" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49186,7 +49118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="31.2">
+    <row r="87" spans="1:18" ht="32">
       <c r="A87" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49222,7 +49154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="31.2">
+    <row r="88" spans="1:18" ht="32">
       <c r="A88" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49300,7 +49232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="31.2">
+    <row r="90" spans="1:18" ht="32">
       <c r="A90" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49336,7 +49268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="31.2">
+    <row r="91" spans="1:18" ht="32">
       <c r="A91" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49375,7 +49307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="31.2">
+    <row r="92" spans="1:18" ht="32">
       <c r="A92" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49405,7 +49337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="31.2">
+    <row r="93" spans="1:18" ht="32">
       <c r="A93" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49438,7 +49370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="31.2">
+    <row r="94" spans="1:18" ht="32">
       <c r="A94" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49471,7 +49403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="31.2">
+    <row r="95" spans="1:18" ht="32">
       <c r="A95" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49504,7 +49436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="31.2">
+    <row r="96" spans="1:18" ht="32">
       <c r="A96" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49543,7 +49475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="31.2">
+    <row r="97" spans="1:18" ht="32">
       <c r="A97" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49588,7 +49520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="31.2">
+    <row r="98" spans="1:18" ht="32">
       <c r="A98" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49624,7 +49556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="31.2">
+    <row r="99" spans="1:18" ht="32">
       <c r="A99" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49663,7 +49595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="31.2">
+    <row r="100" spans="1:18" ht="32">
       <c r="A100" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49699,7 +49631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="31.2">
+    <row r="101" spans="1:18" ht="32">
       <c r="A101" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49735,7 +49667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="31.2">
+    <row r="102" spans="1:18" ht="32">
       <c r="A102" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49771,7 +49703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="31.2">
+    <row r="103" spans="1:18" ht="32">
       <c r="A103" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49804,7 +49736,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="31.2">
+    <row r="104" spans="1:18" ht="32">
       <c r="A104" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49843,7 +49775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="31.2">
+    <row r="105" spans="1:18" ht="32">
       <c r="A105" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49882,7 +49814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="31.2">
+    <row r="106" spans="1:18" ht="32">
       <c r="A106" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49960,7 +49892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="31.2">
+    <row r="108" spans="1:18" ht="32">
       <c r="A108" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50038,7 +49970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="31.2">
+    <row r="110" spans="1:18" ht="32">
       <c r="A110" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50113,7 +50045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="31.2">
+    <row r="112" spans="1:18" ht="32">
       <c r="A112" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50149,7 +50081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18" ht="31.2">
+    <row r="113" spans="1:18">
       <c r="A113" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50236,7 +50168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="31.2">
+    <row r="115" spans="1:18" ht="32">
       <c r="A115" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50269,7 +50201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="31.2">
+    <row r="116" spans="1:18" ht="32">
       <c r="A116" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50299,7 +50231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="31.2">
+    <row r="117" spans="1:18" ht="32">
       <c r="A117" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50332,7 +50264,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="46.8">
+    <row r="118" spans="1:18" ht="48">
       <c r="A118" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50368,7 +50300,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="31.2">
+    <row r="119" spans="1:18" ht="32">
       <c r="A119" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50407,7 +50339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="31.2">
+    <row r="120" spans="1:18" ht="32">
       <c r="A120" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50449,7 +50381,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="31.2">
+    <row r="121" spans="1:18" ht="32">
       <c r="A121" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50575,7 +50507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="31.2">
+    <row r="124" spans="1:18" ht="32">
       <c r="A124" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50659,7 +50591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18">
+    <row r="126" spans="1:18" ht="19">
       <c r="A126" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50698,7 +50630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="31.2">
+    <row r="127" spans="1:18" ht="32">
       <c r="A127" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50737,7 +50669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="46.8">
+    <row r="128" spans="1:18" ht="48">
       <c r="A128" s="1" t="s">
         <v>759</v>
       </c>
@@ -50782,7 +50714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="31.2">
+    <row r="129" spans="1:18" ht="32">
       <c r="A129" s="1" t="s">
         <v>759</v>
       </c>
@@ -50824,7 +50756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="31.2">
+    <row r="130" spans="1:18" ht="32">
       <c r="A130" s="1" t="s">
         <v>759</v>
       </c>
@@ -50872,7 +50804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="31.2">
+    <row r="131" spans="1:18" ht="32">
       <c r="A131" s="1" t="s">
         <v>759</v>
       </c>
@@ -50917,7 +50849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="31.2">
+    <row r="132" spans="1:18" ht="32">
       <c r="A132" s="1" t="s">
         <v>759</v>
       </c>
@@ -50959,7 +50891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="46.8">
+    <row r="133" spans="1:18" ht="48">
       <c r="A133" s="1" t="s">
         <v>759</v>
       </c>
@@ -51004,7 +50936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="62.4">
+    <row r="134" spans="1:18" ht="64">
       <c r="A134" s="1" t="s">
         <v>759</v>
       </c>
@@ -51040,7 +50972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="31.2">
+    <row r="135" spans="1:18" ht="32">
       <c r="A135" s="1" t="s">
         <v>759</v>
       </c>
@@ -51109,7 +51041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="31.2">
+    <row r="137" spans="1:18" ht="32">
       <c r="A137" s="1" t="s">
         <v>759</v>
       </c>
@@ -51142,7 +51074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="31.2">
+    <row r="138" spans="1:18" ht="32">
       <c r="A138" s="1" t="s">
         <v>759</v>
       </c>
@@ -51175,7 +51107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="31.2">
+    <row r="139" spans="1:18" ht="32">
       <c r="A139" s="1" t="s">
         <v>759</v>
       </c>
@@ -51205,7 +51137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="31.2">
+    <row r="140" spans="1:18" ht="32">
       <c r="A140" s="1" t="s">
         <v>660</v>
       </c>
@@ -51235,7 +51167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="31.2">
+    <row r="141" spans="1:18" ht="32">
       <c r="A141" s="1" t="s">
         <v>660</v>
       </c>
@@ -51268,7 +51200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="31.2">
+    <row r="142" spans="1:18" ht="32">
       <c r="A142" s="1" t="s">
         <v>660</v>
       </c>
@@ -51301,7 +51233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="31.2">
+    <row r="143" spans="1:18" ht="32">
       <c r="A143" s="1" t="s">
         <v>660</v>
       </c>
@@ -51370,7 +51302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="31.2">
+    <row r="145" spans="1:18" ht="32">
       <c r="A145" s="1" t="s">
         <v>660</v>
       </c>
@@ -51442,7 +51374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="31.2">
+    <row r="147" spans="1:18" ht="32">
       <c r="A147" s="1" t="s">
         <v>660</v>
       </c>
@@ -51475,7 +51407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:18">
+    <row r="148" spans="1:18" ht="19">
       <c r="A148" s="1" t="s">
         <v>660</v>
       </c>
@@ -51520,7 +51452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="31.2">
+    <row r="149" spans="1:18" ht="32">
       <c r="A149" s="1" t="s">
         <v>660</v>
       </c>
@@ -51559,7 +51491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:18">
+    <row r="150" spans="1:18" ht="19">
       <c r="A150" s="1" t="s">
         <v>660</v>
       </c>
@@ -51598,7 +51530,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="31.2">
+    <row r="151" spans="1:18" ht="32">
       <c r="A151" s="1" t="s">
         <v>660</v>
       </c>
@@ -51643,7 +51575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="31.2">
+    <row r="152" spans="1:18" ht="32">
       <c r="A152" s="1" t="s">
         <v>660</v>
       </c>
@@ -51679,7 +51611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="31.2">
+    <row r="153" spans="1:18" ht="32">
       <c r="A153" s="1" t="s">
         <v>660</v>
       </c>
@@ -51754,7 +51686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="31.2">
+    <row r="155" spans="1:18" ht="32">
       <c r="A155" s="1" t="s">
         <v>660</v>
       </c>
@@ -51829,7 +51761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="31.2">
+    <row r="157" spans="1:18" ht="32">
       <c r="A157" s="1" t="s">
         <v>660</v>
       </c>
@@ -51970,7 +51902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="31.2">
+    <row r="161" spans="1:18" ht="32">
       <c r="A161" s="1" t="s">
         <v>660</v>
       </c>
@@ -52036,7 +51968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18">
+    <row r="163" spans="1:18" ht="19">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -52117,7 +52049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="31.2">
+    <row r="165" spans="1:18" ht="32">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -52153,7 +52085,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="31.2">
+    <row r="166" spans="1:18" ht="32">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -52192,7 +52124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="31.2">
+    <row r="167" spans="1:18" ht="32">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -52231,7 +52163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="31.2">
+    <row r="168" spans="1:18" ht="32">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -52273,7 +52205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="31.2">
+    <row r="169" spans="1:18" ht="32">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -52315,7 +52247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="46.8">
+    <row r="170" spans="1:18" ht="48">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -52360,7 +52292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="46.8">
+    <row r="171" spans="1:18" ht="48">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -52402,7 +52334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="31.2">
+    <row r="172" spans="1:18" ht="32">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -52451,7 +52383,7 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:G1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -52470,28 +52402,28 @@
       <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="9" customWidth="1"/>
+    <col min="1" max="2" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.83203125" style="9" customWidth="1"/>
+    <col min="13" max="14" width="12.85546875" style="9" customWidth="1"/>
     <col min="15" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="9" customWidth="1"/>
     <col min="18" max="18" width="60" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.1640625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.75" style="9"/>
+    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.7109375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -52556,7 +52488,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="46.8">
+    <row r="2" spans="1:22" ht="48">
       <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
@@ -52601,7 +52533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="46.8">
+    <row r="3" spans="1:22" ht="48">
       <c r="A3" s="9" t="s">
         <v>294</v>
       </c>
@@ -52649,7 +52581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="46.8">
+    <row r="4" spans="1:22" ht="48">
       <c r="A4" s="9" t="s">
         <v>294</v>
       </c>
@@ -52694,7 +52626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="34.799999999999997">
+    <row r="5" spans="1:22" ht="38">
       <c r="A5" s="9" t="s">
         <v>294</v>
       </c>
@@ -52787,7 +52719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="31.2">
+    <row r="7" spans="1:22" ht="32">
       <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
@@ -52838,7 +52770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="46.8">
+    <row r="8" spans="1:22" ht="48">
       <c r="A8" s="9" t="s">
         <v>294</v>
       </c>
@@ -52886,7 +52818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="46.8">
+    <row r="9" spans="1:22" ht="48">
       <c r="A9" s="9" t="s">
         <v>294</v>
       </c>
@@ -52935,7 +52867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="46.8">
+    <row r="10" spans="1:22" ht="48">
       <c r="A10" s="9" t="s">
         <v>294</v>
       </c>
@@ -52986,7 +52918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="46.8">
+    <row r="11" spans="1:22" ht="48">
       <c r="A11" s="9" t="s">
         <v>294</v>
       </c>
@@ -53040,7 +52972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="31.2">
+    <row r="12" spans="1:22" ht="32">
       <c r="A12" s="9" t="s">
         <v>294</v>
       </c>
@@ -53085,7 +53017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="46.8">
+    <row r="13" spans="1:22" ht="48">
       <c r="A13" s="9" t="s">
         <v>294</v>
       </c>
@@ -53133,7 +53065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="46.8">
+    <row r="14" spans="1:22" ht="48">
       <c r="A14" s="9" t="s">
         <v>294</v>
       </c>
@@ -53184,7 +53116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="34.799999999999997">
+    <row r="15" spans="1:22" ht="38">
       <c r="A15" s="9" t="s">
         <v>294</v>
       </c>
@@ -53229,7 +53161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="46.8">
+    <row r="16" spans="1:22" ht="48">
       <c r="A16" s="9" t="s">
         <v>294</v>
       </c>
@@ -53277,7 +53209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="46.8">
+    <row r="17" spans="1:22" ht="48">
       <c r="A17" s="9" t="s">
         <v>294</v>
       </c>
@@ -53322,7 +53254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="46.8">
+    <row r="18" spans="1:22" ht="48">
       <c r="A18" s="9" t="s">
         <v>294</v>
       </c>
@@ -53361,7 +53293,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="31.2">
+    <row r="19" spans="1:22" ht="32">
       <c r="A19" s="9" t="s">
         <v>294</v>
       </c>
@@ -53412,7 +53344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="31.2">
+    <row r="20" spans="1:22" ht="32">
       <c r="A20" s="9" t="s">
         <v>294</v>
       </c>
@@ -53458,7 +53390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="31.2">
+    <row r="21" spans="1:22" ht="32">
       <c r="A21" s="9" t="s">
         <v>294</v>
       </c>
@@ -53503,7 +53435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="31.2">
+    <row r="22" spans="1:22" ht="32">
       <c r="A22" s="9" t="s">
         <v>294</v>
       </c>
@@ -53545,7 +53477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="31.2">
+    <row r="23" spans="1:22" ht="32">
       <c r="A23" s="9" t="s">
         <v>294</v>
       </c>
@@ -53581,7 +53513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="31.2">
+    <row r="24" spans="1:22" ht="32">
       <c r="A24" s="9" t="s">
         <v>294</v>
       </c>
@@ -53614,7 +53546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="46.8">
+    <row r="25" spans="1:22" ht="48">
       <c r="A25" s="9" t="s">
         <v>294</v>
       </c>
@@ -53647,7 +53579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="78">
+    <row r="26" spans="1:22" ht="80">
       <c r="A26" s="9" t="s">
         <v>294</v>
       </c>
@@ -53683,7 +53615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="31.2">
+    <row r="27" spans="1:22" ht="32">
       <c r="A27" s="9" t="s">
         <v>538</v>
       </c>
@@ -53739,7 +53671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="31.2">
+    <row r="28" spans="1:22" ht="32">
       <c r="A28" s="9" t="s">
         <v>538</v>
       </c>
@@ -53784,7 +53716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="34.799999999999997">
+    <row r="29" spans="1:22" ht="38">
       <c r="A29" s="9" t="s">
         <v>538</v>
       </c>
@@ -53835,7 +53767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="31.2">
+    <row r="30" spans="1:22" ht="32">
       <c r="A30" s="9" t="s">
         <v>538</v>
       </c>
@@ -53874,7 +53806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="34.799999999999997">
+    <row r="31" spans="1:22" ht="38">
       <c r="A31" s="9" t="s">
         <v>538</v>
       </c>
@@ -53922,7 +53854,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="31.2">
+    <row r="32" spans="1:22" ht="32">
       <c r="A32" s="9" t="s">
         <v>538</v>
       </c>
@@ -53979,7 +53911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="31.2">
+    <row r="33" spans="1:22" ht="32">
       <c r="A33" s="9" t="s">
         <v>538</v>
       </c>
@@ -54024,7 +53956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="31.2">
+    <row r="34" spans="1:22" ht="32">
       <c r="A34" s="9" t="s">
         <v>538</v>
       </c>
@@ -54066,7 +53998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="46.8">
+    <row r="35" spans="1:22" ht="57">
       <c r="A35" s="9" t="s">
         <v>538</v>
       </c>
@@ -54117,7 +54049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="31.2">
+    <row r="36" spans="1:22" ht="32">
       <c r="A36" s="9" t="s">
         <v>538</v>
       </c>
@@ -54159,7 +54091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="46.8">
+    <row r="37" spans="1:22" ht="48">
       <c r="A37" s="9" t="s">
         <v>538</v>
       </c>
@@ -54204,7 +54136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="46.8">
+    <row r="38" spans="1:22" ht="48">
       <c r="A38" s="9" t="s">
         <v>538</v>
       </c>
@@ -54249,7 +54181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="52.2">
+    <row r="39" spans="1:22" ht="57">
       <c r="A39" s="9" t="s">
         <v>538</v>
       </c>
@@ -54294,7 +54226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="31.2">
+    <row r="40" spans="1:22" ht="32">
       <c r="A40" s="9" t="s">
         <v>538</v>
       </c>
@@ -54336,7 +54268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="31.2">
+    <row r="41" spans="1:22" ht="32">
       <c r="A41" s="9" t="s">
         <v>538</v>
       </c>
@@ -54378,7 +54310,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="31.2">
+    <row r="42" spans="1:22" ht="32">
       <c r="A42" s="9" t="s">
         <v>538</v>
       </c>
@@ -54414,7 +54346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="31.2">
+    <row r="43" spans="1:22" ht="32">
       <c r="A43" s="9" t="s">
         <v>538</v>
       </c>
@@ -54465,7 +54397,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="31.2">
+    <row r="44" spans="1:22" ht="32">
       <c r="A44" s="9" t="s">
         <v>538</v>
       </c>
@@ -54510,7 +54442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="31.2">
+    <row r="45" spans="1:22" ht="32">
       <c r="A45" s="9" t="s">
         <v>538</v>
       </c>
@@ -54552,7 +54484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="46.8">
+    <row r="46" spans="1:22" ht="48">
       <c r="A46" s="9" t="s">
         <v>538</v>
       </c>
@@ -54595,7 +54527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="46.8">
+    <row r="47" spans="1:22" ht="48">
       <c r="A47" s="9" t="s">
         <v>538</v>
       </c>
@@ -54634,7 +54566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="46.8">
+    <row r="48" spans="1:22" ht="48">
       <c r="A48" s="9" t="s">
         <v>538</v>
       </c>
@@ -54679,7 +54611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="62.4">
+    <row r="49" spans="1:22" ht="64">
       <c r="A49" s="9" t="s">
         <v>538</v>
       </c>
@@ -54725,7 +54657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="32.4">
+    <row r="50" spans="1:22" ht="50">
       <c r="A50" s="9" t="s">
         <v>538</v>
       </c>
@@ -54779,7 +54711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="47.4">
+    <row r="51" spans="1:22" ht="49">
       <c r="A51" s="9" t="s">
         <v>538</v>
       </c>
@@ -54827,7 +54759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="31.2">
+    <row r="52" spans="1:22" ht="32">
       <c r="A52" s="9" t="s">
         <v>538</v>
       </c>
@@ -54875,7 +54807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="31.8">
+    <row r="53" spans="1:22" ht="33">
       <c r="A53" s="9" t="s">
         <v>538</v>
       </c>
@@ -54920,7 +54852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="31.2">
+    <row r="54" spans="1:22" ht="32">
       <c r="A54" s="9" t="s">
         <v>1739</v>
       </c>
@@ -54971,7 +54903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="46.8">
+    <row r="55" spans="1:22" ht="48">
       <c r="A55" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55013,7 +54945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="31.2">
+    <row r="56" spans="1:22" ht="32">
       <c r="A56" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55064,7 +54996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="31.2">
+    <row r="57" spans="1:22" ht="32">
       <c r="A57" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55106,7 +55038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="31.2">
+    <row r="58" spans="1:22" ht="32">
       <c r="A58" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55151,7 +55083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="31.2">
+    <row r="59" spans="1:22" ht="32">
       <c r="A59" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55193,7 +55125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="31.2">
+    <row r="60" spans="1:22" ht="32">
       <c r="A60" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55413,7 +55345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22">
+    <row r="65" spans="1:22" ht="32">
       <c r="A65" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55455,7 +55387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="31.2">
+    <row r="66" spans="1:22" ht="32">
       <c r="A66" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55491,7 +55423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="31.2">
+    <row r="67" spans="1:22" ht="32">
       <c r="A67" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55536,7 +55468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="31.2">
+    <row r="68" spans="1:22" ht="32">
       <c r="A68" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55581,7 +55513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="31.2">
+    <row r="69" spans="1:22" ht="32">
       <c r="A69" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55632,7 +55564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="31.2">
+    <row r="70" spans="1:22" ht="32">
       <c r="A70" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55680,7 +55612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="31.2">
+    <row r="71" spans="1:22" ht="32">
       <c r="A71" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55770,7 +55702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="31.2">
+    <row r="73" spans="1:22" ht="32">
       <c r="A73" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55818,7 +55750,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="31.2">
+    <row r="74" spans="1:22" ht="32">
       <c r="A74" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55863,7 +55795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="31.2">
+    <row r="75" spans="1:22" ht="32">
       <c r="A75" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55905,7 +55837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="31.2">
+    <row r="76" spans="1:22" ht="32">
       <c r="A76" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55947,7 +55879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="31.2">
+    <row r="77" spans="1:22" ht="32">
       <c r="A77" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55989,7 +55921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="31.2">
+    <row r="78" spans="1:22" ht="32">
       <c r="A78" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56034,7 +55966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="31.2">
+    <row r="79" spans="1:22" ht="32">
       <c r="A79" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56079,7 +56011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="46.8">
+    <row r="80" spans="1:22" ht="48">
       <c r="A80" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56121,7 +56053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="31.2">
+    <row r="81" spans="1:22" ht="32">
       <c r="A81" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56166,7 +56098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="31.2">
+    <row r="82" spans="1:22" ht="32">
       <c r="A82" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56205,7 +56137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="46.8">
+    <row r="83" spans="1:22" ht="38">
       <c r="A83" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56241,7 +56173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="31.2">
+    <row r="84" spans="1:22" ht="32">
       <c r="A84" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56277,7 +56209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="31.2">
+    <row r="85" spans="1:22" ht="32">
       <c r="A85" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56319,7 +56251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="31.2">
+    <row r="86" spans="1:22" ht="32">
       <c r="A86" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56361,7 +56293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="31.2">
+    <row r="87" spans="1:22" ht="32">
       <c r="A87" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56397,7 +56329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="31.2">
+    <row r="88" spans="1:22" ht="32">
       <c r="A88" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56436,7 +56368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="31.2">
+    <row r="89" spans="1:22" ht="32">
       <c r="A89" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56475,7 +56407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="31.2">
+    <row r="90" spans="1:22" ht="32">
       <c r="A90" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56520,7 +56452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="31.2">
+    <row r="91" spans="1:22" ht="32">
       <c r="A91" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56562,7 +56494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="31.2">
+    <row r="92" spans="1:22" ht="32">
       <c r="A92" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56598,7 +56530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="31.2">
+    <row r="93" spans="1:22" ht="32">
       <c r="A93" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56640,7 +56572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="31.2">
+    <row r="94" spans="1:22" ht="32">
       <c r="A94" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56682,7 +56614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="31.2">
+    <row r="95" spans="1:22" ht="32">
       <c r="A95" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56715,7 +56647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="46.8">
+    <row r="96" spans="1:22" ht="48">
       <c r="A96" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56754,7 +56686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="31.2">
+    <row r="97" spans="1:22" ht="32">
       <c r="A97" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56802,7 +56734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="31.2">
+    <row r="98" spans="1:22" ht="32">
       <c r="A98" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56838,7 +56770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="31.2">
+    <row r="99" spans="1:22" ht="32">
       <c r="A99" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56880,7 +56812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="31.2">
+    <row r="100" spans="1:22" ht="32">
       <c r="A100" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56919,7 +56851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="31.2">
+    <row r="101" spans="1:22" ht="32">
       <c r="A101" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56961,7 +56893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="46.8">
+    <row r="102" spans="1:22" ht="48">
       <c r="A102" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57003,7 +56935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="31.2">
+    <row r="103" spans="1:22" ht="32">
       <c r="A103" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57036,7 +56968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="31.2">
+    <row r="104" spans="1:22" ht="32">
       <c r="A104" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57075,7 +57007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="31.2">
+    <row r="105" spans="1:22" ht="32">
       <c r="A105" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57117,7 +57049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="31.2">
+    <row r="106" spans="1:22" ht="32">
       <c r="A106" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57204,7 +57136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="31.2">
+    <row r="108" spans="1:22" ht="32">
       <c r="A108" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57288,7 +57220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="31.2">
+    <row r="110" spans="1:22" ht="32">
       <c r="A110" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57378,7 +57310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="31.2">
+    <row r="112" spans="1:22" ht="32">
       <c r="A112" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57423,7 +57355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="31.2">
+    <row r="113" spans="1:22" ht="32">
       <c r="A113" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57465,7 +57397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="31.2">
+    <row r="114" spans="1:22" ht="32">
       <c r="A114" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57510,7 +57442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="31.2">
+    <row r="115" spans="1:22" ht="32">
       <c r="A115" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57549,7 +57481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="31.2">
+    <row r="116" spans="1:22" ht="32">
       <c r="A116" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57588,7 +57520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="31.2">
+    <row r="117" spans="1:22" ht="32">
       <c r="A117" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57621,7 +57553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="46.8">
+    <row r="118" spans="1:22" ht="48">
       <c r="A118" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57663,7 +57595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="31.2">
+    <row r="119" spans="1:22" ht="32">
       <c r="A119" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57711,7 +57643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="31.2">
+    <row r="120" spans="1:22" ht="32">
       <c r="A120" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57759,7 +57691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="31.2">
+    <row r="121" spans="1:22" ht="32">
       <c r="A121" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57891,7 +57823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="31.2">
+    <row r="124" spans="1:22" ht="32">
       <c r="A124" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57939,7 +57871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="31.2">
+    <row r="125" spans="1:22" ht="32">
       <c r="A125" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57982,7 +57914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="31.2">
+    <row r="126" spans="1:22" ht="32">
       <c r="A126" s="9" t="s">
         <v>1742</v>
       </c>
@@ -58024,7 +57956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="31.2">
+    <row r="127" spans="1:22" ht="32">
       <c r="A127" s="9" t="s">
         <v>1742</v>
       </c>
@@ -58066,7 +57998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="46.8">
+    <row r="128" spans="1:22" ht="48">
       <c r="A128" s="9" t="s">
         <v>759</v>
       </c>
@@ -58117,7 +58049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="31.2">
+    <row r="129" spans="1:22" ht="32">
       <c r="A129" s="9" t="s">
         <v>759</v>
       </c>
@@ -58159,7 +58091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="31.2">
+    <row r="130" spans="1:22" ht="32">
       <c r="A130" s="9" t="s">
         <v>759</v>
       </c>
@@ -58210,7 +58142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="31.2">
+    <row r="131" spans="1:22" ht="32">
       <c r="A131" s="9" t="s">
         <v>759</v>
       </c>
@@ -58258,7 +58190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="46.8">
+    <row r="132" spans="1:22" ht="48">
       <c r="A132" s="9" t="s">
         <v>759</v>
       </c>
@@ -58300,7 +58232,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="46.8">
+    <row r="133" spans="1:22" ht="48">
       <c r="A133" s="9" t="s">
         <v>759</v>
       </c>
@@ -58348,7 +58280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="62.4">
+    <row r="134" spans="1:22" ht="64">
       <c r="A134" s="9" t="s">
         <v>759</v>
       </c>
@@ -58384,7 +58316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="31.2">
+    <row r="135" spans="1:22" ht="32">
       <c r="A135" s="9" t="s">
         <v>759</v>
       </c>
@@ -58456,7 +58388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="31.2">
+    <row r="137" spans="1:22" ht="32">
       <c r="A137" s="9" t="s">
         <v>759</v>
       </c>
@@ -58492,7 +58424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="31.2">
+    <row r="138" spans="1:22" ht="32">
       <c r="A138" s="9" t="s">
         <v>759</v>
       </c>
@@ -58528,7 +58460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="31.2">
+    <row r="139" spans="1:22" ht="32">
       <c r="A139" s="9" t="s">
         <v>759</v>
       </c>
@@ -58558,7 +58490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="31.2">
+    <row r="140" spans="1:22" ht="32">
       <c r="A140" s="9" t="s">
         <v>660</v>
       </c>
@@ -58594,7 +58526,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="31.2">
+    <row r="141" spans="1:22" ht="32">
       <c r="A141" s="9" t="s">
         <v>660</v>
       </c>
@@ -58633,7 +58565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="31.2">
+    <row r="142" spans="1:22" ht="32">
       <c r="A142" s="9" t="s">
         <v>660</v>
       </c>
@@ -58666,7 +58598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="31.2">
+    <row r="143" spans="1:22" ht="32">
       <c r="A143" s="9" t="s">
         <v>660</v>
       </c>
@@ -58699,7 +58631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:22" ht="31.2">
+    <row r="144" spans="1:22">
       <c r="A144" s="9" t="s">
         <v>660</v>
       </c>
@@ -58741,7 +58673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="31.2">
+    <row r="145" spans="1:22" ht="32">
       <c r="A145" s="9" t="s">
         <v>660</v>
       </c>
@@ -58819,7 +58751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="31.2">
+    <row r="147" spans="1:22" ht="32">
       <c r="A147" s="9" t="s">
         <v>660</v>
       </c>
@@ -58858,7 +58790,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:22">
+    <row r="148" spans="1:22" ht="19">
       <c r="A148" s="9" t="s">
         <v>660</v>
       </c>
@@ -58903,7 +58835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="31.2">
+    <row r="149" spans="1:22" ht="32">
       <c r="A149" s="9" t="s">
         <v>660</v>
       </c>
@@ -58951,7 +58883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:22">
+    <row r="150" spans="1:22" ht="19">
       <c r="A150" s="9" t="s">
         <v>660</v>
       </c>
@@ -58996,7 +58928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="31.2">
+    <row r="151" spans="1:22" ht="32">
       <c r="A151" s="9" t="s">
         <v>660</v>
       </c>
@@ -59047,7 +58979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="31.2">
+    <row r="152" spans="1:22" ht="32">
       <c r="A152" s="9" t="s">
         <v>660</v>
       </c>
@@ -59092,7 +59024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="31.2">
+    <row r="153" spans="1:22" ht="32">
       <c r="A153" s="9" t="s">
         <v>660</v>
       </c>
@@ -59176,7 +59108,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="31.2">
+    <row r="155" spans="1:22" ht="32">
       <c r="A155" s="9" t="s">
         <v>660</v>
       </c>
@@ -59260,7 +59192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="31.2">
+    <row r="157" spans="1:22" ht="32">
       <c r="A157" s="9" t="s">
         <v>660</v>
       </c>
@@ -59416,7 +59348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="31.2">
+    <row r="161" spans="1:22" ht="32">
       <c r="A161" s="9" t="s">
         <v>660</v>
       </c>
@@ -59491,7 +59423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:22">
+    <row r="163" spans="1:22" ht="19">
       <c r="A163" s="9" t="s">
         <v>19</v>
       </c>
@@ -59575,7 +59507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="31.2">
+    <row r="165" spans="1:22" ht="32">
       <c r="A165" s="9" t="s">
         <v>19</v>
       </c>
@@ -59620,7 +59552,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="31.2">
+    <row r="166" spans="1:22" ht="32">
       <c r="A166" s="9" t="s">
         <v>19</v>
       </c>
@@ -59659,7 +59591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="31.2">
+    <row r="167" spans="1:22" ht="32">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -59701,7 +59633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="31.2">
+    <row r="168" spans="1:22" ht="32">
       <c r="A168" s="9" t="s">
         <v>19</v>
       </c>
@@ -59746,7 +59678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="31.2">
+    <row r="169" spans="1:22" ht="32">
       <c r="A169" s="9" t="s">
         <v>19</v>
       </c>
@@ -59788,7 +59720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="46.8">
+    <row r="170" spans="1:22" ht="48">
       <c r="A170" s="9" t="s">
         <v>19</v>
       </c>
@@ -59839,7 +59771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="46.8">
+    <row r="171" spans="1:22" ht="48">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -59884,7 +59816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="31.2">
+    <row r="172" spans="1:22" ht="32">
       <c r="A172" s="9" t="s">
         <v>19</v>
       </c>
@@ -59934,7 +59866,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V172">
     <sortCondition ref="D2:D172"/>
     <sortCondition ref="U2:U172"/>
-    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="17"/>
+    <sortCondition sortBy="cellColor" ref="A2:A172" dxfId="18"/>
     <sortCondition ref="F2:F172"/>
     <sortCondition ref="A2:A172"/>
     <sortCondition ref="L2:L172"/>
@@ -59953,22 +59885,22 @@
   <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:R119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="1"/>
-    <col min="4" max="4" width="28.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.75" style="1"/>
-    <col min="14" max="17" width="8.75" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="1"/>
+    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
+    <col min="6" max="12" width="8.7109375" style="1"/>
+    <col min="14" max="17" width="8.7109375" style="1"/>
     <col min="18" max="18" width="5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.75" style="1"/>
+    <col min="19" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -59987,7 +59919,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>3103</v>
+        <v>3106</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3088</v>
@@ -60063,7 +59995,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>3090</v>
@@ -60137,7 +60069,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3105</v>
+        <v>3107</v>
       </c>
       <c r="M12" s="1"/>
     </row>
@@ -60233,7 +60165,7 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3102</v>
+        <v>3108</v>
       </c>
       <c r="M18" s="1"/>
     </row>
@@ -60320,7 +60252,7 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3106</v>
+        <v>3109</v>
       </c>
       <c r="M24" s="1"/>
     </row>
@@ -60407,7 +60339,7 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="M30" s="1"/>
     </row>
@@ -60494,7 +60426,7 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3094</v>
+        <v>3110</v>
       </c>
       <c r="M36" s="1"/>
     </row>
@@ -60581,7 +60513,7 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="M42" s="1"/>
     </row>
@@ -60653,7 +60585,7 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="M47" s="1"/>
       <c r="R47" s="1">
@@ -60683,7 +60615,7 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="M49" s="1"/>
     </row>
@@ -60710,7 +60642,7 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="M51" s="1"/>
       <c r="R51" s="1">
@@ -60782,7 +60714,7 @@
         <v>2796</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="M56" s="1"/>
     </row>
@@ -60896,7 +60828,7 @@
         <v>2798</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="M64" s="1"/>
     </row>
@@ -61025,7 +60957,7 @@
         <v>2799</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="M73" s="1"/>
     </row>
@@ -61154,7 +61086,7 @@
         <v>2714</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
       <c r="M82" s="1"/>
     </row>
@@ -61298,7 +61230,7 @@
         <v>71</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="M92" s="1"/>
     </row>
@@ -61457,7 +61389,7 @@
         <v>2707</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="M103" s="1"/>
     </row>
@@ -61722,16 +61654,16 @@
       <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="13"/>
+    <col min="1" max="1" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7109375" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64413,15 +64345,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C18:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.7109375" style="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.75" style="1"/>
+    <col min="7" max="9" width="8.7109375" style="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.75" style="1"/>
+    <col min="11" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64950,20 +64882,20 @@
       <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="1" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -65657,7 +65589,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" ht="19">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -65677,7 +65609,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" ht="19">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -68055,19 +67987,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
-    <col min="11" max="14" width="8.75" style="1"/>
-    <col min="17" max="16384" width="8.75" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.7109375" style="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -68372,7 +68304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="34.799999999999997">
+    <row r="16" spans="1:18" ht="38">
       <c r="A16" s="1" t="s">
         <v>629</v>
       </c>
@@ -68393,7 +68325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="34.799999999999997">
+    <row r="17" spans="1:18" ht="38">
       <c r="A17" s="1" t="s">
         <v>635</v>
       </c>
@@ -69230,19 +69162,19 @@
       <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="1"/>
-    <col min="3" max="3" width="3.58203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="1"/>
+    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.7109375" style="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1"/>
-    <col min="9" max="9" width="22.4140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="1"/>
-    <col min="13" max="16384" width="8.75" style="1"/>
+    <col min="8" max="8" width="8.7109375" style="1"/>
+    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1"/>
+    <col min="13" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -69484,7 +69416,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="69.599999999999994">
+    <row r="23" spans="1:10" ht="76">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -70933,7 +70865,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="34.799999999999997">
+    <row r="104" spans="1:10" ht="38">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -72305,7 +72237,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="52.2">
+    <row r="177" spans="1:10" ht="57">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -75095,7 +75027,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="34.799999999999997">
+    <row r="334" spans="1:11" ht="38">
       <c r="A334" s="1" t="s">
         <v>91</v>
       </c>

--- a/整理.xlsx
+++ b/整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuda/练功_中医/yikao/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\练功_中医\中医考试\yikao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7F4E01-7755-4C4E-B540-CDA708930552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E739F6-5EF4-4CC4-958B-F67F107C0085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" activeTab="3" xr2:uid="{14FD703D-164D-4357-942D-0FBD9C4C4276}"/>
   </bookViews>
   <sheets>
     <sheet name="内科" sheetId="18" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12639" uniqueCount="3111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12701" uniqueCount="3153">
   <si>
     <t>药</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14562,22 +14562,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>承山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>心 胃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>泻热火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前阴 妇科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14606,10 +14594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肿猪纸狗 歪官贱僚 细缝丝竹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明珠煮熟料 只应卖昆仑山中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14618,10 +14602,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>肝气闷苔虫 心尖打盹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小尝养老甜粽 停工后稀少</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14634,10 +14614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三巨龙听 天书归来 地仓驾车围下关头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>去砸细门关老公</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -14646,15 +14622,210 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>三银领券 公孙血海饮白啤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 桶里门神烧虫 影戏烧海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>硬骨太细 父留用犬找孩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三巨龙听 天书归来 地仓驾车下关头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血海三银领券 公孙饮白啤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝气闷太冲 心尖打盹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻热/火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开心窍 心率
+呕吐恶心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前阴 妇科 尿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔豚 乳痈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌强不语暴音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>印玺 桶里闷烧海虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疳积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳痈乳少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落枕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目视不明 头面痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乳痈 气喘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿痛 癫狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妇科 前阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心烦神志 逆气 冲脉病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补阴 妇科 心悸 湿疹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利水 男科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月经 疹 治风先治血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头 五官病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晕厥 神志
+咯血咽喉肺系
+ 大小便 奔豚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申脉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补肾阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水 汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>委中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头面五官 热 神志 皮肤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头面 汗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孕妇禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疏散风热 疹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤病 热 外风 活血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘰疬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛔虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头面 热 胸胁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便秘 耳 瘰疬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热(疹)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>齿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外关 -便秘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肿猪纸狗 歪官贱僚 医封死猪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关穴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺泽 少海 承山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太溪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>髓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目 疟疾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中渚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦小胆 门宫会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14956,6 +15127,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -14975,7 +15214,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -15274,18 +15513,18 @@
       <selection pane="bottomRight" activeCell="E10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="1"/>
-    <col min="8" max="8" width="24.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="5.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="24.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -15305,7 +15544,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="19">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -15387,7 +15626,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="38">
+    <row r="7" spans="1:9" ht="34.799999999999997">
       <c r="A7" s="1" t="s">
         <v>538</v>
       </c>
@@ -15577,7 +15816,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="38">
+    <row r="21" spans="1:9" ht="34.799999999999997">
       <c r="B21" s="1" t="s">
         <v>1763</v>
       </c>
@@ -15696,22 +15935,22 @@
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.28515625" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="1"/>
-    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1"/>
-    <col min="4" max="4" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="1"/>
-    <col min="9" max="9" width="16.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" style="1" customWidth="1"/>
-    <col min="11" max="16" width="5.28515625" style="1"/>
-    <col min="18" max="22" width="5.28515625" style="1"/>
+    <col min="1" max="1" width="5.25" style="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" style="1"/>
+    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.25" style="1"/>
+    <col min="9" max="9" width="16.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.58203125" style="1" customWidth="1"/>
+    <col min="11" max="16" width="5.25" style="1"/>
+    <col min="18" max="22" width="5.25" style="1"/>
     <col min="23" max="23" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="5.28515625" style="1"/>
+    <col min="24" max="16384" width="5.25" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
@@ -15944,7 +16183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="76">
+    <row r="12" spans="1:23" ht="69.599999999999994">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -16058,7 +16297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="38">
+    <row r="17" spans="1:23" ht="34.799999999999997">
       <c r="A17" s="1">
         <v>8</v>
       </c>
@@ -16199,7 +16438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="57">
+    <row r="23" spans="1:23" ht="52.2">
       <c r="A23" s="1">
         <v>9</v>
       </c>
@@ -16373,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="38">
+    <row r="31" spans="1:23" ht="34.799999999999997">
       <c r="A31" s="1">
         <v>12</v>
       </c>
@@ -16868,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:23" ht="38">
+    <row r="52" spans="1:23" ht="34.799999999999997">
       <c r="A52" s="1">
         <v>17</v>
       </c>
@@ -17058,15 +17297,15 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.5703125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="15.58203125" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="15.5703125" style="7"/>
+    <col min="3" max="3" width="38.25" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="15.58203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="19">
+    <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
         <v>2649</v>
       </c>
@@ -17077,7 +17316,7 @@
         <v>2654</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19">
+    <row r="3" spans="1:3">
       <c r="A3" s="8" t="s">
         <v>2650</v>
       </c>
@@ -17088,7 +17327,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19">
+    <row r="4" spans="1:3">
       <c r="A4" s="8" t="s">
         <v>1753</v>
       </c>
@@ -17099,7 +17338,7 @@
         <v>2656</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19">
+    <row r="5" spans="1:3">
       <c r="A5" s="8" t="s">
         <v>2044</v>
       </c>
@@ -17203,29 +17442,29 @@
       <selection pane="bottomLeft" activeCell="J19" sqref="C6:J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="3.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="36" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="44" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="3.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="36" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="44" width="5.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -28380,9 +28619,9 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -28594,12 +28833,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="1"/>
+    <col min="1" max="1" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.75" style="1"/>
+    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="5" max="16384" width="10.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -37463,9 +37702,9 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7.4140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -40918,7 +41157,7 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
@@ -41011,123 +41250,123 @@
       <selection activeCell="A3" sqref="A3:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.42578125" style="1"/>
-    <col min="25" max="25" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.42578125" style="1"/>
-    <col min="36" max="36" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="8.42578125" style="1"/>
-    <col min="41" max="42" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="62" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="76" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="93" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="99" max="103" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8.42578125" style="1"/>
-    <col min="106" max="106" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="110" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="120" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="5.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="137" max="139" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="8.42578125" style="1"/>
-    <col min="145" max="147" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="150" max="150" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="151" max="151" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="152" max="152" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="153" max="153" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="154" max="154" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="155" max="155" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="157" max="158" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="159" max="159" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="160" max="160" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="161" max="16384" width="8.42578125" style="1"/>
+    <col min="1" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.4140625" style="1"/>
+    <col min="25" max="25" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.4140625" style="1"/>
+    <col min="36" max="36" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.4140625" style="1"/>
+    <col min="41" max="42" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="52" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="62" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="76" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="91" max="93" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="103" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="8.4140625" style="1"/>
+    <col min="106" max="106" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="110" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="120" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="137" max="139" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="8.4140625" style="1"/>
+    <col min="145" max="147" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="157" max="158" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="161" max="16384" width="8.4140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:160">
@@ -45547,7 +45786,7 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -45596,26 +45835,26 @@
       <selection pane="bottomRight" activeCell="A48" sqref="A44:XFD48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="64.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="1"/>
+    <col min="14" max="14" width="12.83203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="64.4140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -45668,7 +45907,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="32">
+    <row r="2" spans="1:18" ht="31.2">
       <c r="A2" s="1" t="s">
         <v>294</v>
       </c>
@@ -45707,7 +45946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="32">
+    <row r="3" spans="1:18" ht="31.2">
       <c r="A3" s="1" t="s">
         <v>294</v>
       </c>
@@ -45752,7 +45991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="48">
+    <row r="4" spans="1:18" ht="46.8">
       <c r="A4" s="1" t="s">
         <v>294</v>
       </c>
@@ -45794,7 +46033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="38">
+    <row r="5" spans="1:18" ht="34.799999999999997">
       <c r="A5" s="1" t="s">
         <v>294</v>
       </c>
@@ -45875,7 +46114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="32">
+    <row r="7" spans="1:18" ht="31.2">
       <c r="A7" s="1" t="s">
         <v>294</v>
       </c>
@@ -45920,7 +46159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="32">
+    <row r="8" spans="1:18" ht="31.2">
       <c r="A8" s="1" t="s">
         <v>294</v>
       </c>
@@ -45956,7 +46195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="48">
+    <row r="9" spans="1:18" ht="46.8">
       <c r="A9" s="1" t="s">
         <v>294</v>
       </c>
@@ -46001,7 +46240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="48">
+    <row r="10" spans="1:18" ht="46.8">
       <c r="A10" s="1" t="s">
         <v>294</v>
       </c>
@@ -46046,7 +46285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="48">
+    <row r="11" spans="1:18" ht="46.8">
       <c r="A11" s="1" t="s">
         <v>294</v>
       </c>
@@ -46094,7 +46333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="32">
+    <row r="12" spans="1:18" ht="31.2">
       <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
@@ -46130,7 +46369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="48">
+    <row r="13" spans="1:18" ht="46.8">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -46172,7 +46411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="48">
+    <row r="14" spans="1:18" ht="46.8">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -46220,7 +46459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="38">
+    <row r="15" spans="1:18" ht="34.799999999999997">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -46265,7 +46504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="48">
+    <row r="16" spans="1:18" ht="46.8">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -46313,7 +46552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="32">
+    <row r="17" spans="1:18" ht="31.2">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -46355,7 +46594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="48">
+    <row r="18" spans="1:18" ht="46.8">
       <c r="A18" s="1" t="s">
         <v>294</v>
       </c>
@@ -46391,7 +46630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="32">
+    <row r="19" spans="1:18" ht="31.2">
       <c r="A19" s="1" t="s">
         <v>294</v>
       </c>
@@ -46436,7 +46675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="32">
+    <row r="20" spans="1:18" ht="31.2">
       <c r="A20" s="1" t="s">
         <v>294</v>
       </c>
@@ -46476,7 +46715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="32">
+    <row r="21" spans="1:18" ht="31.2">
       <c r="A21" s="1" t="s">
         <v>294</v>
       </c>
@@ -46518,7 +46757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="32">
+    <row r="22" spans="1:18" ht="31.2">
       <c r="A22" s="1" t="s">
         <v>294</v>
       </c>
@@ -46560,7 +46799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="32">
+    <row r="23" spans="1:18" ht="31.2">
       <c r="A23" s="1" t="s">
         <v>294</v>
       </c>
@@ -46593,7 +46832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="32">
+    <row r="24" spans="1:18" ht="31.2">
       <c r="A24" s="1" t="s">
         <v>294</v>
       </c>
@@ -46623,7 +46862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="32">
+    <row r="25" spans="1:18" ht="31.2">
       <c r="A25" s="1" t="s">
         <v>294</v>
       </c>
@@ -46653,7 +46892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="80">
+    <row r="26" spans="1:18" ht="62.4">
       <c r="A26" s="1" t="s">
         <v>294</v>
       </c>
@@ -46686,7 +46925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="32">
+    <row r="27" spans="1:18" ht="31.2">
       <c r="A27" s="1" t="s">
         <v>538</v>
       </c>
@@ -46735,7 +46974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="32">
+    <row r="28" spans="1:18" ht="31.2">
       <c r="A28" s="1" t="s">
         <v>538</v>
       </c>
@@ -46780,7 +47019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:18" ht="38">
+    <row r="29" spans="1:18" ht="34.799999999999997">
       <c r="A29" s="1" t="s">
         <v>538</v>
       </c>
@@ -46831,7 +47070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="32">
+    <row r="30" spans="1:18" ht="31.2">
       <c r="A30" s="1" t="s">
         <v>538</v>
       </c>
@@ -46870,7 +47109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="38">
+    <row r="31" spans="1:18" ht="34.799999999999997">
       <c r="A31" s="1" t="s">
         <v>538</v>
       </c>
@@ -46912,7 +47151,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="32">
+    <row r="32" spans="1:18" ht="31.2">
       <c r="A32" s="1" t="s">
         <v>538</v>
       </c>
@@ -46961,7 +47200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="32">
+    <row r="33" spans="1:18" ht="31.2">
       <c r="A33" s="1" t="s">
         <v>538</v>
       </c>
@@ -47003,7 +47242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="32">
+    <row r="34" spans="1:18" ht="31.2">
       <c r="A34" s="1" t="s">
         <v>538</v>
       </c>
@@ -47045,7 +47284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="48">
+    <row r="35" spans="1:18" ht="46.8">
       <c r="A35" s="1" t="s">
         <v>538</v>
       </c>
@@ -47084,7 +47323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="32">
+    <row r="36" spans="1:18" ht="31.2">
       <c r="A36" s="1" t="s">
         <v>538</v>
       </c>
@@ -47120,7 +47359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="32">
+    <row r="37" spans="1:18" ht="31.2">
       <c r="A37" s="1" t="s">
         <v>538</v>
       </c>
@@ -47162,7 +47401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="48">
+    <row r="38" spans="1:18" ht="46.8">
       <c r="A38" s="1" t="s">
         <v>538</v>
       </c>
@@ -47204,7 +47443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="57">
+    <row r="39" spans="1:18" ht="52.2">
       <c r="A39" s="1" t="s">
         <v>538</v>
       </c>
@@ -47285,7 +47524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="32">
+    <row r="41" spans="1:18" ht="31.2">
       <c r="A41" s="1" t="s">
         <v>538</v>
       </c>
@@ -47321,7 +47560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="32">
+    <row r="42" spans="1:18" ht="31.2">
       <c r="A42" s="1" t="s">
         <v>538</v>
       </c>
@@ -47357,7 +47596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="32">
+    <row r="43" spans="1:18" ht="31.2">
       <c r="A43" s="1" t="s">
         <v>538</v>
       </c>
@@ -47399,7 +47638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="32">
+    <row r="44" spans="1:18" ht="31.2">
       <c r="A44" s="1" t="s">
         <v>538</v>
       </c>
@@ -47441,7 +47680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="32">
+    <row r="45" spans="1:18" ht="31.2">
       <c r="A45" s="1" t="s">
         <v>538</v>
       </c>
@@ -47483,7 +47722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="48">
+    <row r="46" spans="1:18" ht="46.8">
       <c r="A46" s="1" t="s">
         <v>538</v>
       </c>
@@ -47522,7 +47761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="48">
+    <row r="47" spans="1:18" ht="46.8">
       <c r="A47" s="1" t="s">
         <v>538</v>
       </c>
@@ -47558,7 +47797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="32">
+    <row r="48" spans="1:18" ht="31.2">
       <c r="A48" s="1" t="s">
         <v>538</v>
       </c>
@@ -47603,7 +47842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="64">
+    <row r="49" spans="1:18" ht="62.4">
       <c r="A49" s="1" t="s">
         <v>538</v>
       </c>
@@ -47645,7 +47884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="34">
+    <row r="50" spans="1:18" ht="32.4">
       <c r="A50" s="1" t="s">
         <v>538</v>
       </c>
@@ -47690,7 +47929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="49">
+    <row r="51" spans="1:18" ht="47.4">
       <c r="A51" s="1" t="s">
         <v>538</v>
       </c>
@@ -47729,7 +47968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="32">
+    <row r="52" spans="1:18" ht="31.2">
       <c r="A52" s="1" t="s">
         <v>538</v>
       </c>
@@ -47771,7 +48010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="33">
+    <row r="53" spans="1:18" ht="31.8">
       <c r="A53" s="1" t="s">
         <v>538</v>
       </c>
@@ -47810,7 +48049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="32">
+    <row r="54" spans="1:18" ht="31.2">
       <c r="A54" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47852,7 +48091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="32">
+    <row r="55" spans="1:18" ht="46.8">
       <c r="A55" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47894,7 +48133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="32">
+    <row r="56" spans="1:18" ht="31.2">
       <c r="A56" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47936,7 +48175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="32">
+    <row r="57" spans="1:18" ht="31.2">
       <c r="A57" s="1" t="s">
         <v>1739</v>
       </c>
@@ -47972,7 +48211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="32">
+    <row r="58" spans="1:18" ht="31.2">
       <c r="A58" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48014,7 +48253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="32">
+    <row r="59" spans="1:18" ht="31.2">
       <c r="A59" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48050,7 +48289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="32">
+    <row r="60" spans="1:18" ht="31.2">
       <c r="A60" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48290,7 +48529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="32">
+    <row r="66" spans="1:18" ht="31.2">
       <c r="A66" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48365,7 +48604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="32">
+    <row r="68" spans="1:18" ht="31.2">
       <c r="A68" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48410,7 +48649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="32">
+    <row r="69" spans="1:18" ht="31.2">
       <c r="A69" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48452,7 +48691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="32">
+    <row r="70" spans="1:18" ht="31.2">
       <c r="A70" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48497,7 +48736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="32">
+    <row r="71" spans="1:18" ht="31.2">
       <c r="A71" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48575,7 +48814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:18" ht="32">
+    <row r="73" spans="1:18" ht="31.2">
       <c r="A73" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48614,7 +48853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:18" ht="32">
+    <row r="74" spans="1:18" ht="31.2">
       <c r="A74" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48656,7 +48895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:18" ht="32">
+    <row r="75" spans="1:18" ht="31.2">
       <c r="A75" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48692,7 +48931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:18" ht="32">
+    <row r="76" spans="1:18" ht="31.2">
       <c r="A76" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48731,7 +48970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:18" ht="32">
+    <row r="77" spans="1:18" ht="31.2">
       <c r="A77" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48773,7 +49012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:18" ht="32">
+    <row r="78" spans="1:18" ht="31.2">
       <c r="A78" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48815,7 +49054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="32">
+    <row r="79" spans="1:18" ht="31.2">
       <c r="A79" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48851,7 +49090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="48">
+    <row r="80" spans="1:18" ht="46.8">
       <c r="A80" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48893,7 +49132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="32">
+    <row r="81" spans="1:18" ht="31.2">
       <c r="A81" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48935,7 +49174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="32">
+    <row r="82" spans="1:18" ht="31.2">
       <c r="A82" s="1" t="s">
         <v>1739</v>
       </c>
@@ -48971,7 +49210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="38">
+    <row r="83" spans="1:18" ht="34.799999999999997">
       <c r="A83" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49007,7 +49246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="32">
+    <row r="84" spans="1:18" ht="31.2">
       <c r="A84" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49043,7 +49282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" ht="31.2">
       <c r="A85" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49079,7 +49318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="32">
+    <row r="86" spans="1:18" ht="31.2">
       <c r="A86" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49118,7 +49357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="32">
+    <row r="87" spans="1:18" ht="31.2">
       <c r="A87" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49154,7 +49393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:18" ht="32">
+    <row r="88" spans="1:18" ht="31.2">
       <c r="A88" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49232,7 +49471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="32">
+    <row r="90" spans="1:18" ht="31.2">
       <c r="A90" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49268,7 +49507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="32">
+    <row r="91" spans="1:18" ht="31.2">
       <c r="A91" s="1" t="s">
         <v>1739</v>
       </c>
@@ -49307,7 +49546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="32">
+    <row r="92" spans="1:18" ht="31.2">
       <c r="A92" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49337,7 +49576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="32">
+    <row r="93" spans="1:18" ht="31.2">
       <c r="A93" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49370,7 +49609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:18" ht="32">
+    <row r="94" spans="1:18" ht="31.2">
       <c r="A94" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49403,7 +49642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:18" ht="32">
+    <row r="95" spans="1:18" ht="31.2">
       <c r="A95" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49436,7 +49675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18" ht="32">
+    <row r="96" spans="1:18" ht="31.2">
       <c r="A96" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49475,7 +49714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:18" ht="32">
+    <row r="97" spans="1:18" ht="31.2">
       <c r="A97" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49520,7 +49759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:18" ht="32">
+    <row r="98" spans="1:18" ht="31.2">
       <c r="A98" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49556,7 +49795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:18" ht="32">
+    <row r="99" spans="1:18" ht="31.2">
       <c r="A99" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49595,7 +49834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:18" ht="32">
+    <row r="100" spans="1:18" ht="31.2">
       <c r="A100" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49631,7 +49870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="32">
+    <row r="101" spans="1:18" ht="31.2">
       <c r="A101" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49667,7 +49906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:18" ht="32">
+    <row r="102" spans="1:18" ht="31.2">
       <c r="A102" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49703,7 +49942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:18" ht="32">
+    <row r="103" spans="1:18" ht="31.2">
       <c r="A103" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49736,7 +49975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:18" ht="32">
+    <row r="104" spans="1:18" ht="31.2">
       <c r="A104" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49775,7 +50014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:18" ht="32">
+    <row r="105" spans="1:18" ht="31.2">
       <c r="A105" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49814,7 +50053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" ht="32">
+    <row r="106" spans="1:18" ht="31.2">
       <c r="A106" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49892,7 +50131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:18" ht="32">
+    <row r="108" spans="1:18" ht="31.2">
       <c r="A108" s="1" t="s">
         <v>1742</v>
       </c>
@@ -49970,7 +50209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:18" ht="32">
+    <row r="110" spans="1:18" ht="31.2">
       <c r="A110" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50045,7 +50284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:18" ht="32">
+    <row r="112" spans="1:18" ht="31.2">
       <c r="A112" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50081,7 +50320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:18" ht="31.2">
       <c r="A113" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50168,7 +50407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:18" ht="32">
+    <row r="115" spans="1:18" ht="31.2">
       <c r="A115" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50201,7 +50440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:18" ht="32">
+    <row r="116" spans="1:18" ht="31.2">
       <c r="A116" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50231,7 +50470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:18" ht="32">
+    <row r="117" spans="1:18" ht="31.2">
       <c r="A117" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50264,7 +50503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:18" ht="48">
+    <row r="118" spans="1:18" ht="46.8">
       <c r="A118" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50300,7 +50539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:18" ht="32">
+    <row r="119" spans="1:18" ht="31.2">
       <c r="A119" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50339,7 +50578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:18" ht="32">
+    <row r="120" spans="1:18" ht="31.2">
       <c r="A120" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50381,7 +50620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:18" ht="32">
+    <row r="121" spans="1:18" ht="31.2">
       <c r="A121" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50507,7 +50746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="32">
+    <row r="124" spans="1:18" ht="31.2">
       <c r="A124" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50591,7 +50830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:18" ht="19">
+    <row r="126" spans="1:18">
       <c r="A126" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50630,7 +50869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:18" ht="32">
+    <row r="127" spans="1:18" ht="31.2">
       <c r="A127" s="1" t="s">
         <v>1742</v>
       </c>
@@ -50669,7 +50908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:18" ht="48">
+    <row r="128" spans="1:18" ht="46.8">
       <c r="A128" s="1" t="s">
         <v>759</v>
       </c>
@@ -50714,7 +50953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="32">
+    <row r="129" spans="1:18" ht="31.2">
       <c r="A129" s="1" t="s">
         <v>759</v>
       </c>
@@ -50756,7 +50995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="32">
+    <row r="130" spans="1:18" ht="31.2">
       <c r="A130" s="1" t="s">
         <v>759</v>
       </c>
@@ -50804,7 +51043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="32">
+    <row r="131" spans="1:18" ht="31.2">
       <c r="A131" s="1" t="s">
         <v>759</v>
       </c>
@@ -50849,7 +51088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="32">
+    <row r="132" spans="1:18" ht="31.2">
       <c r="A132" s="1" t="s">
         <v>759</v>
       </c>
@@ -50891,7 +51130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:18" ht="48">
+    <row r="133" spans="1:18" ht="46.8">
       <c r="A133" s="1" t="s">
         <v>759</v>
       </c>
@@ -50936,7 +51175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:18" ht="64">
+    <row r="134" spans="1:18" ht="62.4">
       <c r="A134" s="1" t="s">
         <v>759</v>
       </c>
@@ -50972,7 +51211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:18" ht="32">
+    <row r="135" spans="1:18" ht="31.2">
       <c r="A135" s="1" t="s">
         <v>759</v>
       </c>
@@ -51041,7 +51280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="32">
+    <row r="137" spans="1:18" ht="31.2">
       <c r="A137" s="1" t="s">
         <v>759</v>
       </c>
@@ -51074,7 +51313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="32">
+    <row r="138" spans="1:18" ht="31.2">
       <c r="A138" s="1" t="s">
         <v>759</v>
       </c>
@@ -51107,7 +51346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="32">
+    <row r="139" spans="1:18" ht="31.2">
       <c r="A139" s="1" t="s">
         <v>759</v>
       </c>
@@ -51137,7 +51376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="32">
+    <row r="140" spans="1:18" ht="31.2">
       <c r="A140" s="1" t="s">
         <v>660</v>
       </c>
@@ -51167,7 +51406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="32">
+    <row r="141" spans="1:18" ht="31.2">
       <c r="A141" s="1" t="s">
         <v>660</v>
       </c>
@@ -51200,7 +51439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="32">
+    <row r="142" spans="1:18" ht="31.2">
       <c r="A142" s="1" t="s">
         <v>660</v>
       </c>
@@ -51233,7 +51472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="32">
+    <row r="143" spans="1:18" ht="31.2">
       <c r="A143" s="1" t="s">
         <v>660</v>
       </c>
@@ -51302,7 +51541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="32">
+    <row r="145" spans="1:18" ht="31.2">
       <c r="A145" s="1" t="s">
         <v>660</v>
       </c>
@@ -51374,7 +51613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="32">
+    <row r="147" spans="1:18" ht="31.2">
       <c r="A147" s="1" t="s">
         <v>660</v>
       </c>
@@ -51407,7 +51646,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="19">
+    <row r="148" spans="1:18">
       <c r="A148" s="1" t="s">
         <v>660</v>
       </c>
@@ -51452,7 +51691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="32">
+    <row r="149" spans="1:18" ht="31.2">
       <c r="A149" s="1" t="s">
         <v>660</v>
       </c>
@@ -51491,7 +51730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:18" ht="19">
+    <row r="150" spans="1:18">
       <c r="A150" s="1" t="s">
         <v>660</v>
       </c>
@@ -51530,7 +51769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:18" ht="32">
+    <row r="151" spans="1:18" ht="31.2">
       <c r="A151" s="1" t="s">
         <v>660</v>
       </c>
@@ -51575,7 +51814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="32">
+    <row r="152" spans="1:18" ht="31.2">
       <c r="A152" s="1" t="s">
         <v>660</v>
       </c>
@@ -51611,7 +51850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="32">
+    <row r="153" spans="1:18" ht="31.2">
       <c r="A153" s="1" t="s">
         <v>660</v>
       </c>
@@ -51686,7 +51925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="32">
+    <row r="155" spans="1:18" ht="31.2">
       <c r="A155" s="1" t="s">
         <v>660</v>
       </c>
@@ -51761,7 +52000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="32">
+    <row r="157" spans="1:18" ht="31.2">
       <c r="A157" s="1" t="s">
         <v>660</v>
       </c>
@@ -51902,7 +52141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="32">
+    <row r="161" spans="1:18" ht="31.2">
       <c r="A161" s="1" t="s">
         <v>660</v>
       </c>
@@ -51968,7 +52207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="19">
+    <row r="163" spans="1:18">
       <c r="A163" s="1" t="s">
         <v>19</v>
       </c>
@@ -52049,7 +52288,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="32">
+    <row r="165" spans="1:18" ht="31.2">
       <c r="A165" s="1" t="s">
         <v>19</v>
       </c>
@@ -52085,7 +52324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="32">
+    <row r="166" spans="1:18" ht="31.2">
       <c r="A166" s="1" t="s">
         <v>19</v>
       </c>
@@ -52124,7 +52363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="32">
+    <row r="167" spans="1:18" ht="31.2">
       <c r="A167" s="1" t="s">
         <v>19</v>
       </c>
@@ -52163,7 +52402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="32">
+    <row r="168" spans="1:18" ht="31.2">
       <c r="A168" s="1" t="s">
         <v>19</v>
       </c>
@@ -52205,7 +52444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="32">
+    <row r="169" spans="1:18" ht="31.2">
       <c r="A169" s="1" t="s">
         <v>19</v>
       </c>
@@ -52247,7 +52486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="48">
+    <row r="170" spans="1:18" ht="46.8">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -52292,7 +52531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="48">
+    <row r="171" spans="1:18" ht="46.8">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -52334,7 +52573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="32">
+    <row r="172" spans="1:18" ht="31.2">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -52396,34 +52635,34 @@
   <dimension ref="A1:V172"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="9" customWidth="1"/>
+    <col min="1" max="2" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" style="9" customWidth="1"/>
     <col min="12" max="12" width="10" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="12.85546875" style="9" customWidth="1"/>
+    <col min="13" max="14" width="12.83203125" style="9" customWidth="1"/>
     <col min="15" max="16" width="10" style="9" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13" style="9" customWidth="1"/>
     <col min="18" max="18" width="60" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.140625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="4.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.7109375" style="9"/>
+    <col min="19" max="19" width="10.1640625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="20.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.4140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.75" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22">
@@ -52488,7 +52727,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="48">
+    <row r="2" spans="1:22" ht="46.8">
       <c r="A2" s="9" t="s">
         <v>294</v>
       </c>
@@ -52533,7 +52772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:22" ht="48">
+    <row r="3" spans="1:22" ht="46.8">
       <c r="A3" s="9" t="s">
         <v>294</v>
       </c>
@@ -52581,7 +52820,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="48">
+    <row r="4" spans="1:22" ht="46.8">
       <c r="A4" s="9" t="s">
         <v>294</v>
       </c>
@@ -52626,7 +52865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:22" ht="38">
+    <row r="5" spans="1:22" ht="34.799999999999997">
       <c r="A5" s="9" t="s">
         <v>294</v>
       </c>
@@ -52719,7 +52958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="32">
+    <row r="7" spans="1:22" ht="31.2">
       <c r="A7" s="9" t="s">
         <v>294</v>
       </c>
@@ -52770,7 +53009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="48">
+    <row r="8" spans="1:22" ht="46.8">
       <c r="A8" s="9" t="s">
         <v>294</v>
       </c>
@@ -52818,7 +53057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:22" ht="48">
+    <row r="9" spans="1:22" ht="46.8">
       <c r="A9" s="9" t="s">
         <v>294</v>
       </c>
@@ -52867,7 +53106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="48">
+    <row r="10" spans="1:22" ht="46.8">
       <c r="A10" s="9" t="s">
         <v>294</v>
       </c>
@@ -52918,7 +53157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="48">
+    <row r="11" spans="1:22" ht="46.8">
       <c r="A11" s="9" t="s">
         <v>294</v>
       </c>
@@ -52972,7 +53211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:22" ht="32">
+    <row r="12" spans="1:22" ht="31.2">
       <c r="A12" s="9" t="s">
         <v>294</v>
       </c>
@@ -53017,7 +53256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="48">
+    <row r="13" spans="1:22" ht="46.8">
       <c r="A13" s="9" t="s">
         <v>294</v>
       </c>
@@ -53065,7 +53304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="48">
+    <row r="14" spans="1:22" ht="46.8">
       <c r="A14" s="9" t="s">
         <v>294</v>
       </c>
@@ -53116,7 +53355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="38">
+    <row r="15" spans="1:22" ht="34.799999999999997">
       <c r="A15" s="9" t="s">
         <v>294</v>
       </c>
@@ -53161,7 +53400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" ht="48">
+    <row r="16" spans="1:22" ht="46.8">
       <c r="A16" s="9" t="s">
         <v>294</v>
       </c>
@@ -53209,7 +53448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="48">
+    <row r="17" spans="1:22" ht="46.8">
       <c r="A17" s="9" t="s">
         <v>294</v>
       </c>
@@ -53254,7 +53493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="48">
+    <row r="18" spans="1:22" ht="46.8">
       <c r="A18" s="9" t="s">
         <v>294</v>
       </c>
@@ -53293,7 +53532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="32">
+    <row r="19" spans="1:22" ht="31.2">
       <c r="A19" s="9" t="s">
         <v>294</v>
       </c>
@@ -53344,7 +53583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="32">
+    <row r="20" spans="1:22" ht="31.2">
       <c r="A20" s="9" t="s">
         <v>294</v>
       </c>
@@ -53390,7 +53629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="32">
+    <row r="21" spans="1:22" ht="31.2">
       <c r="A21" s="9" t="s">
         <v>294</v>
       </c>
@@ -53435,7 +53674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="32">
+    <row r="22" spans="1:22" ht="31.2">
       <c r="A22" s="9" t="s">
         <v>294</v>
       </c>
@@ -53477,7 +53716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="32">
+    <row r="23" spans="1:22" ht="31.2">
       <c r="A23" s="9" t="s">
         <v>294</v>
       </c>
@@ -53513,7 +53752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="32">
+    <row r="24" spans="1:22" ht="31.2">
       <c r="A24" s="9" t="s">
         <v>294</v>
       </c>
@@ -53546,7 +53785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="48">
+    <row r="25" spans="1:22" ht="46.8">
       <c r="A25" s="9" t="s">
         <v>294</v>
       </c>
@@ -53579,7 +53818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="80">
+    <row r="26" spans="1:22" ht="78">
       <c r="A26" s="9" t="s">
         <v>294</v>
       </c>
@@ -53615,7 +53854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="32">
+    <row r="27" spans="1:22" ht="31.2">
       <c r="A27" s="9" t="s">
         <v>538</v>
       </c>
@@ -53671,7 +53910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" ht="32">
+    <row r="28" spans="1:22" ht="31.2">
       <c r="A28" s="9" t="s">
         <v>538</v>
       </c>
@@ -53716,7 +53955,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="38">
+    <row r="29" spans="1:22" ht="34.799999999999997">
       <c r="A29" s="9" t="s">
         <v>538</v>
       </c>
@@ -53767,7 +54006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="32">
+    <row r="30" spans="1:22" ht="31.2">
       <c r="A30" s="9" t="s">
         <v>538</v>
       </c>
@@ -53806,7 +54045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" ht="38">
+    <row r="31" spans="1:22" ht="34.799999999999997">
       <c r="A31" s="9" t="s">
         <v>538</v>
       </c>
@@ -53854,7 +54093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:22" ht="32">
+    <row r="32" spans="1:22" ht="31.2">
       <c r="A32" s="9" t="s">
         <v>538</v>
       </c>
@@ -53911,7 +54150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" ht="32">
+    <row r="33" spans="1:22" ht="31.2">
       <c r="A33" s="9" t="s">
         <v>538</v>
       </c>
@@ -53956,7 +54195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:22" ht="32">
+    <row r="34" spans="1:22" ht="31.2">
       <c r="A34" s="9" t="s">
         <v>538</v>
       </c>
@@ -53998,7 +54237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:22" ht="57">
+    <row r="35" spans="1:22" ht="46.8">
       <c r="A35" s="9" t="s">
         <v>538</v>
       </c>
@@ -54049,7 +54288,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:22" ht="32">
+    <row r="36" spans="1:22" ht="31.2">
       <c r="A36" s="9" t="s">
         <v>538</v>
       </c>
@@ -54091,7 +54330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:22" ht="48">
+    <row r="37" spans="1:22" ht="46.8">
       <c r="A37" s="9" t="s">
         <v>538</v>
       </c>
@@ -54136,7 +54375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:22" ht="48">
+    <row r="38" spans="1:22" ht="46.8">
       <c r="A38" s="9" t="s">
         <v>538</v>
       </c>
@@ -54181,7 +54420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:22" ht="57">
+    <row r="39" spans="1:22" ht="52.2">
       <c r="A39" s="9" t="s">
         <v>538</v>
       </c>
@@ -54226,7 +54465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:22" ht="32">
+    <row r="40" spans="1:22" ht="31.2">
       <c r="A40" s="9" t="s">
         <v>538</v>
       </c>
@@ -54268,7 +54507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:22" ht="32">
+    <row r="41" spans="1:22" ht="31.2">
       <c r="A41" s="9" t="s">
         <v>538</v>
       </c>
@@ -54310,7 +54549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:22" ht="32">
+    <row r="42" spans="1:22" ht="31.2">
       <c r="A42" s="9" t="s">
         <v>538</v>
       </c>
@@ -54346,7 +54585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" ht="32">
+    <row r="43" spans="1:22" ht="31.2">
       <c r="A43" s="9" t="s">
         <v>538</v>
       </c>
@@ -54397,7 +54636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:22" ht="32">
+    <row r="44" spans="1:22" ht="31.2">
       <c r="A44" s="9" t="s">
         <v>538</v>
       </c>
@@ -54442,7 +54681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:22" ht="32">
+    <row r="45" spans="1:22" ht="31.2">
       <c r="A45" s="9" t="s">
         <v>538</v>
       </c>
@@ -54484,7 +54723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" ht="48">
+    <row r="46" spans="1:22" ht="46.8">
       <c r="A46" s="9" t="s">
         <v>538</v>
       </c>
@@ -54527,7 +54766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:22" ht="48">
+    <row r="47" spans="1:22" ht="46.8">
       <c r="A47" s="9" t="s">
         <v>538</v>
       </c>
@@ -54566,7 +54805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" ht="48">
+    <row r="48" spans="1:22" ht="46.8">
       <c r="A48" s="9" t="s">
         <v>538</v>
       </c>
@@ -54611,7 +54850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:22" ht="64">
+    <row r="49" spans="1:22" ht="62.4">
       <c r="A49" s="9" t="s">
         <v>538</v>
       </c>
@@ -54657,7 +54896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:22" ht="50">
+    <row r="50" spans="1:22" ht="32.4">
       <c r="A50" s="9" t="s">
         <v>538</v>
       </c>
@@ -54711,7 +54950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:22" ht="49">
+    <row r="51" spans="1:22" ht="47.4">
       <c r="A51" s="9" t="s">
         <v>538</v>
       </c>
@@ -54759,7 +54998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:22" ht="32">
+    <row r="52" spans="1:22" ht="31.2">
       <c r="A52" s="9" t="s">
         <v>538</v>
       </c>
@@ -54807,7 +55046,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:22" ht="33">
+    <row r="53" spans="1:22" ht="31.8">
       <c r="A53" s="9" t="s">
         <v>538</v>
       </c>
@@ -54852,7 +55091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:22" ht="32">
+    <row r="54" spans="1:22" ht="31.2">
       <c r="A54" s="9" t="s">
         <v>1739</v>
       </c>
@@ -54903,7 +55142,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:22" ht="48">
+    <row r="55" spans="1:22" ht="46.8">
       <c r="A55" s="9" t="s">
         <v>1739</v>
       </c>
@@ -54945,7 +55184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:22" ht="32">
+    <row r="56" spans="1:22" ht="31.2">
       <c r="A56" s="9" t="s">
         <v>1739</v>
       </c>
@@ -54996,7 +55235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:22" ht="32">
+    <row r="57" spans="1:22" ht="31.2">
       <c r="A57" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55038,7 +55277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:22" ht="32">
+    <row r="58" spans="1:22" ht="31.2">
       <c r="A58" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55083,7 +55322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:22" ht="32">
+    <row r="59" spans="1:22" ht="31.2">
       <c r="A59" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55125,7 +55364,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:22" ht="32">
+    <row r="60" spans="1:22" ht="31.2">
       <c r="A60" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55345,7 +55584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:22" ht="32">
+    <row r="65" spans="1:22">
       <c r="A65" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55387,7 +55626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:22" ht="32">
+    <row r="66" spans="1:22" ht="31.2">
       <c r="A66" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55423,7 +55662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:22" ht="32">
+    <row r="67" spans="1:22" ht="31.2">
       <c r="A67" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55468,7 +55707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:22" ht="32">
+    <row r="68" spans="1:22" ht="31.2">
       <c r="A68" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55513,7 +55752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:22" ht="32">
+    <row r="69" spans="1:22" ht="31.2">
       <c r="A69" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55564,7 +55803,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:22" ht="32">
+    <row r="70" spans="1:22" ht="31.2">
       <c r="A70" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55612,7 +55851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:22" ht="32">
+    <row r="71" spans="1:22" ht="31.2">
       <c r="A71" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55702,7 +55941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:22" ht="32">
+    <row r="73" spans="1:22" ht="31.2">
       <c r="A73" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55750,7 +55989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:22" ht="32">
+    <row r="74" spans="1:22" ht="31.2">
       <c r="A74" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55795,7 +56034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:22" ht="32">
+    <row r="75" spans="1:22" ht="31.2">
       <c r="A75" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55837,7 +56076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:22" ht="32">
+    <row r="76" spans="1:22" ht="31.2">
       <c r="A76" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55879,7 +56118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:22" ht="32">
+    <row r="77" spans="1:22" ht="31.2">
       <c r="A77" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55921,7 +56160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:22" ht="32">
+    <row r="78" spans="1:22" ht="31.2">
       <c r="A78" s="9" t="s">
         <v>1739</v>
       </c>
@@ -55966,7 +56205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:22" ht="32">
+    <row r="79" spans="1:22" ht="31.2">
       <c r="A79" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56011,7 +56250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:22" ht="48">
+    <row r="80" spans="1:22" ht="46.8">
       <c r="A80" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56053,7 +56292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:22" ht="32">
+    <row r="81" spans="1:22" ht="31.2">
       <c r="A81" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56098,7 +56337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:22" ht="32">
+    <row r="82" spans="1:22" ht="31.2">
       <c r="A82" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56137,7 +56376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:22" ht="38">
+    <row r="83" spans="1:22" ht="46.8">
       <c r="A83" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56173,7 +56412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:22" ht="32">
+    <row r="84" spans="1:22" ht="31.2">
       <c r="A84" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56209,7 +56448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:22" ht="32">
+    <row r="85" spans="1:22" ht="31.2">
       <c r="A85" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56251,7 +56490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:22" ht="32">
+    <row r="86" spans="1:22" ht="31.2">
       <c r="A86" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56293,7 +56532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:22" ht="32">
+    <row r="87" spans="1:22" ht="31.2">
       <c r="A87" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56329,7 +56568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:22" ht="32">
+    <row r="88" spans="1:22" ht="31.2">
       <c r="A88" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56368,7 +56607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:22" ht="32">
+    <row r="89" spans="1:22" ht="31.2">
       <c r="A89" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56407,7 +56646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:22" ht="32">
+    <row r="90" spans="1:22" ht="31.2">
       <c r="A90" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56452,7 +56691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:22" ht="32">
+    <row r="91" spans="1:22" ht="31.2">
       <c r="A91" s="9" t="s">
         <v>1739</v>
       </c>
@@ -56494,7 +56733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:22" ht="32">
+    <row r="92" spans="1:22" ht="31.2">
       <c r="A92" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56530,7 +56769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:22" ht="32">
+    <row r="93" spans="1:22" ht="31.2">
       <c r="A93" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56572,7 +56811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:22" ht="32">
+    <row r="94" spans="1:22" ht="31.2">
       <c r="A94" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56614,7 +56853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:22" ht="32">
+    <row r="95" spans="1:22" ht="31.2">
       <c r="A95" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56647,7 +56886,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:22" ht="48">
+    <row r="96" spans="1:22" ht="46.8">
       <c r="A96" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56686,7 +56925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:22" ht="32">
+    <row r="97" spans="1:22" ht="31.2">
       <c r="A97" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56734,7 +56973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:22" ht="32">
+    <row r="98" spans="1:22" ht="31.2">
       <c r="A98" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56770,7 +57009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:22" ht="32">
+    <row r="99" spans="1:22" ht="31.2">
       <c r="A99" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56812,7 +57051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:22" ht="32">
+    <row r="100" spans="1:22" ht="31.2">
       <c r="A100" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56851,7 +57090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:22" ht="32">
+    <row r="101" spans="1:22" ht="31.2">
       <c r="A101" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56893,7 +57132,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:22" ht="48">
+    <row r="102" spans="1:22" ht="46.8">
       <c r="A102" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56935,7 +57174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:22" ht="32">
+    <row r="103" spans="1:22" ht="31.2">
       <c r="A103" s="9" t="s">
         <v>1742</v>
       </c>
@@ -56968,7 +57207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:22" ht="32">
+    <row r="104" spans="1:22" ht="31.2">
       <c r="A104" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57007,7 +57246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:22" ht="32">
+    <row r="105" spans="1:22" ht="31.2">
       <c r="A105" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57049,7 +57288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:22" ht="32">
+    <row r="106" spans="1:22" ht="31.2">
       <c r="A106" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57136,7 +57375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:22" ht="32">
+    <row r="108" spans="1:22" ht="31.2">
       <c r="A108" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57220,7 +57459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:22" ht="32">
+    <row r="110" spans="1:22" ht="31.2">
       <c r="A110" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57310,7 +57549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:22" ht="32">
+    <row r="112" spans="1:22" ht="31.2">
       <c r="A112" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57355,7 +57594,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="32">
+    <row r="113" spans="1:22" ht="31.2">
       <c r="A113" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57397,7 +57636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="32">
+    <row r="114" spans="1:22" ht="31.2">
       <c r="A114" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57442,7 +57681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="32">
+    <row r="115" spans="1:22" ht="31.2">
       <c r="A115" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57481,7 +57720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="32">
+    <row r="116" spans="1:22" ht="31.2">
       <c r="A116" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57520,7 +57759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="32">
+    <row r="117" spans="1:22" ht="31.2">
       <c r="A117" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57553,7 +57792,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="48">
+    <row r="118" spans="1:22" ht="46.8">
       <c r="A118" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57595,7 +57834,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="32">
+    <row r="119" spans="1:22" ht="31.2">
       <c r="A119" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57643,7 +57882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="32">
+    <row r="120" spans="1:22" ht="31.2">
       <c r="A120" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57691,7 +57930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="32">
+    <row r="121" spans="1:22" ht="31.2">
       <c r="A121" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57823,7 +58062,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="32">
+    <row r="124" spans="1:22" ht="31.2">
       <c r="A124" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57871,7 +58110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:22" ht="32">
+    <row r="125" spans="1:22" ht="31.2">
       <c r="A125" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57914,7 +58153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="32">
+    <row r="126" spans="1:22" ht="31.2">
       <c r="A126" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57956,7 +58195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:22" ht="32">
+    <row r="127" spans="1:22" ht="31.2">
       <c r="A127" s="9" t="s">
         <v>1742</v>
       </c>
@@ -57998,7 +58237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:22" ht="48">
+    <row r="128" spans="1:22" ht="46.8">
       <c r="A128" s="9" t="s">
         <v>759</v>
       </c>
@@ -58049,7 +58288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:22" ht="32">
+    <row r="129" spans="1:22" ht="31.2">
       <c r="A129" s="9" t="s">
         <v>759</v>
       </c>
@@ -58091,7 +58330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:22" ht="32">
+    <row r="130" spans="1:22" ht="31.2">
       <c r="A130" s="9" t="s">
         <v>759</v>
       </c>
@@ -58142,7 +58381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:22" ht="32">
+    <row r="131" spans="1:22" ht="31.2">
       <c r="A131" s="9" t="s">
         <v>759</v>
       </c>
@@ -58190,7 +58429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:22" ht="48">
+    <row r="132" spans="1:22" ht="46.8">
       <c r="A132" s="9" t="s">
         <v>759</v>
       </c>
@@ -58232,7 +58471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:22" ht="48">
+    <row r="133" spans="1:22" ht="46.8">
       <c r="A133" s="9" t="s">
         <v>759</v>
       </c>
@@ -58280,7 +58519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:22" ht="64">
+    <row r="134" spans="1:22" ht="62.4">
       <c r="A134" s="9" t="s">
         <v>759</v>
       </c>
@@ -58316,7 +58555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:22" ht="32">
+    <row r="135" spans="1:22" ht="31.2">
       <c r="A135" s="9" t="s">
         <v>759</v>
       </c>
@@ -58388,7 +58627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:22" ht="32">
+    <row r="137" spans="1:22" ht="31.2">
       <c r="A137" s="9" t="s">
         <v>759</v>
       </c>
@@ -58424,7 +58663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:22" ht="32">
+    <row r="138" spans="1:22" ht="31.2">
       <c r="A138" s="9" t="s">
         <v>759</v>
       </c>
@@ -58460,7 +58699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:22" ht="32">
+    <row r="139" spans="1:22" ht="31.2">
       <c r="A139" s="9" t="s">
         <v>759</v>
       </c>
@@ -58490,7 +58729,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:22" ht="32">
+    <row r="140" spans="1:22" ht="31.2">
       <c r="A140" s="9" t="s">
         <v>660</v>
       </c>
@@ -58526,7 +58765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:22" ht="32">
+    <row r="141" spans="1:22" ht="31.2">
       <c r="A141" s="9" t="s">
         <v>660</v>
       </c>
@@ -58565,7 +58804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:22" ht="32">
+    <row r="142" spans="1:22" ht="31.2">
       <c r="A142" s="9" t="s">
         <v>660</v>
       </c>
@@ -58598,7 +58837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:22" ht="32">
+    <row r="143" spans="1:22" ht="31.2">
       <c r="A143" s="9" t="s">
         <v>660</v>
       </c>
@@ -58631,7 +58870,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:22">
+    <row r="144" spans="1:22" ht="31.2">
       <c r="A144" s="9" t="s">
         <v>660</v>
       </c>
@@ -58673,7 +58912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:22" ht="32">
+    <row r="145" spans="1:22" ht="31.2">
       <c r="A145" s="9" t="s">
         <v>660</v>
       </c>
@@ -58751,7 +58990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:22" ht="32">
+    <row r="147" spans="1:22" ht="31.2">
       <c r="A147" s="9" t="s">
         <v>660</v>
       </c>
@@ -58790,7 +59029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:22" ht="19">
+    <row r="148" spans="1:22">
       <c r="A148" s="9" t="s">
         <v>660</v>
       </c>
@@ -58835,7 +59074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:22" ht="32">
+    <row r="149" spans="1:22" ht="31.2">
       <c r="A149" s="9" t="s">
         <v>660</v>
       </c>
@@ -58883,7 +59122,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:22" ht="19">
+    <row r="150" spans="1:22">
       <c r="A150" s="9" t="s">
         <v>660</v>
       </c>
@@ -58928,7 +59167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:22" ht="32">
+    <row r="151" spans="1:22" ht="31.2">
       <c r="A151" s="9" t="s">
         <v>660</v>
       </c>
@@ -58979,7 +59218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:22" ht="32">
+    <row r="152" spans="1:22" ht="31.2">
       <c r="A152" s="9" t="s">
         <v>660</v>
       </c>
@@ -59024,7 +59263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:22" ht="32">
+    <row r="153" spans="1:22" ht="31.2">
       <c r="A153" s="9" t="s">
         <v>660</v>
       </c>
@@ -59108,7 +59347,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:22" ht="32">
+    <row r="155" spans="1:22" ht="31.2">
       <c r="A155" s="9" t="s">
         <v>660</v>
       </c>
@@ -59192,7 +59431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="32">
+    <row r="157" spans="1:22" ht="31.2">
       <c r="A157" s="9" t="s">
         <v>660</v>
       </c>
@@ -59348,7 +59587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:22" ht="32">
+    <row r="161" spans="1:22" ht="31.2">
       <c r="A161" s="9" t="s">
         <v>660</v>
       </c>
@@ -59423,7 +59662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:22" ht="19">
+    <row r="163" spans="1:22">
       <c r="A163" s="9" t="s">
         <v>19</v>
       </c>
@@ -59507,7 +59746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:22" ht="32">
+    <row r="165" spans="1:22" ht="31.2">
       <c r="A165" s="9" t="s">
         <v>19</v>
       </c>
@@ -59552,7 +59791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:22" ht="32">
+    <row r="166" spans="1:22" ht="31.2">
       <c r="A166" s="9" t="s">
         <v>19</v>
       </c>
@@ -59591,7 +59830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:22" ht="32">
+    <row r="167" spans="1:22" ht="31.2">
       <c r="A167" s="9" t="s">
         <v>19</v>
       </c>
@@ -59633,7 +59872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:22" ht="32">
+    <row r="168" spans="1:22" ht="31.2">
       <c r="A168" s="9" t="s">
         <v>19</v>
       </c>
@@ -59678,7 +59917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:22" ht="32">
+    <row r="169" spans="1:22" ht="31.2">
       <c r="A169" s="9" t="s">
         <v>19</v>
       </c>
@@ -59720,7 +59959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="48">
+    <row r="170" spans="1:22" ht="46.8">
       <c r="A170" s="9" t="s">
         <v>19</v>
       </c>
@@ -59771,7 +60010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="48">
+    <row r="171" spans="1:22" ht="46.8">
       <c r="A171" s="9" t="s">
         <v>19</v>
       </c>
@@ -59816,7 +60055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:22" ht="32">
+    <row r="172" spans="1:22" ht="31.2">
       <c r="A172" s="9" t="s">
         <v>19</v>
       </c>
@@ -59883,35 +60122,45 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9472D0B-C1F6-4224-9F48-2F781E495D78}">
   <sheetPr codeName="Sheet15"/>
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="1"/>
-    <col min="4" max="4" width="31.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="1" customWidth="1"/>
-    <col min="6" max="12" width="8.7109375" style="1"/>
-    <col min="14" max="17" width="8.7109375" style="1"/>
-    <col min="18" max="18" width="5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.58203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="1"/>
+    <col min="12" max="15" width="8.75" style="1"/>
+    <col min="16" max="16" width="5" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1745</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3144</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>2710</v>
       </c>
@@ -59919,16 +60168,16 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3106</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3088</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>2710</v>
       </c>
@@ -59938,14 +60187,14 @@
       <c r="C3" s="1" t="s">
         <v>2772</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>3087</v>
-      </c>
-      <c r="R3" s="1">
+      <c r="I3" s="1" t="s">
+        <v>3145</v>
+      </c>
+      <c r="P3" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>2710</v>
       </c>
@@ -59955,11 +60204,11 @@
       <c r="C4" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="R4" s="1">
+      <c r="P4" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:16" ht="34.799999999999997">
       <c r="A5" s="1" t="s">
         <v>2710</v>
       </c>
@@ -59969,11 +60218,17 @@
       <c r="C5" s="1" t="s">
         <v>2774</v>
       </c>
-      <c r="R5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>3087</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3107</v>
+      </c>
+      <c r="P5" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>2710</v>
       </c>
@@ -59983,11 +60238,11 @@
       <c r="C6" s="1" t="s">
         <v>2775</v>
       </c>
-      <c r="R6" s="1">
+      <c r="P6" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>183</v>
       </c>
@@ -59995,13 +60250,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3101</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3090</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>3105</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>183</v>
       </c>
@@ -60011,11 +60266,14 @@
       <c r="C8" s="1" t="s">
         <v>2791</v>
       </c>
-      <c r="R8" s="1">
+      <c r="G8" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="P8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>183</v>
       </c>
@@ -60025,11 +60283,11 @@
       <c r="C9" s="1" t="s">
         <v>2792</v>
       </c>
-      <c r="R9" s="1">
+      <c r="P9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>183</v>
       </c>
@@ -60039,14 +60297,14 @@
       <c r="C10" s="1" t="s">
         <v>2793</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>3091</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="G10" s="1" t="s">
+        <v>3088</v>
+      </c>
+      <c r="P10" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>183</v>
       </c>
@@ -60056,12 +60314,15 @@
       <c r="C11" s="1" t="s">
         <v>2794</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="R11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="P11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>294</v>
       </c>
@@ -60069,11 +60330,11 @@
         <v>5</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>3107</v>
-      </c>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:18">
+        <v>3101</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>294</v>
       </c>
@@ -60083,15 +60344,18 @@
       <c r="C13" s="1" t="s">
         <v>2716</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="M13" s="1"/>
-      <c r="R13" s="1">
+      <c r="K13" s="1"/>
+      <c r="P13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>294</v>
       </c>
@@ -60101,12 +60365,15 @@
       <c r="C14" s="1" t="s">
         <v>2717</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="R14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>3113</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="P14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>294</v>
       </c>
@@ -60116,15 +60383,15 @@
       <c r="C15" s="1" t="s">
         <v>2718</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>3092</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="R15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>3089</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="P15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>294</v>
       </c>
@@ -60134,12 +60401,18 @@
       <c r="C16" s="1" t="s">
         <v>2719</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="R16" s="1">
+      <c r="E16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>3114</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="P16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>294</v>
       </c>
@@ -60149,15 +60422,15 @@
       <c r="C17" s="1" t="s">
         <v>2720</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>3093</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="R17" s="1">
+      <c r="G17" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="P17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
         <v>760</v>
       </c>
@@ -60165,11 +60438,14 @@
         <v>5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>3108</v>
-      </c>
-      <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="1:18">
+        <v>3104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>3120</v>
+      </c>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>760</v>
       </c>
@@ -60179,12 +60455,18 @@
       <c r="C19" s="1" t="s">
         <v>2736</v>
       </c>
-      <c r="M19" s="1"/>
-      <c r="R19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="P19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
         <v>760</v>
       </c>
@@ -60194,12 +60476,18 @@
       <c r="C20" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="M20" s="1"/>
-      <c r="R20" s="1">
+      <c r="E20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3121</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="P20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>760</v>
       </c>
@@ -60209,12 +60497,18 @@
       <c r="C21" s="1" t="s">
         <v>2738</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="R21" s="1">
+      <c r="E21" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>3122</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="P21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>760</v>
       </c>
@@ -60224,12 +60518,18 @@
       <c r="C22" s="1" t="s">
         <v>2739</v>
       </c>
-      <c r="M22" s="1"/>
-      <c r="R22" s="1">
+      <c r="E22" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>3123</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="P22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:16">
       <c r="A23" s="1" t="s">
         <v>760</v>
       </c>
@@ -60239,12 +60539,18 @@
       <c r="C23" s="1" t="s">
         <v>2740</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="R23" s="1">
+      <c r="E23" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>3124</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="P23" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>538</v>
       </c>
@@ -60252,11 +60558,11 @@
         <v>5</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>3109</v>
-      </c>
-      <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="1:18">
+        <v>3111</v>
+      </c>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>538</v>
       </c>
@@ -60266,12 +60572,12 @@
       <c r="C25" s="1" t="s">
         <v>2741</v>
       </c>
-      <c r="M25" s="1"/>
-      <c r="R25" s="1">
+      <c r="K25" s="1"/>
+      <c r="P25" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:16">
       <c r="A26" s="1" t="s">
         <v>538</v>
       </c>
@@ -60279,14 +60585,17 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>2742</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="R26" s="1">
+        <v>2743</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>3110</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="P26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>538</v>
       </c>
@@ -60294,14 +60603,17 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>2743</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="R27" s="1">
+        <v>2742</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="1"/>
+      <c r="P27" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>538</v>
       </c>
@@ -60311,12 +60623,12 @@
       <c r="C28" s="1" t="s">
         <v>2744</v>
       </c>
-      <c r="M28" s="1"/>
-      <c r="R28" s="1">
+      <c r="K28" s="1"/>
+      <c r="P28" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:16">
       <c r="A29" s="1" t="s">
         <v>538</v>
       </c>
@@ -60326,12 +60638,18 @@
       <c r="C29" s="1" t="s">
         <v>2745</v>
       </c>
-      <c r="M29" s="1"/>
-      <c r="R29" s="1">
+      <c r="G29" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>2746</v>
+      </c>
+      <c r="K29" s="1"/>
+      <c r="P29" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60339,11 +60657,11 @@
         <v>5</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>3102</v>
-      </c>
-      <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="1:18">
+        <v>3097</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60353,12 +60671,21 @@
       <c r="C31" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="M31" s="1"/>
-      <c r="R31" s="1">
+      <c r="F31" s="1" t="s">
+        <v>3115</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="K31" s="1"/>
+      <c r="P31" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60368,12 +60695,15 @@
       <c r="C32" s="1" t="s">
         <v>2747</v>
       </c>
-      <c r="M32" s="1"/>
-      <c r="R32" s="1">
+      <c r="F32" s="1" t="s">
+        <v>3116</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="P32" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60383,12 +60713,15 @@
       <c r="C33" s="1" t="s">
         <v>2748</v>
       </c>
-      <c r="M33" s="1"/>
-      <c r="R33" s="1">
+      <c r="F33" s="1" t="s">
+        <v>3117</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="P33" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60398,12 +60731,15 @@
       <c r="C34" s="1" t="s">
         <v>2749</v>
       </c>
-      <c r="M34" s="1"/>
-      <c r="R34" s="1">
+      <c r="F34" s="1" t="s">
+        <v>3118</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="P34" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>2705</v>
       </c>
@@ -60413,12 +60749,15 @@
       <c r="C35" s="1" t="s">
         <v>2750</v>
       </c>
-      <c r="M35" s="1"/>
-      <c r="R35" s="1">
+      <c r="F35" s="1" t="s">
+        <v>3119</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="P35" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:16">
       <c r="A36" s="1" t="s">
         <v>759</v>
       </c>
@@ -60426,11 +60765,14 @@
         <v>5</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>3110</v>
-      </c>
-      <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="1:18">
+        <v>3102</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>3125</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:16" ht="52.2">
       <c r="A37" s="1" t="s">
         <v>759</v>
       </c>
@@ -60440,12 +60782,18 @@
       <c r="C37" s="1" t="s">
         <v>2767</v>
       </c>
-      <c r="M37" s="1"/>
-      <c r="R37" s="1">
+      <c r="F37" s="2" t="s">
+        <v>3126</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="P37" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>759</v>
       </c>
@@ -60455,12 +60803,15 @@
       <c r="C38" s="1" t="s">
         <v>2768</v>
       </c>
-      <c r="M38" s="1"/>
-      <c r="R38" s="1">
+      <c r="I38" s="1" t="s">
+        <v>3127</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="P38" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>759</v>
       </c>
@@ -60470,12 +60821,15 @@
       <c r="C39" s="1" t="s">
         <v>2769</v>
       </c>
-      <c r="M39" s="1"/>
-      <c r="R39" s="1">
+      <c r="F39" s="1" t="s">
+        <v>3128</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="P39" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>759</v>
       </c>
@@ -60485,12 +60839,15 @@
       <c r="C40" s="1" t="s">
         <v>2770</v>
       </c>
-      <c r="M40" s="1"/>
-      <c r="R40" s="1">
+      <c r="F40" s="1" t="s">
+        <v>3129</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="P40" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>759</v>
       </c>
@@ -60500,12 +60857,15 @@
       <c r="C41" s="1" t="s">
         <v>2771</v>
       </c>
-      <c r="M41" s="1"/>
-      <c r="R41" s="1">
+      <c r="I41" s="1" t="s">
+        <v>3130</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="P41" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60513,11 +60873,14 @@
         <v>6</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>3100</v>
-      </c>
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:18">
+        <v>3096</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>3131</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60527,12 +60890,15 @@
       <c r="C43" s="1" t="s">
         <v>2721</v>
       </c>
-      <c r="M43" s="1"/>
-      <c r="R43" s="1">
+      <c r="G43" s="1" t="s">
+        <v>3090</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="P43" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:16">
       <c r="A44" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60542,12 +60908,18 @@
       <c r="C44" s="1" t="s">
         <v>2722</v>
       </c>
-      <c r="M44" s="1"/>
-      <c r="R44" s="1">
+      <c r="F44" s="1" t="s">
+        <v>3132</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>3133</v>
+      </c>
+      <c r="K44" s="1"/>
+      <c r="P44" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:16">
       <c r="A45" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60557,12 +60929,12 @@
       <c r="C45" s="1" t="s">
         <v>2723</v>
       </c>
-      <c r="M45" s="1"/>
-      <c r="R45" s="1">
+      <c r="K45" s="1"/>
+      <c r="P45" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60572,12 +60944,18 @@
       <c r="C46" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="M46" s="1"/>
-      <c r="R46" s="1">
+      <c r="F46" s="1" t="s">
+        <v>3134</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>3135</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="P46" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60585,14 +60963,17 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>3094</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="R47" s="1">
+        <v>3091</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>3136</v>
+      </c>
+      <c r="K47" s="1"/>
+      <c r="P47" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>2702</v>
       </c>
@@ -60602,12 +60983,15 @@
       <c r="C48" s="1" t="s">
         <v>2725</v>
       </c>
-      <c r="M48" s="1"/>
-      <c r="R48" s="1">
+      <c r="F48" s="1" t="s">
+        <v>3137</v>
+      </c>
+      <c r="K48" s="1"/>
+      <c r="P48" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:16">
       <c r="A49" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60615,11 +60999,14 @@
         <v>6</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>3098</v>
-      </c>
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="1:18">
+        <v>3143</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>3138</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60629,12 +61016,12 @@
       <c r="C50" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="M50" s="1"/>
-      <c r="R50" s="1">
+      <c r="K50" s="1"/>
+      <c r="P50" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:16">
       <c r="A51" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60642,14 +61029,20 @@
         <v>6</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>3095</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="R51" s="1">
+        <v>3092</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>3139</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>3142</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="P51" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:16">
       <c r="A52" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60659,12 +61052,18 @@
       <c r="C52" s="1" t="s">
         <v>2778</v>
       </c>
-      <c r="M52" s="1"/>
-      <c r="R52" s="1">
+      <c r="F52" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>3140</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="P52" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:16">
       <c r="A53" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60674,12 +61073,12 @@
       <c r="C53" s="1" t="s">
         <v>2779</v>
       </c>
-      <c r="M53" s="1"/>
-      <c r="R53" s="1">
+      <c r="K53" s="1"/>
+      <c r="P53" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:16">
       <c r="A54" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60689,12 +61088,12 @@
       <c r="C54" s="1" t="s">
         <v>2780</v>
       </c>
-      <c r="M54" s="1"/>
-      <c r="R54" s="1">
+      <c r="K54" s="1"/>
+      <c r="P54" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:16">
       <c r="A55" s="1" t="s">
         <v>2712</v>
       </c>
@@ -60704,21 +61103,24 @@
       <c r="C55" s="1" t="s">
         <v>2781</v>
       </c>
-      <c r="M55" s="1"/>
-      <c r="R55" s="1">
+      <c r="F55" s="1" t="s">
+        <v>3141</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="P55" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:16">
       <c r="A56" s="1" t="s">
         <v>2796</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3103</v>
-      </c>
-      <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="1:18">
+        <v>3098</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60728,12 +61130,12 @@
       <c r="C57" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="M57" s="1"/>
-      <c r="R57" s="1">
+      <c r="K57" s="1"/>
+      <c r="P57" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:16">
       <c r="A58" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60743,12 +61145,12 @@
       <c r="C58" s="1" t="s">
         <v>2801</v>
       </c>
-      <c r="M58" s="1"/>
-      <c r="R58" s="1">
+      <c r="K58" s="1"/>
+      <c r="P58" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:16">
       <c r="A59" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60758,12 +61160,12 @@
       <c r="C59" s="1" t="s">
         <v>2802</v>
       </c>
-      <c r="M59" s="1"/>
-      <c r="R59" s="1">
+      <c r="K59" s="1"/>
+      <c r="P59" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:16">
       <c r="A60" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60773,12 +61175,12 @@
       <c r="C60" s="1" t="s">
         <v>2803</v>
       </c>
-      <c r="M60" s="1"/>
-      <c r="R60" s="1">
+      <c r="K60" s="1"/>
+      <c r="P60" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:16">
       <c r="A61" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60788,12 +61190,12 @@
       <c r="C61" s="1" t="s">
         <v>2804</v>
       </c>
-      <c r="M61" s="1"/>
-      <c r="R61" s="1">
+      <c r="K61" s="1"/>
+      <c r="P61" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:16">
       <c r="A62" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60803,12 +61205,12 @@
       <c r="C62" s="1" t="s">
         <v>2805</v>
       </c>
-      <c r="M62" s="1"/>
-      <c r="R62" s="1">
+      <c r="K62" s="1"/>
+      <c r="P62" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:16">
       <c r="A63" s="1" t="s">
         <v>2796</v>
       </c>
@@ -60818,21 +61220,21 @@
       <c r="C63" s="1" t="s">
         <v>2806</v>
       </c>
-      <c r="M63" s="1"/>
-      <c r="R63" s="1">
+      <c r="K63" s="1"/>
+      <c r="P63" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:16">
       <c r="A64" s="1" t="s">
         <v>2798</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3096</v>
-      </c>
-      <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="1:18">
+        <v>3093</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60842,12 +61244,12 @@
       <c r="C65" s="1" t="s">
         <v>2807</v>
       </c>
-      <c r="M65" s="1"/>
-      <c r="R65" s="1">
+      <c r="K65" s="1"/>
+      <c r="P65" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:16">
       <c r="A66" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60857,12 +61259,12 @@
       <c r="C66" s="1" t="s">
         <v>2808</v>
       </c>
-      <c r="M66" s="1"/>
-      <c r="R66" s="1">
+      <c r="K66" s="1"/>
+      <c r="P66" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:16">
       <c r="A67" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60872,12 +61274,12 @@
       <c r="C67" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="M67" s="1"/>
-      <c r="R67" s="1">
+      <c r="K67" s="1"/>
+      <c r="P67" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:16">
       <c r="A68" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60887,12 +61289,12 @@
       <c r="C68" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="M68" s="1"/>
-      <c r="R68" s="1">
+      <c r="K68" s="1"/>
+      <c r="P68" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:16">
       <c r="A69" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60902,12 +61304,12 @@
       <c r="C69" s="1" t="s">
         <v>2811</v>
       </c>
-      <c r="M69" s="1"/>
-      <c r="R69" s="1">
+      <c r="K69" s="1"/>
+      <c r="P69" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:16">
       <c r="A70" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60917,12 +61319,12 @@
       <c r="C70" s="1" t="s">
         <v>2812</v>
       </c>
-      <c r="M70" s="1"/>
-      <c r="R70" s="1">
+      <c r="K70" s="1"/>
+      <c r="P70" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:16">
       <c r="A71" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60932,12 +61334,12 @@
       <c r="C71" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="M71" s="1"/>
-      <c r="R71" s="1">
+      <c r="K71" s="1"/>
+      <c r="P71" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:16">
       <c r="A72" s="1" t="s">
         <v>2798</v>
       </c>
@@ -60947,21 +61349,21 @@
       <c r="C72" s="1" t="s">
         <v>2814</v>
       </c>
-      <c r="M72" s="1"/>
-      <c r="R72" s="1">
+      <c r="K72" s="1"/>
+      <c r="P72" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:16">
       <c r="A73" s="1" t="s">
         <v>2799</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>3097</v>
-      </c>
-      <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="1:18">
+        <v>3094</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="1" t="s">
         <v>2799</v>
       </c>
@@ -60971,12 +61373,12 @@
       <c r="C74" s="1" t="s">
         <v>2815</v>
       </c>
-      <c r="M74" s="1"/>
-      <c r="R74" s="1">
+      <c r="K74" s="1"/>
+      <c r="P74" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:16">
       <c r="A75" s="1" t="s">
         <v>2799</v>
       </c>
@@ -60986,12 +61388,12 @@
       <c r="C75" s="1" t="s">
         <v>2816</v>
       </c>
-      <c r="M75" s="1"/>
-      <c r="R75" s="1">
+      <c r="K75" s="1"/>
+      <c r="P75" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:16">
       <c r="A76" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61001,12 +61403,12 @@
       <c r="C76" s="1" t="s">
         <v>2817</v>
       </c>
-      <c r="M76" s="1"/>
-      <c r="R76" s="1">
+      <c r="K76" s="1"/>
+      <c r="P76" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:16">
       <c r="A77" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61016,12 +61418,12 @@
       <c r="C77" s="1" t="s">
         <v>2818</v>
       </c>
-      <c r="M77" s="1"/>
-      <c r="R77" s="1">
+      <c r="K77" s="1"/>
+      <c r="P77" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:16">
       <c r="A78" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61031,12 +61433,12 @@
       <c r="C78" s="1" t="s">
         <v>2819</v>
       </c>
-      <c r="M78" s="1"/>
-      <c r="R78" s="1">
+      <c r="K78" s="1"/>
+      <c r="P78" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:16">
       <c r="A79" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61046,12 +61448,12 @@
       <c r="C79" s="1" t="s">
         <v>2820</v>
       </c>
-      <c r="M79" s="1"/>
-      <c r="R79" s="1">
+      <c r="K79" s="1"/>
+      <c r="P79" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:16">
       <c r="A80" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61061,12 +61463,12 @@
       <c r="C80" s="1" t="s">
         <v>2821</v>
       </c>
-      <c r="M80" s="1"/>
-      <c r="R80" s="1">
+      <c r="K80" s="1"/>
+      <c r="P80" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:16">
       <c r="A81" s="1" t="s">
         <v>2799</v>
       </c>
@@ -61076,21 +61478,21 @@
       <c r="C81" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="M81" s="1"/>
-      <c r="R81" s="1">
+      <c r="K81" s="1"/>
+      <c r="P81" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:16">
       <c r="A82" s="1" t="s">
         <v>2714</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>3104</v>
-      </c>
-      <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="1:18">
+        <v>3099</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61100,12 +61502,12 @@
       <c r="C83" s="1" t="s">
         <v>2782</v>
       </c>
-      <c r="M83" s="1"/>
-      <c r="R83" s="1">
+      <c r="K83" s="1"/>
+      <c r="P83" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:16">
       <c r="A84" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61115,12 +61517,15 @@
       <c r="C84" s="1" t="s">
         <v>2783</v>
       </c>
-      <c r="M84" s="1"/>
-      <c r="R84" s="1">
+      <c r="I84" s="1" t="s">
+        <v>3152</v>
+      </c>
+      <c r="K84" s="1"/>
+      <c r="P84" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:16">
       <c r="A85" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61130,12 +61535,12 @@
       <c r="C85" s="1" t="s">
         <v>2784</v>
       </c>
-      <c r="M85" s="1"/>
-      <c r="R85" s="1">
+      <c r="K85" s="1"/>
+      <c r="P85" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:16">
       <c r="A86" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61145,12 +61550,15 @@
       <c r="C86" s="1" t="s">
         <v>2785</v>
       </c>
-      <c r="M86" s="1"/>
-      <c r="R86" s="1">
+      <c r="F86" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="K86" s="1"/>
+      <c r="P86" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:16">
       <c r="A87" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61160,12 +61568,15 @@
       <c r="C87" s="1" t="s">
         <v>2786</v>
       </c>
-      <c r="M87" s="1"/>
-      <c r="R87" s="1">
+      <c r="F87" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="K87" s="1"/>
+      <c r="P87" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:16">
       <c r="A88" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61175,12 +61586,18 @@
       <c r="C88" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="M88" s="1"/>
-      <c r="R88" s="1">
+      <c r="F88" s="1" t="s">
+        <v>3147</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>3148</v>
+      </c>
+      <c r="K88" s="1"/>
+      <c r="P88" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:16">
       <c r="A89" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61190,12 +61607,15 @@
       <c r="C89" s="1" t="s">
         <v>2788</v>
       </c>
-      <c r="M89" s="1"/>
-      <c r="R89" s="1">
+      <c r="G89" s="1" t="s">
+        <v>3149</v>
+      </c>
+      <c r="K89" s="1"/>
+      <c r="P89" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:16">
       <c r="A90" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61205,12 +61625,15 @@
       <c r="C90" s="1" t="s">
         <v>2789</v>
       </c>
-      <c r="M90" s="1"/>
-      <c r="R90" s="1">
+      <c r="F90" s="1" t="s">
+        <v>3150</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="P90" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:16">
       <c r="A91" s="1" t="s">
         <v>2714</v>
       </c>
@@ -61220,21 +61643,24 @@
       <c r="C91" s="1" t="s">
         <v>2790</v>
       </c>
-      <c r="M91" s="1"/>
-      <c r="R91" s="1">
+      <c r="I91" s="1" t="s">
+        <v>3151</v>
+      </c>
+      <c r="K91" s="1"/>
+      <c r="P91" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:18">
+    <row r="92" spans="1:16">
       <c r="A92" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>3105</v>
-      </c>
-      <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="1:18">
+        <v>3103</v>
+      </c>
+      <c r="K92" s="1"/>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="1" t="s">
         <v>71</v>
       </c>
@@ -61244,12 +61670,12 @@
       <c r="C93" s="1" t="s">
         <v>2726</v>
       </c>
-      <c r="M93" s="1"/>
-      <c r="R93" s="1">
+      <c r="K93" s="1"/>
+      <c r="P93" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:18">
+    <row r="94" spans="1:16">
       <c r="A94" s="1" t="s">
         <v>71</v>
       </c>
@@ -61259,12 +61685,12 @@
       <c r="C94" s="1" t="s">
         <v>2727</v>
       </c>
-      <c r="M94" s="1"/>
-      <c r="R94" s="1">
+      <c r="K94" s="1"/>
+      <c r="P94" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:18">
+    <row r="95" spans="1:16">
       <c r="A95" s="1" t="s">
         <v>71</v>
       </c>
@@ -61274,12 +61700,12 @@
       <c r="C95" s="1" t="s">
         <v>2728</v>
       </c>
-      <c r="M95" s="1"/>
-      <c r="R95" s="1">
+      <c r="K95" s="1"/>
+      <c r="P95" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:18">
+    <row r="96" spans="1:16">
       <c r="A96" s="1" t="s">
         <v>71</v>
       </c>
@@ -61289,12 +61715,12 @@
       <c r="C96" s="1" t="s">
         <v>2729</v>
       </c>
-      <c r="M96" s="1"/>
-      <c r="R96" s="1">
+      <c r="K96" s="1"/>
+      <c r="P96" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:18">
+    <row r="97" spans="1:16">
       <c r="A97" s="1" t="s">
         <v>71</v>
       </c>
@@ -61304,12 +61730,12 @@
       <c r="C97" s="1" t="s">
         <v>2730</v>
       </c>
-      <c r="M97" s="1"/>
-      <c r="R97" s="1">
+      <c r="K97" s="1"/>
+      <c r="P97" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:18">
+    <row r="98" spans="1:16">
       <c r="A98" s="1" t="s">
         <v>71</v>
       </c>
@@ -61319,12 +61745,12 @@
       <c r="C98" s="1" t="s">
         <v>2731</v>
       </c>
-      <c r="M98" s="1"/>
-      <c r="R98" s="1">
+      <c r="K98" s="1"/>
+      <c r="P98" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:18">
+    <row r="99" spans="1:16">
       <c r="A99" s="1" t="s">
         <v>71</v>
       </c>
@@ -61334,12 +61760,12 @@
       <c r="C99" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="M99" s="1"/>
-      <c r="R99" s="1">
+      <c r="K99" s="1"/>
+      <c r="P99" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:18">
+    <row r="100" spans="1:16">
       <c r="A100" s="1" t="s">
         <v>71</v>
       </c>
@@ -61349,12 +61775,12 @@
       <c r="C100" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="M100" s="1"/>
-      <c r="R100" s="1">
+      <c r="K100" s="1"/>
+      <c r="P100" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:18">
+    <row r="101" spans="1:16">
       <c r="A101" s="1" t="s">
         <v>71</v>
       </c>
@@ -61364,12 +61790,12 @@
       <c r="C101" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="M101" s="1"/>
-      <c r="R101" s="1">
+      <c r="K101" s="1"/>
+      <c r="P101" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="1:18">
+    <row r="102" spans="1:16">
       <c r="A102" s="1" t="s">
         <v>71</v>
       </c>
@@ -61379,21 +61805,21 @@
       <c r="C102" s="1" t="s">
         <v>2735</v>
       </c>
-      <c r="M102" s="1"/>
-      <c r="R102" s="1">
+      <c r="K102" s="1"/>
+      <c r="P102" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:18">
+    <row r="103" spans="1:16">
       <c r="A103" s="1" t="s">
         <v>2707</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3099</v>
-      </c>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="1:18">
+        <v>3095</v>
+      </c>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61403,12 +61829,12 @@
       <c r="C104" s="1" t="s">
         <v>2751</v>
       </c>
-      <c r="M104" s="1"/>
-      <c r="R104" s="1">
+      <c r="K104" s="1"/>
+      <c r="P104" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:18">
+    <row r="105" spans="1:16">
       <c r="A105" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61418,12 +61844,12 @@
       <c r="C105" s="1" t="s">
         <v>2752</v>
       </c>
-      <c r="M105" s="1"/>
-      <c r="R105" s="1">
+      <c r="K105" s="1"/>
+      <c r="P105" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:18">
+    <row r="106" spans="1:16">
       <c r="A106" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61433,12 +61859,12 @@
       <c r="C106" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="M106" s="1"/>
-      <c r="R106" s="1">
+      <c r="K106" s="1"/>
+      <c r="P106" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:18">
+    <row r="107" spans="1:16">
       <c r="A107" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61448,12 +61874,12 @@
       <c r="C107" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="M107" s="1"/>
-      <c r="R107" s="1">
+      <c r="K107" s="1"/>
+      <c r="P107" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:18">
+    <row r="108" spans="1:16">
       <c r="A108" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61463,12 +61889,12 @@
       <c r="C108" s="1" t="s">
         <v>2755</v>
       </c>
-      <c r="M108" s="1"/>
-      <c r="R108" s="1">
+      <c r="K108" s="1"/>
+      <c r="P108" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:18">
+    <row r="109" spans="1:16">
       <c r="A109" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61478,12 +61904,12 @@
       <c r="C109" s="1" t="s">
         <v>2756</v>
       </c>
-      <c r="M109" s="1"/>
-      <c r="R109" s="1">
+      <c r="K109" s="1"/>
+      <c r="P109" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:18">
+    <row r="110" spans="1:16">
       <c r="A110" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61493,12 +61919,12 @@
       <c r="C110" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="M110" s="1"/>
-      <c r="R110" s="1">
+      <c r="K110" s="1"/>
+      <c r="P110" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:18">
+    <row r="111" spans="1:16">
       <c r="A111" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61508,12 +61934,12 @@
       <c r="C111" s="1" t="s">
         <v>2758</v>
       </c>
-      <c r="M111" s="1"/>
-      <c r="R111" s="1">
+      <c r="K111" s="1"/>
+      <c r="P111" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:18">
+    <row r="112" spans="1:16">
       <c r="A112" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61523,12 +61949,12 @@
       <c r="C112" s="1" t="s">
         <v>2759</v>
       </c>
-      <c r="M112" s="1"/>
-      <c r="R112" s="1">
+      <c r="K112" s="1"/>
+      <c r="P112" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:18">
+    <row r="113" spans="1:16">
       <c r="A113" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61538,12 +61964,12 @@
       <c r="C113" s="1" t="s">
         <v>2760</v>
       </c>
-      <c r="M113" s="1"/>
-      <c r="R113" s="1">
+      <c r="K113" s="1"/>
+      <c r="P113" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:18">
+    <row r="114" spans="1:16">
       <c r="A114" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61553,12 +61979,12 @@
       <c r="C114" s="1" t="s">
         <v>2761</v>
       </c>
-      <c r="M114" s="1"/>
-      <c r="R114" s="1">
+      <c r="K114" s="1"/>
+      <c r="P114" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:18">
+    <row r="115" spans="1:16">
       <c r="A115" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61568,12 +61994,12 @@
       <c r="C115" s="1" t="s">
         <v>2762</v>
       </c>
-      <c r="M115" s="1"/>
-      <c r="R115" s="1">
+      <c r="K115" s="1"/>
+      <c r="P115" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:18">
+    <row r="116" spans="1:16">
       <c r="A116" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61583,12 +62009,12 @@
       <c r="C116" s="1" t="s">
         <v>2763</v>
       </c>
-      <c r="M116" s="1"/>
-      <c r="R116" s="1">
+      <c r="K116" s="1"/>
+      <c r="P116" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:18">
+    <row r="117" spans="1:16">
       <c r="A117" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61598,12 +62024,15 @@
       <c r="C117" s="1" t="s">
         <v>2764</v>
       </c>
-      <c r="M117" s="1"/>
-      <c r="R117" s="1">
+      <c r="I117" s="1" t="s">
+        <v>3146</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="P117" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:18">
+    <row r="118" spans="1:16">
       <c r="A118" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61613,12 +62042,12 @@
       <c r="C118" s="1" t="s">
         <v>2765</v>
       </c>
-      <c r="M118" s="1"/>
-      <c r="R118" s="1">
+      <c r="K118" s="1"/>
+      <c r="P118" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:18">
+    <row r="119" spans="1:16">
       <c r="A119" s="1" t="s">
         <v>2707</v>
       </c>
@@ -61628,15 +62057,15 @@
       <c r="C119" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="M119" s="1"/>
-      <c r="R119" s="1">
+      <c r="K119" s="1"/>
+      <c r="P119" s="1">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F119">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E119">
     <sortCondition ref="B3:B119"/>
-    <sortCondition ref="F3:F119"/>
+    <sortCondition ref="E3:E119"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61650,20 +62079,20 @@
   <dimension ref="A1:J185"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6.140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="13"/>
+    <col min="1" max="1" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="6.1640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.4140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64345,15 +64774,15 @@
       <selection pane="bottomLeft" activeCell="C37" sqref="C18:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="8.75" style="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
-    <col min="7" max="9" width="8.7109375" style="1"/>
+    <col min="7" max="9" width="8.75" style="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7109375" style="1"/>
+    <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -64877,25 +65306,25 @@
   <dimension ref="A1:L180"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G64" sqref="G64"/>
-      <selection pane="bottomLeft" activeCell="D171" sqref="D171"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="2" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -65589,7 +66018,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="19">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>223</v>
       </c>
@@ -65609,7 +66038,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="19">
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
         <v>32</v>
       </c>
@@ -67987,19 +68416,19 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.42578125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" style="1" customWidth="1"/>
-    <col min="11" max="14" width="8.7109375" style="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.4140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.4140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.75" style="1" customWidth="1"/>
+    <col min="11" max="14" width="8.75" style="1"/>
+    <col min="17" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -68304,7 +68733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="38">
+    <row r="16" spans="1:18" ht="34.799999999999997">
       <c r="A16" s="1" t="s">
         <v>629</v>
       </c>
@@ -68325,7 +68754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="38">
+    <row r="17" spans="1:18" ht="34.799999999999997">
       <c r="A17" s="1" t="s">
         <v>635</v>
       </c>
@@ -69156,25 +69585,25 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L389"/>
   <sheetViews>
-    <sheetView zoomScale="135" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9:G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" style="1"/>
-    <col min="3" max="3" width="3.5703125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.7109375" style="1"/>
-    <col min="6" max="6" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="1"/>
+    <col min="3" max="3" width="3.58203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="1"/>
+    <col min="6" max="6" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="1"/>
-    <col min="9" max="9" width="22.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1"/>
-    <col min="13" max="16384" width="8.7109375" style="1"/>
+    <col min="8" max="8" width="8.75" style="1"/>
+    <col min="9" max="9" width="22.4140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="29.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="1"/>
+    <col min="13" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -69416,7 +69845,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="76">
+    <row r="23" spans="1:10" ht="69.599999999999994">
       <c r="A23" s="1" t="s">
         <v>72</v>
       </c>
@@ -70865,7 +71294,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="38">
+    <row r="104" spans="1:10" ht="34.799999999999997">
       <c r="A104" s="1" t="s">
         <v>66</v>
       </c>
@@ -72237,7 +72666,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="57">
+    <row r="177" spans="1:10" ht="52.2">
       <c r="A177" s="1" t="s">
         <v>32</v>
       </c>
@@ -75027,7 +75456,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="38">
+    <row r="334" spans="1:11" ht="34.799999999999997">
       <c r="A334" s="1" t="s">
         <v>91</v>
       </c>
